--- a/class/2025/スプレッドシート→xml変換用.xlsx
+++ b/class/2025/スプレッドシート→xml変換用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL_Local\24\HEW\AT13GP11HEW\class\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46833BF-E373-4502-A690-C60B89CF4BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC26C80-B95B-4EB7-A9E5-535A4CFDE70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="345" windowWidth="17850" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="17850" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -5441,19 +5441,6 @@
     <t>悠哉</t>
   </si>
   <si>
-    <t>3Dシューティング</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1QGcPM-CpdQ_M011KnbHwoOJfTRPAzhbO/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>プログラミングが苦手なのでUnityを使用してゲームを作りました。
-３年はコロナになったり、腰を壊したりで多少散々でしたが、どうにかやりきる気持ちで作りました。</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nLRHDQDQCNZJKUn06PSFaiIx0P3zeNdE/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://docs.google.com/presentation/d/1iXrsrGaTY1a5V10hJ-xZ5a2SRpiU5yKc/edit?usp=sharing&amp;ouid=104019891104483267461&amp;rtpof=true&amp;sd=true</t>
   </si>
   <si>
@@ -5614,6 +5601,19 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/16SCjwWNC67Oh-2f5QXi95gBvaBNnfMq4/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>3Dシューティングラン</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OVp5MKksYZ4jyzCrFr_W1KvNBsXnO-s4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>プログラミングが苦手故に時間がかかるのでUnityを使用してゲームを作りました。
+３年はコロナになったり、腰を壊したり、もともと提出予定だったデータが潰れたりで多少散々でしたがどうにかやりきる気持ちで作りました。</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_Yuu38PJj9Ki9BgCyshTqAwbQRKa3RQp/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -5979,7 +5979,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6070,6 +6070,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6539,8 +6545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAE520B-4F54-4A44-961F-3907B8152135}">
   <dimension ref="A1:W127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="112.15" customHeight="1"/>
@@ -6621,7 +6627,7 @@
       <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="31">
         <v>26</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -6681,7 +6687,7 @@
       <c r="B3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="19">
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -6741,7 +6747,7 @@
       <c r="B4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="18">
         <v>14</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -6801,7 +6807,7 @@
       <c r="B5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="19">
         <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -6861,7 +6867,7 @@
       <c r="B6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="18">
         <v>19</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -6921,7 +6927,7 @@
       <c r="B7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="19">
         <v>9</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -6981,7 +6987,7 @@
       <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="18">
         <v>27</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -7035,7 +7041,7 @@
       <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="19">
         <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -7089,7 +7095,7 @@
       <c r="B10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="18">
         <v>15</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -7143,7 +7149,7 @@
       <c r="B11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="19">
         <v>23</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -7197,7 +7203,7 @@
       <c r="B12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="18">
         <v>12</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -7251,7 +7257,7 @@
       <c r="B13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="19">
         <v>24</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -7305,7 +7311,7 @@
       <c r="B14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <v>7</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -7359,7 +7365,7 @@
       <c r="B15" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="19">
         <v>4</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -7413,7 +7419,7 @@
       <c r="B16" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="18">
         <v>14</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -7467,7 +7473,7 @@
       <c r="B17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="19">
         <v>21</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -7521,7 +7527,7 @@
       <c r="B18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="18">
         <v>10</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -7575,7 +7581,7 @@
       <c r="B19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="19">
         <v>17</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -7629,7 +7635,7 @@
       <c r="B20" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="18">
         <v>4</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -7683,7 +7689,7 @@
       <c r="B21" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="19">
         <v>27</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -7737,7 +7743,7 @@
       <c r="B22" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="18">
         <v>10</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -7791,7 +7797,7 @@
       <c r="B23" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="19">
         <v>28</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -7845,7 +7851,7 @@
       <c r="B24" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="18">
         <v>22</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -7899,7 +7905,7 @@
       <c r="B25" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="19">
         <v>9</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -7953,7 +7959,7 @@
       <c r="B26" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="18">
         <v>29</v>
       </c>
       <c r="D26" s="15" t="s">
@@ -8007,7 +8013,7 @@
       <c r="B27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="19">
         <v>19</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -8061,7 +8067,7 @@
       <c r="B28" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="18">
         <v>28</v>
       </c>
       <c r="D28" s="15" t="s">
@@ -8115,7 +8121,7 @@
       <c r="B29" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="19">
         <v>21</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -8169,7 +8175,7 @@
       <c r="B30" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="18">
         <v>2</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -8223,7 +8229,7 @@
       <c r="B31" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="19">
         <v>16</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -8547,7 +8553,7 @@
       <c r="B37" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="19">
         <v>7</v>
       </c>
       <c r="D37" s="12" t="s">
@@ -8817,7 +8823,7 @@
       <c r="B42" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="18">
         <v>8</v>
       </c>
       <c r="D42" s="15" t="s">
@@ -8871,7 +8877,7 @@
       <c r="B43" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="19">
         <v>8</v>
       </c>
       <c r="D43" s="12" t="s">
@@ -9141,7 +9147,7 @@
       <c r="B48" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="18">
         <v>2</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -9195,7 +9201,7 @@
       <c r="B49" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="19">
         <v>6</v>
       </c>
       <c r="D49" s="12" t="s">
@@ -9249,7 +9255,7 @@
       <c r="B50" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="18">
         <v>7</v>
       </c>
       <c r="D50" s="15" t="s">
@@ -9357,7 +9363,7 @@
       <c r="B52" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="18">
         <v>3</v>
       </c>
       <c r="D52" s="15" t="s">
@@ -9789,7 +9795,7 @@
       <c r="B60" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="18">
         <v>8</v>
       </c>
       <c r="D60" s="15" t="s">
@@ -9843,7 +9849,7 @@
       <c r="B61" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="19">
         <v>9</v>
       </c>
       <c r="D61" s="12" t="s">
@@ -10005,7 +10011,7 @@
       <c r="B64" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="18">
         <v>1</v>
       </c>
       <c r="D64" s="15" t="s">
@@ -10653,7 +10659,7 @@
       <c r="B76" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="18">
         <v>6</v>
       </c>
       <c r="D76" s="15" t="s">
@@ -10707,7 +10713,7 @@
       <c r="B77" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="19">
         <v>1</v>
       </c>
       <c r="D77" s="12" t="s">
@@ -10761,7 +10767,7 @@
       <c r="B78" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="18">
         <v>1</v>
       </c>
       <c r="D78" s="15" t="s">
@@ -10815,7 +10821,7 @@
       <c r="B79" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="19">
         <v>5</v>
       </c>
       <c r="D79" s="12" t="s">
@@ -10869,7 +10875,7 @@
       <c r="B80" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="18">
         <v>2</v>
       </c>
       <c r="D80" s="15" t="s">
@@ -11031,7 +11037,7 @@
       <c r="B83" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="19">
         <v>7</v>
       </c>
       <c r="D83" s="12" t="s">
@@ -11139,7 +11145,7 @@
       <c r="B85" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="19">
         <v>3</v>
       </c>
       <c r="D85" s="12" t="s">
@@ -11625,7 +11631,7 @@
       <c r="B94" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="18">
         <v>6</v>
       </c>
       <c r="D94" s="15" t="s">
@@ -11704,7 +11710,7 @@
         <v>1196</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="L95" s="12" t="s">
         <v>1197</v>
@@ -11733,7 +11739,7 @@
       <c r="B96" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="18">
         <v>3</v>
       </c>
       <c r="D96" s="15" t="s">
@@ -11949,7 +11955,7 @@
       <c r="B100" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="18">
         <v>5</v>
       </c>
       <c r="D100" s="15" t="s">
@@ -12273,7 +12279,7 @@
       <c r="B106" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="15">
+      <c r="C106" s="18">
         <v>3</v>
       </c>
       <c r="D106" s="15" t="s">
@@ -12343,16 +12349,16 @@
         <v>1350</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="L107" s="12" t="s">
         <v>1352</v>
@@ -12361,16 +12367,16 @@
         <v>1353</v>
       </c>
       <c r="N107" s="13" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="O107" s="13" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="P107" s="13" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="Q107" s="14" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="112.15" customHeight="1" thickBot="1">
@@ -12921,7 +12927,7 @@
       <c r="B118" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C118" s="15">
+      <c r="C118" s="18">
         <v>5</v>
       </c>
       <c r="D118" s="15" t="s">
@@ -13255,40 +13261,40 @@
         <v>1565</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="G124" s="15" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H124" s="16" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I124" s="15" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J124" s="16" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K124" s="16" t="s">
         <v>1566</v>
       </c>
-      <c r="H124" s="16" t="s">
+      <c r="L124" s="15" t="s">
         <v>1567</v>
       </c>
-      <c r="I124" s="15" t="s">
+      <c r="M124" s="15" t="s">
         <v>1568</v>
       </c>
-      <c r="J124" s="16" t="s">
+      <c r="N124" s="16" t="s">
         <v>1569</v>
       </c>
-      <c r="K124" s="16" t="s">
+      <c r="O124" s="16" t="s">
         <v>1570</v>
       </c>
-      <c r="L124" s="15" t="s">
+      <c r="P124" s="16" t="s">
         <v>1571</v>
       </c>
-      <c r="M124" s="15" t="s">
-        <v>1572</v>
-      </c>
-      <c r="N124" s="16" t="s">
-        <v>1573</v>
-      </c>
-      <c r="O124" s="16" t="s">
-        <v>1574</v>
-      </c>
-      <c r="P124" s="16" t="s">
-        <v>1575</v>
-      </c>
       <c r="Q124" s="17" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="112.15" customHeight="1" thickBot="1">
@@ -13303,46 +13309,46 @@
         <v>11</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G125" s="12" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J125" s="13" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K125" s="13" t="s">
         <v>1578</v>
       </c>
-      <c r="H125" s="13" t="s">
+      <c r="L125" s="12" t="s">
         <v>1579</v>
       </c>
-      <c r="I125" s="12" t="s">
+      <c r="M125" s="12" t="s">
         <v>1580</v>
       </c>
-      <c r="J125" s="13" t="s">
+      <c r="N125" s="13" t="s">
         <v>1581</v>
       </c>
-      <c r="K125" s="13" t="s">
+      <c r="O125" s="13" t="s">
         <v>1582</v>
       </c>
-      <c r="L125" s="12" t="s">
+      <c r="P125" s="13" t="s">
         <v>1583</v>
       </c>
-      <c r="M125" s="12" t="s">
+      <c r="Q125" s="14" t="s">
         <v>1584</v>
-      </c>
-      <c r="N125" s="13" t="s">
-        <v>1585</v>
-      </c>
-      <c r="O125" s="13" t="s">
-        <v>1586</v>
-      </c>
-      <c r="P125" s="13" t="s">
-        <v>1587</v>
-      </c>
-      <c r="Q125" s="14" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="112.15" customHeight="1" thickBot="1">
@@ -13360,43 +13366,43 @@
         <v>782</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="F126" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G126" s="15" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H126" s="16" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J126" s="16" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K126" s="16" t="s">
         <v>1590</v>
       </c>
-      <c r="H126" s="16" t="s">
+      <c r="L126" s="15" t="s">
         <v>1591</v>
       </c>
-      <c r="I126" s="15" t="s">
+      <c r="M126" s="15" t="s">
         <v>1592</v>
       </c>
-      <c r="J126" s="16" t="s">
+      <c r="N126" s="16" t="s">
         <v>1593</v>
       </c>
-      <c r="K126" s="16" t="s">
+      <c r="O126" s="16" t="s">
         <v>1594</v>
       </c>
-      <c r="L126" s="15" t="s">
+      <c r="P126" s="16" t="s">
         <v>1595</v>
       </c>
-      <c r="M126" s="15" t="s">
+      <c r="Q126" s="17" t="s">
         <v>1596</v>
-      </c>
-      <c r="N126" s="16" t="s">
-        <v>1597</v>
-      </c>
-      <c r="O126" s="16" t="s">
-        <v>1598</v>
-      </c>
-      <c r="P126" s="16" t="s">
-        <v>1599</v>
-      </c>
-      <c r="Q126" s="17" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="112.15" customHeight="1" thickBot="1">
@@ -13407,937 +13413,937 @@
       <c r="B127" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="28">
+      <c r="C127" s="32">
         <v>2</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="F127" s="28" t="s">
         <v>20</v>
       </c>
       <c r="G127" s="28" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H127" s="29" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I127" s="28" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J127" s="29" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K127" s="29" t="s">
         <v>1604</v>
       </c>
-      <c r="H127" s="29" t="s">
+      <c r="L127" s="28" t="s">
         <v>1605</v>
       </c>
-      <c r="I127" s="28" t="s">
+      <c r="M127" s="28" t="s">
         <v>1606</v>
       </c>
-      <c r="J127" s="29" t="s">
+      <c r="N127" s="29" t="s">
         <v>1607</v>
       </c>
-      <c r="K127" s="29" t="s">
+      <c r="O127" s="29" t="s">
         <v>1608</v>
       </c>
-      <c r="L127" s="28" t="s">
+      <c r="P127" s="29" t="s">
         <v>1609</v>
       </c>
-      <c r="M127" s="28" t="s">
+      <c r="Q127" s="30" t="s">
         <v>1610</v>
-      </c>
-      <c r="N127" s="29" t="s">
-        <v>1611</v>
-      </c>
-      <c r="O127" s="29" t="s">
-        <v>1612</v>
-      </c>
-      <c r="P127" s="29" t="s">
-        <v>1613</v>
-      </c>
-      <c r="Q127" s="30" t="s">
-        <v>1614</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{125371A8-94C9-4AAC-83C8-8AA7F501FD44}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{DACC526B-DF90-43D2-AFCF-26F70AC3FB20}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{4CF0B33A-B8A3-4738-98B0-F391717FC71A}"/>
-    <hyperlink ref="N2" r:id="rId4" xr:uid="{31FA6EDA-004A-4E0D-B3D4-D598C9D30814}"/>
-    <hyperlink ref="O2" r:id="rId5" xr:uid="{4DDE0773-A380-40DD-81CB-3FA8D84184C8}"/>
-    <hyperlink ref="P2" r:id="rId6" xr:uid="{95A842FC-75C9-4D10-A781-4F659C982ED0}"/>
-    <hyperlink ref="Q2" r:id="rId7" xr:uid="{51AE1230-E9AD-42F2-9BC8-C357A3652B67}"/>
-    <hyperlink ref="H3" r:id="rId8" xr:uid="{CEF479E1-9FCD-4842-8314-11FC8E3B2CE2}"/>
-    <hyperlink ref="J3" r:id="rId9" xr:uid="{24ECF155-A31C-42FC-8DF2-E367119141A7}"/>
-    <hyperlink ref="K3" r:id="rId10" xr:uid="{933C7093-8CEC-450B-AF11-66943CB5B94E}"/>
-    <hyperlink ref="N3" r:id="rId11" xr:uid="{1C484891-E721-4E97-9302-0CD3D81AEC7A}"/>
-    <hyperlink ref="O3" r:id="rId12" xr:uid="{2A69602A-1721-43D9-8BB6-AE8DBC44FB0B}"/>
-    <hyperlink ref="P3" r:id="rId13" xr:uid="{A454245F-8828-4AAF-8365-E1FFA9847B39}"/>
-    <hyperlink ref="Q3" r:id="rId14" xr:uid="{D3777776-A3AA-4639-95E4-BF44546D7E10}"/>
-    <hyperlink ref="H4" r:id="rId15" xr:uid="{4AA75029-4FCC-42FA-A6D8-2990DD4A7A91}"/>
-    <hyperlink ref="J4" r:id="rId16" xr:uid="{91533052-BF14-4526-9CB2-C0372C96CDA9}"/>
-    <hyperlink ref="K4" r:id="rId17" xr:uid="{EB72F74B-E981-4C45-9E70-62D4E9D6E849}"/>
-    <hyperlink ref="N4" r:id="rId18" xr:uid="{ED45911A-7C19-4DE9-B1F6-C085B90ECC5C}"/>
-    <hyperlink ref="O4" r:id="rId19" xr:uid="{56139E42-ECC2-4E71-AE98-B334439CAC31}"/>
-    <hyperlink ref="P4" r:id="rId20" xr:uid="{E2834819-13E1-4E21-973D-A9FCCAC172ED}"/>
-    <hyperlink ref="Q4" r:id="rId21" xr:uid="{6ED19C20-C675-46ED-ADAD-7767392481F8}"/>
-    <hyperlink ref="H5" r:id="rId22" xr:uid="{EA9DDBC2-E79A-4230-9339-C41DE88B9C49}"/>
-    <hyperlink ref="J5" r:id="rId23" xr:uid="{EB0C227A-3CBA-4C57-8712-713632052CF4}"/>
-    <hyperlink ref="K5" r:id="rId24" xr:uid="{704DF158-76FE-4C41-919F-733B0DE317D4}"/>
-    <hyperlink ref="N5" r:id="rId25" xr:uid="{038896CC-E953-4E4D-9BFF-FA87508DBA74}"/>
-    <hyperlink ref="O5" r:id="rId26" xr:uid="{C0FA70B5-0A65-48D5-8A4E-3CB31315F91B}"/>
-    <hyperlink ref="P5" r:id="rId27" xr:uid="{1F9F148B-DE18-451C-91FA-A323355D6BC5}"/>
-    <hyperlink ref="Q5" r:id="rId28" xr:uid="{1DDC0BC6-9040-4F2A-B0A8-B5BDCD3ABA28}"/>
-    <hyperlink ref="H6" r:id="rId29" xr:uid="{CB834E5C-B554-410F-9B83-5271FE9B6C0F}"/>
-    <hyperlink ref="J6" r:id="rId30" xr:uid="{5807F05A-BD5E-4438-8317-C6F1C259F742}"/>
-    <hyperlink ref="K6" r:id="rId31" xr:uid="{DC8B1DEA-09DF-47E2-B980-44AB45B5729B}"/>
-    <hyperlink ref="N6" r:id="rId32" xr:uid="{D63B83D6-23F1-41F9-853E-4E59723CD6FC}"/>
-    <hyperlink ref="O6" r:id="rId33" xr:uid="{593FE53A-106E-40F5-A27D-984AE0203FAE}"/>
-    <hyperlink ref="P6" r:id="rId34" xr:uid="{3C3C41B2-6134-4511-BC55-83ED873051E1}"/>
-    <hyperlink ref="Q6" r:id="rId35" xr:uid="{A77C0462-7BAB-4367-B760-CFBCE29DF2FA}"/>
-    <hyperlink ref="H7" r:id="rId36" xr:uid="{0FE9D54E-FE67-44B7-AB9B-0AFB851EE2B3}"/>
-    <hyperlink ref="J7" r:id="rId37" xr:uid="{EB244B29-5EB4-4B39-B2EB-8213889C5F98}"/>
-    <hyperlink ref="K7" r:id="rId38" xr:uid="{A20F644A-5B89-42FF-97A6-A041C586868C}"/>
-    <hyperlink ref="N7" r:id="rId39" xr:uid="{BB9023BF-8FC8-4C30-82E5-86C504E841FE}"/>
-    <hyperlink ref="O7" r:id="rId40" xr:uid="{AB543E0E-28AF-48C8-8714-19AC28429732}"/>
-    <hyperlink ref="P7" r:id="rId41" xr:uid="{E1960186-D8A7-48FA-AC0B-5540BE799A9D}"/>
-    <hyperlink ref="Q7" r:id="rId42" xr:uid="{FFDE24DF-EEDB-4C40-9F59-B4A2BF7BD4C3}"/>
-    <hyperlink ref="H8" r:id="rId43" xr:uid="{E80D211C-F160-4998-A032-42CE9153BF04}"/>
-    <hyperlink ref="J8" r:id="rId44" xr:uid="{C2328C67-0376-4EB9-A3E0-D3AB919BA7A3}"/>
-    <hyperlink ref="K8" r:id="rId45" xr:uid="{83B178E8-3721-4F0A-9A6A-AFB263E93327}"/>
-    <hyperlink ref="N8" r:id="rId46" xr:uid="{E6D2F0FF-6DFF-4912-B594-486CC3F00157}"/>
-    <hyperlink ref="O8" r:id="rId47" xr:uid="{663F1B85-975A-46FC-BC3A-6110CF656124}"/>
-    <hyperlink ref="P8" r:id="rId48" xr:uid="{0AD143E1-E3AB-4259-A6E6-1790F1188092}"/>
-    <hyperlink ref="Q8" r:id="rId49" xr:uid="{CE95622F-F17A-4192-93CC-AFFB905DCEE0}"/>
-    <hyperlink ref="H9" r:id="rId50" xr:uid="{43EEDEE6-6D84-4FDE-9894-A61EC5099AF2}"/>
-    <hyperlink ref="J9" r:id="rId51" xr:uid="{4F1765B2-3500-47F8-AB77-6AC458333503}"/>
-    <hyperlink ref="K9" r:id="rId52" xr:uid="{7BA91829-CD81-4738-8B66-5FCEC0ADB8FD}"/>
-    <hyperlink ref="N9" r:id="rId53" xr:uid="{A5D925AF-0BE7-4C65-85CD-2CCFF9118369}"/>
-    <hyperlink ref="O9" r:id="rId54" xr:uid="{1DCA6397-CC2C-413C-B635-F53159222808}"/>
-    <hyperlink ref="P9" r:id="rId55" xr:uid="{DB88A464-1CC5-4ADE-BED2-F616CA6EF881}"/>
-    <hyperlink ref="Q9" r:id="rId56" xr:uid="{FE9B0E64-BA24-4F2B-BE60-4CB51DA697EB}"/>
-    <hyperlink ref="H10" r:id="rId57" xr:uid="{FC23FF02-0950-4335-8275-22FD66ABC096}"/>
-    <hyperlink ref="J10" r:id="rId58" xr:uid="{7C374285-D5B8-4ABD-8D21-CABC62E310D3}"/>
-    <hyperlink ref="K10" r:id="rId59" xr:uid="{05F63647-27BE-49B7-AFA3-91F7E1AE542F}"/>
-    <hyperlink ref="N10" r:id="rId60" xr:uid="{46570BD8-CA6B-41FE-AF7A-FBC5977D4DC9}"/>
-    <hyperlink ref="O10" r:id="rId61" xr:uid="{E8D79842-39EB-4BB7-9CE0-3F46B9A9485E}"/>
-    <hyperlink ref="P10" r:id="rId62" xr:uid="{2A2FA83F-7C77-4837-B09D-C2B017590F19}"/>
-    <hyperlink ref="Q10" r:id="rId63" xr:uid="{5ECBDE10-0BB2-4552-A6BB-0A09493087A6}"/>
-    <hyperlink ref="H11" r:id="rId64" xr:uid="{F2FDF82A-FC49-4B3F-97DE-B363B34837BE}"/>
-    <hyperlink ref="J11" r:id="rId65" xr:uid="{C53D2179-C0CB-4EDD-8D5D-5A5892725808}"/>
-    <hyperlink ref="K11" r:id="rId66" xr:uid="{EBC19D6D-5D7D-45A0-AC57-FF587E66DD22}"/>
-    <hyperlink ref="N11" r:id="rId67" xr:uid="{F344EEE4-30BD-4FBA-AD21-76729378769E}"/>
-    <hyperlink ref="O11" r:id="rId68" xr:uid="{A5D0A460-FDCA-4264-83D1-FB777D51E60A}"/>
-    <hyperlink ref="P11" r:id="rId69" xr:uid="{A5859C1A-2500-4ADA-94A5-D8F3AAD23948}"/>
-    <hyperlink ref="Q11" r:id="rId70" xr:uid="{3D0FDBB5-23AF-4A54-AED9-42EC20E0A92B}"/>
-    <hyperlink ref="H12" r:id="rId71" xr:uid="{47FA8361-CDCD-498B-A8F4-942E33A3CE77}"/>
-    <hyperlink ref="J12" r:id="rId72" xr:uid="{EB66E585-F3DD-4DC1-B0BE-B08E87D35129}"/>
-    <hyperlink ref="K12" r:id="rId73" xr:uid="{CDE9748E-8E1E-428F-99EE-A11A15AF8F0F}"/>
-    <hyperlink ref="N12" r:id="rId74" xr:uid="{CE7D84C8-19EB-4CDE-8592-F6851B19B326}"/>
-    <hyperlink ref="O12" r:id="rId75" xr:uid="{378209C9-F781-426C-A4FE-7FD78F263921}"/>
-    <hyperlink ref="P12" r:id="rId76" xr:uid="{F008D485-F9C6-4E80-BD57-E09D04F5D504}"/>
-    <hyperlink ref="Q12" r:id="rId77" xr:uid="{69D71477-ED82-490D-8B24-D73EE4B56C63}"/>
-    <hyperlink ref="H13" r:id="rId78" xr:uid="{A3BA3944-C9E6-4AE3-BB35-E80844440BDE}"/>
-    <hyperlink ref="J13" r:id="rId79" xr:uid="{691C258F-EBA0-4770-A9F9-B2242FA2E8DF}"/>
-    <hyperlink ref="K13" r:id="rId80" xr:uid="{1A147CA7-56FE-44AA-8F33-423E826CA300}"/>
-    <hyperlink ref="N13" r:id="rId81" xr:uid="{6CE14E2C-83DC-4A72-A42E-BB02DE1BA19A}"/>
-    <hyperlink ref="O13" r:id="rId82" xr:uid="{3F82501D-8882-4E58-B0E8-F039F1A260BA}"/>
-    <hyperlink ref="P13" r:id="rId83" xr:uid="{943C6E2E-E7E8-44DE-9901-D19079F78739}"/>
-    <hyperlink ref="Q13" r:id="rId84" xr:uid="{FF6F7911-9C12-4338-B167-4EA72A0540C0}"/>
-    <hyperlink ref="H14" r:id="rId85" xr:uid="{BB9A30B4-163F-4DD7-BF3B-354BCEC766AC}"/>
-    <hyperlink ref="J14" r:id="rId86" xr:uid="{1B208E8D-C635-4637-BB55-D5602C2DC4DF}"/>
-    <hyperlink ref="K14" r:id="rId87" xr:uid="{B8B2BB6F-5F89-4690-82D6-E6E8FCBEFA52}"/>
-    <hyperlink ref="N14" r:id="rId88" xr:uid="{438DD885-F31D-45F3-892C-84298AED8501}"/>
-    <hyperlink ref="O14" r:id="rId89" xr:uid="{7DC02FD5-3C4B-42D6-BC10-7C806D0D59D6}"/>
-    <hyperlink ref="P14" r:id="rId90" xr:uid="{BE8CAA78-C741-4021-A799-E49B8CFEACD8}"/>
-    <hyperlink ref="Q14" r:id="rId91" xr:uid="{6F89FFF6-7989-4EF8-BE01-2A6FB0F89CF4}"/>
-    <hyperlink ref="H15" r:id="rId92" xr:uid="{8925B269-A5B3-49EA-AEE7-043B57FCE820}"/>
-    <hyperlink ref="J15" r:id="rId93" xr:uid="{13E04943-A5AF-4649-81B1-C78EB70A340F}"/>
-    <hyperlink ref="K15" r:id="rId94" xr:uid="{0323D131-DCA6-4355-BF74-1D8AAAB76BDD}"/>
-    <hyperlink ref="N15" r:id="rId95" xr:uid="{824D73CF-657F-47EB-AC5F-F79619C1578C}"/>
-    <hyperlink ref="O15" r:id="rId96" xr:uid="{372A5081-1DFA-4E24-8895-B8CBD25FA3E5}"/>
-    <hyperlink ref="P15" r:id="rId97" xr:uid="{EFD1A253-4CC0-4A71-A818-43C2C9BDE472}"/>
-    <hyperlink ref="Q15" r:id="rId98" xr:uid="{46475E37-E637-48EE-B1B5-729D0C185FAD}"/>
-    <hyperlink ref="H16" r:id="rId99" xr:uid="{941366DD-7112-436D-BC6F-CD47EA3FAA7E}"/>
-    <hyperlink ref="J16" r:id="rId100" xr:uid="{90C1AB88-B402-426C-99C5-6E5CBA4DDEEF}"/>
-    <hyperlink ref="K16" r:id="rId101" xr:uid="{ED309023-01FB-4D26-A1C3-64E7FCE4DDBC}"/>
-    <hyperlink ref="N16" r:id="rId102" xr:uid="{3175309B-74FB-42E1-A908-566308A304A3}"/>
-    <hyperlink ref="O16" r:id="rId103" xr:uid="{E184A6C3-8C13-4E5B-84C8-DFCD9AFB0512}"/>
-    <hyperlink ref="P16" r:id="rId104" xr:uid="{285E080D-7C9E-4A8A-9EDA-D6315B1829A7}"/>
-    <hyperlink ref="Q16" r:id="rId105" xr:uid="{A1C39DCC-FAAF-4B76-8330-4F764A403903}"/>
-    <hyperlink ref="H17" r:id="rId106" xr:uid="{F0E29F51-62A9-4C66-B980-38681EDA5162}"/>
-    <hyperlink ref="J17" r:id="rId107" xr:uid="{B2F45975-58AF-4658-A199-DC7B4287498E}"/>
-    <hyperlink ref="K17" r:id="rId108" xr:uid="{50BB3781-F497-4A75-8F39-AE3FFD2392A9}"/>
-    <hyperlink ref="N17" r:id="rId109" xr:uid="{653F9E19-0758-4AA9-90C7-BDBECDA92E2C}"/>
-    <hyperlink ref="O17" r:id="rId110" xr:uid="{3D9F53F7-2BAB-4A5A-924A-43677623E6E7}"/>
-    <hyperlink ref="P17" r:id="rId111" xr:uid="{BA096265-FF55-4A75-A72B-9E6DE3B841E7}"/>
-    <hyperlink ref="Q17" r:id="rId112" xr:uid="{CCEA99D8-9E34-41F4-8933-084123865809}"/>
-    <hyperlink ref="H18" r:id="rId113" xr:uid="{D05AF5E9-FE26-418B-B456-0E0E2F730CB0}"/>
-    <hyperlink ref="J18" r:id="rId114" xr:uid="{E3277429-8560-4D3A-AA60-7BF05BA12DA7}"/>
-    <hyperlink ref="K18" r:id="rId115" xr:uid="{815230D3-2F92-4E2E-B70A-B30BCA582035}"/>
-    <hyperlink ref="N18" r:id="rId116" xr:uid="{6B9858FB-F82A-4274-A47F-4FC834B092E8}"/>
-    <hyperlink ref="O18" r:id="rId117" xr:uid="{F219A263-77F1-4C31-AA2B-4152C47E3415}"/>
-    <hyperlink ref="P18" r:id="rId118" xr:uid="{73948A4C-D793-41E6-997E-2247028E1785}"/>
-    <hyperlink ref="Q18" r:id="rId119" xr:uid="{AA93523C-3A55-4BEB-BABF-7CA8FEEB5247}"/>
-    <hyperlink ref="H19" r:id="rId120" xr:uid="{24F09E3E-762F-4B03-A0B7-30ADE5D872EF}"/>
-    <hyperlink ref="J19" r:id="rId121" xr:uid="{8FBBF14B-7DC6-4057-A782-86C71DF2B9EF}"/>
-    <hyperlink ref="K19" r:id="rId122" xr:uid="{550C92D0-A8B5-46FD-84CA-954D69506DB0}"/>
-    <hyperlink ref="N19" r:id="rId123" xr:uid="{25FF788E-4F97-4564-96FB-920850D51711}"/>
-    <hyperlink ref="O19" r:id="rId124" xr:uid="{AB0CC874-0BC7-4CE8-B8C8-F4E2E4577ACC}"/>
-    <hyperlink ref="P19" r:id="rId125" xr:uid="{9B9E8540-3A54-4A5D-96B9-6CC07EB7C099}"/>
-    <hyperlink ref="Q19" r:id="rId126" xr:uid="{C180BA84-7F4D-4CE5-B4A9-5436A74D29F0}"/>
-    <hyperlink ref="H20" r:id="rId127" xr:uid="{1D40C9F0-D7ED-4916-9A78-6CF4FD8EB1CB}"/>
-    <hyperlink ref="J20" r:id="rId128" xr:uid="{39A7FDC0-5AE9-480F-AB5A-CDC360BB2096}"/>
-    <hyperlink ref="K20" r:id="rId129" xr:uid="{A652274E-6FB7-40F7-8940-4FEBB43616BA}"/>
-    <hyperlink ref="N20" r:id="rId130" xr:uid="{B9500D54-6FFF-4B2D-9E0F-83957C62C2FB}"/>
-    <hyperlink ref="O20" r:id="rId131" xr:uid="{B8C08AC5-5B8A-479C-8E61-15B0D7F9603E}"/>
-    <hyperlink ref="P20" r:id="rId132" xr:uid="{1647242F-0219-47B8-BD5D-88EC3C39472C}"/>
-    <hyperlink ref="Q20" r:id="rId133" xr:uid="{CE419AFA-C7EC-4068-B556-483032946314}"/>
-    <hyperlink ref="H21" r:id="rId134" xr:uid="{2C932C80-7BDD-489E-840F-4DAFAAF49782}"/>
-    <hyperlink ref="J21" r:id="rId135" xr:uid="{CBDEDB3F-5C3A-4BED-91A1-71B9A4BF8B35}"/>
-    <hyperlink ref="K21" r:id="rId136" xr:uid="{C747F287-A494-43EB-9A8B-9D9C6FF2AF51}"/>
-    <hyperlink ref="N21" r:id="rId137" xr:uid="{2E4132AA-FF59-424A-8641-764C4EA767E9}"/>
-    <hyperlink ref="O21" r:id="rId138" xr:uid="{328608A0-EFC8-427C-B105-2FF002926A4B}"/>
-    <hyperlink ref="P21" r:id="rId139" xr:uid="{6D2BEEA4-36BC-4B48-BF4D-DDD651FA5B29}"/>
-    <hyperlink ref="Q21" r:id="rId140" xr:uid="{43001122-56E7-4B86-8E4E-D183078594B2}"/>
-    <hyperlink ref="H22" r:id="rId141" xr:uid="{5A557D49-F72B-4F38-A6E4-215ACBD90801}"/>
-    <hyperlink ref="J22" r:id="rId142" xr:uid="{A311D008-0C28-4361-99A3-E5C2D7785525}"/>
-    <hyperlink ref="K22" r:id="rId143" xr:uid="{0472B919-DDA7-4407-B8CD-1369F2A58162}"/>
-    <hyperlink ref="N22" r:id="rId144" xr:uid="{C2CA070B-743D-4D6C-B0DE-6950C4F68D15}"/>
-    <hyperlink ref="O22" r:id="rId145" xr:uid="{1B08E337-DC92-4032-B6D9-264D73AB85E6}"/>
-    <hyperlink ref="P22" r:id="rId146" xr:uid="{8F6A0C70-BBE0-4140-829B-EDEB2A0F3281}"/>
-    <hyperlink ref="Q22" r:id="rId147" xr:uid="{E1A06DED-96DB-45F3-8A33-F1FCE7DED4BD}"/>
-    <hyperlink ref="H23" r:id="rId148" xr:uid="{832E75CD-50CE-4F39-9829-E234DC4CFA1D}"/>
-    <hyperlink ref="J23" r:id="rId149" xr:uid="{19D3F07A-D183-4929-A4AA-A85303384C5D}"/>
-    <hyperlink ref="K23" r:id="rId150" xr:uid="{69DEA85F-0A4E-4CB7-9773-20AE391B7A9E}"/>
-    <hyperlink ref="N23" r:id="rId151" xr:uid="{B818BF4F-F777-4E07-85C0-4CB6DC5F3361}"/>
-    <hyperlink ref="O23" r:id="rId152" xr:uid="{917D8340-7AF4-454C-A934-851D60AC9A9E}"/>
-    <hyperlink ref="P23" r:id="rId153" xr:uid="{7FCDE744-F185-4886-AF97-34652C2024AB}"/>
-    <hyperlink ref="Q23" r:id="rId154" xr:uid="{A5A3B2B1-BDF5-430D-BB07-11872596B82B}"/>
-    <hyperlink ref="H24" r:id="rId155" xr:uid="{1A854D73-A498-442B-A20A-6F8EBD9245B5}"/>
-    <hyperlink ref="J24" r:id="rId156" xr:uid="{CF8DD843-595B-449C-8E8C-F247CD3FCF78}"/>
-    <hyperlink ref="K24" r:id="rId157" xr:uid="{B6246600-129A-4C64-BBD7-4E95FC97F6E8}"/>
-    <hyperlink ref="N24" r:id="rId158" xr:uid="{83863E4E-6F6A-4268-9986-5203A98235A1}"/>
-    <hyperlink ref="O24" r:id="rId159" xr:uid="{4470209F-D837-46AA-8729-EBAA5662DC9D}"/>
-    <hyperlink ref="P24" r:id="rId160" xr:uid="{527554E2-C7AF-433A-9E45-82D9810144AD}"/>
-    <hyperlink ref="Q24" r:id="rId161" xr:uid="{6023C354-A3D4-4A60-938E-DD30F3C66313}"/>
-    <hyperlink ref="H25" r:id="rId162" xr:uid="{20784A20-99E0-48EB-A64B-CF3EF7503747}"/>
-    <hyperlink ref="J25" r:id="rId163" xr:uid="{5005C3D6-6A62-4362-897E-0B641BB1DB69}"/>
-    <hyperlink ref="K25" r:id="rId164" xr:uid="{302B40CF-1920-483B-9514-5391ED29681E}"/>
-    <hyperlink ref="N25" r:id="rId165" xr:uid="{EBF259C6-95C6-414A-B682-BDD4B24C51BB}"/>
-    <hyperlink ref="O25" r:id="rId166" xr:uid="{A3EC294E-AAD4-4307-BE95-53578352BFB9}"/>
-    <hyperlink ref="P25" r:id="rId167" xr:uid="{800C895B-3A82-45AE-A8C2-6629ECBE6E6C}"/>
-    <hyperlink ref="Q25" r:id="rId168" xr:uid="{13ED2BCE-7393-4EB6-A3F7-FB9AE99C1913}"/>
-    <hyperlink ref="H26" r:id="rId169" xr:uid="{50444576-0C87-4143-9FC9-C46EE2B223BC}"/>
-    <hyperlink ref="J26" r:id="rId170" xr:uid="{FEF50BF2-18C0-4CF3-9DEC-0DDB306DF47E}"/>
-    <hyperlink ref="K26" r:id="rId171" xr:uid="{1108335D-70B3-4E37-823D-A791087E434F}"/>
-    <hyperlink ref="N26" r:id="rId172" xr:uid="{38682A09-2E3A-425A-AB81-11201E8E3B45}"/>
-    <hyperlink ref="O26" r:id="rId173" xr:uid="{CE168088-F44C-4E36-BE3D-641451A9D2A5}"/>
-    <hyperlink ref="P26" r:id="rId174" xr:uid="{DAEA14D3-0F86-4750-90CE-07C3B4C79026}"/>
-    <hyperlink ref="Q26" r:id="rId175" xr:uid="{DF35031B-3E6A-45A9-A265-140FC0BA7258}"/>
-    <hyperlink ref="H27" r:id="rId176" xr:uid="{53C38AA7-33DA-491E-979A-3E4522D499FA}"/>
-    <hyperlink ref="J27" r:id="rId177" xr:uid="{C690F459-3AF4-407F-BCFA-7A24F66727CC}"/>
-    <hyperlink ref="K27" r:id="rId178" xr:uid="{0F9FDEA7-7724-4010-BFEB-9094CC655C86}"/>
-    <hyperlink ref="N27" r:id="rId179" xr:uid="{A572F47F-9B75-4AF9-88EF-0FF3491ACD26}"/>
-    <hyperlink ref="O27" r:id="rId180" xr:uid="{0B281F4F-0C8C-475A-A0D7-ED12F4133DA1}"/>
-    <hyperlink ref="P27" r:id="rId181" xr:uid="{9FC1051B-57FC-45CE-AB6B-744908FC86D0}"/>
-    <hyperlink ref="Q27" r:id="rId182" xr:uid="{54E18E39-B9C4-4A15-805C-1E5588EA4466}"/>
-    <hyperlink ref="H28" r:id="rId183" xr:uid="{6C6C9774-EA13-4F67-A616-56FE7CA185B8}"/>
-    <hyperlink ref="J28" r:id="rId184" xr:uid="{08EE6BED-2CC0-46BB-A517-84F2B7E603E0}"/>
-    <hyperlink ref="K28" r:id="rId185" xr:uid="{EE86E964-AC3C-448C-A91B-74CE04842BC4}"/>
-    <hyperlink ref="N28" r:id="rId186" xr:uid="{856C3EBA-0938-4787-B6EF-52CBC3DEC675}"/>
-    <hyperlink ref="O28" r:id="rId187" xr:uid="{0F686000-94AC-4286-A4E9-0CDFB0B5F1C9}"/>
-    <hyperlink ref="P28" r:id="rId188" xr:uid="{7E0AEC96-3351-441C-96AE-0770E2266FA2}"/>
-    <hyperlink ref="Q28" r:id="rId189" xr:uid="{D09A2B3D-29AA-4AD7-BA5C-7F37D8634ABE}"/>
-    <hyperlink ref="H29" r:id="rId190" xr:uid="{B93EE0CD-83F7-45C5-AACD-EF3F947CFA76}"/>
-    <hyperlink ref="J29" r:id="rId191" xr:uid="{0F0B530B-228F-443A-BB01-85562103EFDD}"/>
-    <hyperlink ref="K29" r:id="rId192" xr:uid="{79780AFC-1E78-41B7-90D7-F3DD1EA3C1A1}"/>
-    <hyperlink ref="N29" r:id="rId193" xr:uid="{706E14AC-592A-41E4-B4DB-46C0222B8289}"/>
-    <hyperlink ref="O29" r:id="rId194" xr:uid="{AF1D099D-1F6A-4EC8-8861-3E8B2205B6B1}"/>
-    <hyperlink ref="P29" r:id="rId195" xr:uid="{70D6D3E5-E650-44A9-8D2E-EA4E8598A9C3}"/>
-    <hyperlink ref="Q29" r:id="rId196" xr:uid="{D783257B-D8FC-49BE-9B44-3FD0D5FBDD60}"/>
-    <hyperlink ref="H30" r:id="rId197" xr:uid="{57E44423-FF4E-4C85-8D85-ECBF12B94626}"/>
-    <hyperlink ref="J30" r:id="rId198" xr:uid="{22A5B39F-6B20-4FA3-939C-D497A2C2FE91}"/>
-    <hyperlink ref="K30" r:id="rId199" xr:uid="{665DFF31-8CC6-4362-B16C-0D61B2E950C1}"/>
-    <hyperlink ref="N30" r:id="rId200" xr:uid="{10D2EDCC-D3A2-470C-8282-8F399F7574FD}"/>
-    <hyperlink ref="O30" r:id="rId201" xr:uid="{589F059E-6AC4-459E-975D-BD9BDDDD7BCA}"/>
-    <hyperlink ref="P30" r:id="rId202" xr:uid="{968D8BCF-DF23-48C0-94D7-DACD718D9BDC}"/>
-    <hyperlink ref="Q30" r:id="rId203" xr:uid="{A9F2C519-2182-4B74-91CB-FDF134780332}"/>
-    <hyperlink ref="H31" r:id="rId204" xr:uid="{4DC4D027-B6FE-4AFD-BFCE-A5EC7E997A65}"/>
-    <hyperlink ref="J31" r:id="rId205" xr:uid="{96641394-9C68-4D8D-A931-08F542D03F9E}"/>
-    <hyperlink ref="K31" r:id="rId206" xr:uid="{04F5A5C4-7AB7-4AD3-9A51-F0851A028259}"/>
-    <hyperlink ref="N31" r:id="rId207" xr:uid="{DA20258D-857C-4F2C-BEBF-517B9E3A1596}"/>
-    <hyperlink ref="O31" r:id="rId208" xr:uid="{6511A0B6-615F-4475-85ED-6CEB99CC1A84}"/>
-    <hyperlink ref="P31" r:id="rId209" xr:uid="{D67D89B4-B4B1-4EBB-B8A8-0337806CB0DC}"/>
-    <hyperlink ref="Q31" r:id="rId210" xr:uid="{F0759717-06D0-490D-9363-9F55D3DD0C93}"/>
-    <hyperlink ref="H32" r:id="rId211" xr:uid="{8F1F7F0B-E88F-4E58-9B55-2D12E095480A}"/>
-    <hyperlink ref="J32" r:id="rId212" xr:uid="{EC1BAB70-C8F9-46D1-A576-33D358CDED30}"/>
-    <hyperlink ref="K32" r:id="rId213" xr:uid="{CDDDE988-FF17-4417-8CBB-10256D9642B7}"/>
-    <hyperlink ref="N32" r:id="rId214" xr:uid="{D7B0F54A-C3A1-432D-A035-1FD51443568E}"/>
-    <hyperlink ref="O32" r:id="rId215" xr:uid="{4F6ACCC2-092F-435F-B563-6885F75EAAD7}"/>
-    <hyperlink ref="P32" r:id="rId216" xr:uid="{4AC4231F-0197-430A-A276-572CF5CF0B83}"/>
-    <hyperlink ref="Q32" r:id="rId217" xr:uid="{D39BD3CC-EB1F-4E46-8F09-03FB4BEAE38B}"/>
-    <hyperlink ref="H33" r:id="rId218" xr:uid="{EB6D3AE9-5169-4E69-96A0-B9898340347A}"/>
-    <hyperlink ref="J33" r:id="rId219" xr:uid="{59BD45E7-0714-4EC0-851D-E4893DAA6EC7}"/>
-    <hyperlink ref="K33" r:id="rId220" xr:uid="{5FA4B9DF-DEE7-493D-AA5D-CB03D52676E7}"/>
-    <hyperlink ref="N33" r:id="rId221" xr:uid="{8F8C11E3-3291-4369-B291-87D9B1DAC8C1}"/>
-    <hyperlink ref="O33" r:id="rId222" xr:uid="{F7B8ADFA-59BF-4BF2-B1EE-7010A32A7B68}"/>
-    <hyperlink ref="P33" r:id="rId223" xr:uid="{66005FE6-0059-4001-9720-EA6585A501AA}"/>
-    <hyperlink ref="Q33" r:id="rId224" xr:uid="{2369833C-5421-4467-BA76-97C062C86E6D}"/>
-    <hyperlink ref="H34" r:id="rId225" xr:uid="{AD4970AD-CD9E-4852-B899-318EE2E77701}"/>
-    <hyperlink ref="J34" r:id="rId226" xr:uid="{02EA46C3-0003-48E7-88CE-B28D10654D90}"/>
-    <hyperlink ref="K34" r:id="rId227" xr:uid="{1EAC44FF-650E-4773-BBFE-B942C873F6E1}"/>
-    <hyperlink ref="N34" r:id="rId228" xr:uid="{8C97F58A-0B86-4E15-B672-967DA805E415}"/>
-    <hyperlink ref="O34" r:id="rId229" xr:uid="{8FA56F60-90BB-4251-B154-B2D6E6ACD84A}"/>
-    <hyperlink ref="P34" r:id="rId230" xr:uid="{4C995692-4FFC-436A-8B91-8C6BD22270AA}"/>
-    <hyperlink ref="Q34" r:id="rId231" xr:uid="{29243029-3482-493D-B585-2B83D5223F9D}"/>
-    <hyperlink ref="H35" r:id="rId232" xr:uid="{242FC604-322A-4E24-9E0A-25406197975E}"/>
-    <hyperlink ref="J35" r:id="rId233" xr:uid="{EA485AFE-7CB6-4B99-BE91-43651B112C36}"/>
-    <hyperlink ref="K35" r:id="rId234" xr:uid="{C53794BD-D917-4BC9-9B27-8D1E059A8B75}"/>
-    <hyperlink ref="N35" r:id="rId235" xr:uid="{9F8CC20D-F47E-45D6-8741-8568398ADD3E}"/>
-    <hyperlink ref="O35" r:id="rId236" xr:uid="{B9D7F0BF-204B-4EDE-B203-E10CFA9167F6}"/>
-    <hyperlink ref="P35" r:id="rId237" xr:uid="{89893AE0-593F-436C-9F2C-E3DA22CBA2B2}"/>
-    <hyperlink ref="Q35" r:id="rId238" xr:uid="{3ECDC856-6F56-494D-93A2-F68F65FDCED4}"/>
-    <hyperlink ref="H36" r:id="rId239" xr:uid="{AD439778-9E6C-4FCA-B7B5-D6B7738451F5}"/>
-    <hyperlink ref="J36" r:id="rId240" xr:uid="{134F04C9-D5B9-4200-B1A3-DB99EBB8CE41}"/>
-    <hyperlink ref="K36" r:id="rId241" xr:uid="{017DE206-D3BD-4059-BE65-6A6F3A759AF6}"/>
-    <hyperlink ref="N36" r:id="rId242" xr:uid="{163BA69D-0582-40A4-B539-A0349BF0FDCC}"/>
-    <hyperlink ref="O36" r:id="rId243" xr:uid="{4B5892ED-C255-4E3D-B41A-76EEC2B5CDC5}"/>
-    <hyperlink ref="P36" r:id="rId244" xr:uid="{7544F219-54E2-4715-8AD8-1FA8643E6631}"/>
-    <hyperlink ref="Q36" r:id="rId245" xr:uid="{12DB16E9-932D-43E5-867B-DA34F665E165}"/>
-    <hyperlink ref="H37" r:id="rId246" xr:uid="{8A23A2D4-5AA5-4581-A9B0-06051ECD51EA}"/>
-    <hyperlink ref="J37" r:id="rId247" xr:uid="{EB2BDC8A-5164-4873-AD1B-30D71AAB0279}"/>
-    <hyperlink ref="K37" r:id="rId248" xr:uid="{CB56335E-C686-43C6-AA6D-9FC27084B682}"/>
-    <hyperlink ref="N37" r:id="rId249" xr:uid="{D0620E37-A562-4D61-A919-387FA6EB8AC8}"/>
-    <hyperlink ref="O37" r:id="rId250" xr:uid="{9F5E73F7-B6AE-41E3-AF39-66F0DD1381EC}"/>
-    <hyperlink ref="P37" r:id="rId251" xr:uid="{D2AD30C1-9172-4190-99C4-2D22489D9657}"/>
-    <hyperlink ref="Q37" r:id="rId252" xr:uid="{340433B9-CB24-4423-9BE8-B5FC1C42DBA0}"/>
-    <hyperlink ref="H38" r:id="rId253" xr:uid="{A4B4D2CF-FEB5-41F3-8B04-F860CD5D9F18}"/>
-    <hyperlink ref="J38" r:id="rId254" xr:uid="{84976DAD-AB94-4A1A-A153-8F9860F0D1E9}"/>
-    <hyperlink ref="K38" r:id="rId255" xr:uid="{18337148-1652-458C-B4E6-33EB60123ABA}"/>
-    <hyperlink ref="N38" r:id="rId256" xr:uid="{3A07D518-708E-4BB2-8BF8-4278EA621F83}"/>
-    <hyperlink ref="O38" r:id="rId257" xr:uid="{688DA25B-B428-4496-89A4-DE84A551DF15}"/>
-    <hyperlink ref="P38" r:id="rId258" xr:uid="{7C640E59-E71C-4E7C-9293-65542BF2460D}"/>
-    <hyperlink ref="Q38" r:id="rId259" xr:uid="{A51E67F4-6DC7-49A9-8245-924BEE85D87D}"/>
-    <hyperlink ref="H39" r:id="rId260" xr:uid="{96F38428-1EF8-4875-9FB5-93303DB894F8}"/>
-    <hyperlink ref="J39" r:id="rId261" xr:uid="{C7EFEF1C-9ED1-4B38-B9C6-B7D29DEF6543}"/>
-    <hyperlink ref="K39" r:id="rId262" xr:uid="{5E9886E6-94DA-4336-BB26-338AF14141E8}"/>
-    <hyperlink ref="N39" r:id="rId263" xr:uid="{69AEC13C-FF72-40F7-B9A5-DB875416DD9B}"/>
-    <hyperlink ref="O39" r:id="rId264" xr:uid="{192B1FD5-661B-4730-97C0-15D8999B81E6}"/>
-    <hyperlink ref="P39" r:id="rId265" xr:uid="{2DED92BB-4270-4468-96C4-E5242C52D8A2}"/>
-    <hyperlink ref="Q39" r:id="rId266" xr:uid="{81E763CD-BA97-4309-8193-AA3F2C2F4021}"/>
-    <hyperlink ref="H40" r:id="rId267" xr:uid="{0BBD8204-C700-4657-B481-AC07F7E638C4}"/>
-    <hyperlink ref="J40" r:id="rId268" xr:uid="{202CADCA-46A3-4E75-BEDD-7F7FA10B42D7}"/>
-    <hyperlink ref="K40" r:id="rId269" xr:uid="{DF1620C8-A17B-4727-833C-14A8C9C13DEC}"/>
-    <hyperlink ref="N40" r:id="rId270" xr:uid="{16EF2FF6-F9C5-4D4D-BD93-01F05C131A2B}"/>
-    <hyperlink ref="O40" r:id="rId271" xr:uid="{BB3D1145-D523-44AC-B895-6271CF9DB868}"/>
-    <hyperlink ref="P40" r:id="rId272" xr:uid="{9759A056-AB15-482E-B518-95E864C8DCFC}"/>
-    <hyperlink ref="Q40" r:id="rId273" xr:uid="{AEDC85C6-9621-44D5-B386-2AFE437E3E30}"/>
-    <hyperlink ref="H41" r:id="rId274" xr:uid="{63636BC9-8F20-4311-9E75-DA1026196D76}"/>
-    <hyperlink ref="J41" r:id="rId275" xr:uid="{EE54B3B6-7B2B-43CE-86BB-1462D71E75D5}"/>
-    <hyperlink ref="K41" r:id="rId276" xr:uid="{2819668D-638E-4FBA-AA0C-7ED129D4D0EF}"/>
-    <hyperlink ref="N41" r:id="rId277" xr:uid="{A8338505-4FB7-459A-9174-CF733D3D196C}"/>
-    <hyperlink ref="O41" r:id="rId278" xr:uid="{747912AD-ABE6-4EFB-9D8D-A5454F0E7DF7}"/>
-    <hyperlink ref="P41" r:id="rId279" xr:uid="{697E32B0-ED07-4D26-943A-0BC517EAD4C4}"/>
-    <hyperlink ref="Q41" r:id="rId280" xr:uid="{C8356937-D3FF-4D9F-ADC1-94B2ABB10B78}"/>
-    <hyperlink ref="H42" r:id="rId281" xr:uid="{BD77E8E7-EE4B-4681-BABF-339995B9E39D}"/>
-    <hyperlink ref="J42" r:id="rId282" xr:uid="{96FBD6E6-0BF9-4454-8A39-2FCCE6448E27}"/>
-    <hyperlink ref="K42" r:id="rId283" xr:uid="{0F16286B-4A01-4770-8E25-65AB22C6537A}"/>
-    <hyperlink ref="N42" r:id="rId284" xr:uid="{D8FE77B8-F313-4018-9BF4-F13EAF49E160}"/>
-    <hyperlink ref="O42" r:id="rId285" xr:uid="{72184533-EC77-4D2A-B0A0-F8E4775DBC4A}"/>
-    <hyperlink ref="P42" r:id="rId286" xr:uid="{4FC064CA-66FB-46EE-839D-7183A843638C}"/>
-    <hyperlink ref="Q42" r:id="rId287" xr:uid="{0B20499B-ED6A-4531-9D2F-C0223B54D2E9}"/>
-    <hyperlink ref="H43" r:id="rId288" xr:uid="{E055904B-8112-40C3-BA8B-98AE3D96A6EE}"/>
-    <hyperlink ref="J43" r:id="rId289" xr:uid="{8B09C65B-7735-4C65-8B1C-563560B4B72B}"/>
-    <hyperlink ref="K43" r:id="rId290" xr:uid="{162C1BB8-EDB0-4B3E-82AF-3CA95C13AAA3}"/>
-    <hyperlink ref="N43" r:id="rId291" xr:uid="{99B46ABD-595B-49F1-A79D-0D1361E66C1D}"/>
-    <hyperlink ref="O43" r:id="rId292" xr:uid="{470EE673-B783-47C3-91E0-B8D23D1B9C9F}"/>
-    <hyperlink ref="P43" r:id="rId293" xr:uid="{880F8C60-637F-4286-A92B-1425D67F522B}"/>
-    <hyperlink ref="Q43" r:id="rId294" xr:uid="{F0615B59-7F38-4CCD-B7BA-5F042DF03288}"/>
-    <hyperlink ref="H44" r:id="rId295" xr:uid="{6DB02C2F-C767-4387-BA02-A15915D56CD3}"/>
-    <hyperlink ref="J44" r:id="rId296" xr:uid="{41A8B47D-44DD-4A10-B50E-9C2E676DF6A1}"/>
-    <hyperlink ref="K44" r:id="rId297" xr:uid="{8261DEF6-F2C1-46D6-AF9A-FFE31D1500DB}"/>
-    <hyperlink ref="N44" r:id="rId298" xr:uid="{D7E54FCD-A1C1-4B3C-A52D-275830043149}"/>
-    <hyperlink ref="O44" r:id="rId299" xr:uid="{C0362985-88EC-435E-8E87-3CC4044E12DF}"/>
-    <hyperlink ref="P44" r:id="rId300" xr:uid="{4B4982D1-C6A0-49AE-B969-21C3F6977471}"/>
-    <hyperlink ref="Q44" r:id="rId301" xr:uid="{317725F7-C83F-450F-8C73-DF287CAC992D}"/>
-    <hyperlink ref="H45" r:id="rId302" xr:uid="{8C30C933-3C9B-4B64-B965-CD56EEC720FB}"/>
-    <hyperlink ref="J45" r:id="rId303" xr:uid="{A5C22159-3E9D-4F3D-AF61-3AC957FF0D06}"/>
-    <hyperlink ref="K45" r:id="rId304" xr:uid="{CC56E301-297A-4F9B-ABE7-FD5618B87453}"/>
-    <hyperlink ref="N45" r:id="rId305" xr:uid="{0114D018-325E-4331-AA64-EF6DFFE994DA}"/>
-    <hyperlink ref="O45" r:id="rId306" xr:uid="{D30B591D-47BF-4687-9F7B-74C1BFCD79BE}"/>
-    <hyperlink ref="P45" r:id="rId307" xr:uid="{98EFF775-87B1-4CF9-8487-424005F46526}"/>
-    <hyperlink ref="Q45" r:id="rId308" xr:uid="{E4F86390-EDD8-4C87-971A-F8AA4B95E9EA}"/>
-    <hyperlink ref="H46" r:id="rId309" xr:uid="{8E6D6EEF-8CEC-42C4-AE8A-F669D7D2A06D}"/>
-    <hyperlink ref="J46" r:id="rId310" xr:uid="{54AEC492-E612-4A5F-995B-E030F8786CDD}"/>
-    <hyperlink ref="K46" r:id="rId311" xr:uid="{40BD3A08-9A47-4180-B25D-30E8802E325C}"/>
-    <hyperlink ref="N46" r:id="rId312" xr:uid="{B533ECCD-5EED-4468-87BE-14B7AE8A1B68}"/>
-    <hyperlink ref="O46" r:id="rId313" xr:uid="{E2ED44EE-DF2B-4639-A611-3F6EDC68085B}"/>
-    <hyperlink ref="P46" r:id="rId314" xr:uid="{F5C37A7F-15D1-46CF-A83A-3A30758536B9}"/>
-    <hyperlink ref="Q46" r:id="rId315" xr:uid="{27CCF151-8A46-4834-A2C5-47921F859E09}"/>
-    <hyperlink ref="H47" r:id="rId316" xr:uid="{BA5C373A-106F-49C0-8E36-7CF54C1EF4F3}"/>
-    <hyperlink ref="J47" r:id="rId317" xr:uid="{FBD5556D-AC20-4C84-B6DA-E06501323155}"/>
-    <hyperlink ref="K47" r:id="rId318" xr:uid="{B9F6BB2E-D6C5-4417-B7A1-C2A8EDFBBC3F}"/>
-    <hyperlink ref="N47" r:id="rId319" xr:uid="{A40E429E-0DE0-43CA-8B0D-66DF335122AB}"/>
-    <hyperlink ref="O47" r:id="rId320" xr:uid="{0483989E-163E-40B4-B2AA-8E1A53F71173}"/>
-    <hyperlink ref="P47" r:id="rId321" xr:uid="{33CFED47-3E49-4D27-8B69-26FBF8233FAC}"/>
-    <hyperlink ref="Q47" r:id="rId322" xr:uid="{51F411B4-5496-4F24-B0CB-8686714A07BF}"/>
-    <hyperlink ref="H48" r:id="rId323" xr:uid="{FBB13367-B137-4278-9044-A9488DBC6F67}"/>
-    <hyperlink ref="J48" r:id="rId324" xr:uid="{FBD84353-B4D8-4FBA-9F46-ABBF177230C2}"/>
-    <hyperlink ref="K48" r:id="rId325" xr:uid="{90F1D8CF-036C-48FE-B5FF-2E759F36803D}"/>
-    <hyperlink ref="N48" r:id="rId326" xr:uid="{61735282-2388-4FE0-A30C-7331B7CF032E}"/>
-    <hyperlink ref="O48" r:id="rId327" xr:uid="{636B2FC8-0D14-4176-857B-0DC5BB2A58EE}"/>
-    <hyperlink ref="P48" r:id="rId328" xr:uid="{3A84F7FC-B197-43F9-B454-85D9500817AF}"/>
-    <hyperlink ref="Q48" r:id="rId329" xr:uid="{72E090E2-7CF3-41AB-AED2-961D8DF827A2}"/>
-    <hyperlink ref="H49" r:id="rId330" xr:uid="{EFDECFF2-8F7D-4BE8-AD4C-A282DA8C56CB}"/>
-    <hyperlink ref="J49" r:id="rId331" xr:uid="{C0566F53-10A0-45EA-86B1-1A5E7CCA8007}"/>
-    <hyperlink ref="K49" r:id="rId332" xr:uid="{65E9F6B9-6FFC-4BF7-8307-CED7616B7146}"/>
-    <hyperlink ref="N49" r:id="rId333" xr:uid="{C7433BEE-7D2B-4975-9FCB-DC8B0EF13A0F}"/>
-    <hyperlink ref="O49" r:id="rId334" xr:uid="{880312F2-11F1-49CB-9B7A-ACD8FC2A8326}"/>
-    <hyperlink ref="P49" r:id="rId335" xr:uid="{FB0AA36F-79D8-4C79-A1DA-E193F52540F8}"/>
-    <hyperlink ref="Q49" r:id="rId336" xr:uid="{1601BA93-AAFE-4B10-B820-80B3ED2B98A0}"/>
-    <hyperlink ref="H50" r:id="rId337" xr:uid="{1D7E60DE-CE53-484A-8932-142F85C6878B}"/>
-    <hyperlink ref="J50" r:id="rId338" xr:uid="{A2AEDAEF-AE08-43A8-801D-9E603214DC3C}"/>
-    <hyperlink ref="K50" r:id="rId339" xr:uid="{F4490F5D-E478-4736-8113-F4DDB85D0433}"/>
-    <hyperlink ref="N50" r:id="rId340" xr:uid="{9D127197-CD9A-4CA1-B243-AD61528F9E3D}"/>
-    <hyperlink ref="O50" r:id="rId341" xr:uid="{631BF397-01B8-4FC8-85B8-19A790D9D108}"/>
-    <hyperlink ref="P50" r:id="rId342" xr:uid="{6D534114-02B1-4FA8-9D07-706A69200A2D}"/>
-    <hyperlink ref="Q50" r:id="rId343" xr:uid="{9D932200-BEC2-4FF9-8498-F3DD8E49F4C9}"/>
-    <hyperlink ref="H51" r:id="rId344" xr:uid="{F813ECB9-292C-43B7-B537-D096015D4CBF}"/>
-    <hyperlink ref="J51" r:id="rId345" xr:uid="{F1537140-C77A-49B1-AC2F-E8735A6A40CA}"/>
-    <hyperlink ref="K51" r:id="rId346" xr:uid="{7F3F1D0B-CC68-4498-8135-7FAA217F582C}"/>
-    <hyperlink ref="N51" r:id="rId347" xr:uid="{5F9DEDDB-7200-48D2-A60D-0C621322E288}"/>
-    <hyperlink ref="O51" r:id="rId348" xr:uid="{6C8A3527-6724-4BCA-9375-341C5E93B3F5}"/>
-    <hyperlink ref="P51" r:id="rId349" xr:uid="{8077CF69-AA96-428F-8312-36F6A79A316F}"/>
-    <hyperlink ref="Q51" r:id="rId350" xr:uid="{C6D8C638-4341-442C-8465-3D789FAC044C}"/>
-    <hyperlink ref="H52" r:id="rId351" xr:uid="{84298DA4-214F-4FBD-A464-DC242351DBF4}"/>
-    <hyperlink ref="J52" r:id="rId352" xr:uid="{CCB23E62-9D82-4C71-BF5E-53AE59582119}"/>
-    <hyperlink ref="K52" r:id="rId353" xr:uid="{88481972-9135-451A-9B43-94952FE5F375}"/>
-    <hyperlink ref="N52" r:id="rId354" xr:uid="{5E8F6639-DBDB-45FA-BF01-A953AB63E2D7}"/>
-    <hyperlink ref="O52" r:id="rId355" xr:uid="{1EC863AA-35CC-4DBB-B795-B7052BC94F0F}"/>
-    <hyperlink ref="P52" r:id="rId356" xr:uid="{64A173D0-B169-488D-892B-0641196DF93C}"/>
-    <hyperlink ref="Q52" r:id="rId357" xr:uid="{0C82E096-2D36-4714-BFFA-AAB138A46F1B}"/>
-    <hyperlink ref="H53" r:id="rId358" xr:uid="{01D44762-3C35-491C-911E-95666A30E732}"/>
-    <hyperlink ref="J53" r:id="rId359" xr:uid="{F0BB8384-2329-4F90-A375-0480EDD5F2F5}"/>
-    <hyperlink ref="K53" r:id="rId360" xr:uid="{85E72B2D-183E-41E0-8918-11CBAC2DEC4B}"/>
-    <hyperlink ref="N53" r:id="rId361" xr:uid="{E25FA85E-C3D1-4A3B-8E7A-778B34BF2CAA}"/>
-    <hyperlink ref="O53" r:id="rId362" xr:uid="{3C4CFD5F-6759-4719-A813-1802BC93CBC4}"/>
-    <hyperlink ref="P53" r:id="rId363" xr:uid="{DD233FB1-9736-4ADB-A216-FA2F0D33C5A2}"/>
-    <hyperlink ref="Q53" r:id="rId364" xr:uid="{C9D1AFB5-79A6-46C9-8EB6-217B8C41AC5F}"/>
-    <hyperlink ref="H54" r:id="rId365" xr:uid="{BBEF2370-2094-4D30-A53E-2957A113D797}"/>
-    <hyperlink ref="J54" r:id="rId366" xr:uid="{A0862719-0CBE-43DB-BB90-6AA21213FF79}"/>
-    <hyperlink ref="K54" r:id="rId367" xr:uid="{4ED8B71D-E5B3-43DD-98D0-7B44012A777E}"/>
-    <hyperlink ref="N54" r:id="rId368" xr:uid="{11F8C3D7-7AC3-44D5-AF42-7904EBE933F9}"/>
-    <hyperlink ref="O54" r:id="rId369" xr:uid="{1DD0853B-9490-47C4-90AB-9B91A4AD5F6B}"/>
-    <hyperlink ref="P54" r:id="rId370" xr:uid="{5AEF24AA-3DB7-4C34-A7E3-FF526D37F086}"/>
-    <hyperlink ref="Q54" r:id="rId371" xr:uid="{DBE68BEB-BD6F-4C68-817D-E1168FD7DF4E}"/>
-    <hyperlink ref="H55" r:id="rId372" xr:uid="{2ECE918C-7F4C-4DEE-B328-8E388CC0169C}"/>
-    <hyperlink ref="J55" r:id="rId373" xr:uid="{5EA7BE0B-59F1-4211-974E-B0F2DD20D99C}"/>
-    <hyperlink ref="K55" r:id="rId374" xr:uid="{4645CD7D-C00E-4BC7-AB75-5C74F16AAA8F}"/>
-    <hyperlink ref="N55" r:id="rId375" xr:uid="{14D69DD2-9ADC-4CE5-AF6E-D13DC9513107}"/>
-    <hyperlink ref="O55" r:id="rId376" xr:uid="{65D17165-F82F-4F85-97E2-508E82EA0B9F}"/>
-    <hyperlink ref="P55" r:id="rId377" xr:uid="{2D6A9BD4-2C6F-4870-BA9E-45F8AAB49C2B}"/>
-    <hyperlink ref="Q55" r:id="rId378" xr:uid="{498DEFAC-430A-4218-BF3B-745FB6970954}"/>
-    <hyperlink ref="H56" r:id="rId379" xr:uid="{C7BBE264-03E1-4AEE-B2CC-603D5A2D7114}"/>
-    <hyperlink ref="J56" r:id="rId380" xr:uid="{0247A9D3-561F-4584-9755-C4A69863785B}"/>
-    <hyperlink ref="K56" r:id="rId381" xr:uid="{BBFEC107-723E-4FE1-9E52-9842767AC953}"/>
-    <hyperlink ref="N56" r:id="rId382" xr:uid="{65DEFFE2-F563-4941-9110-1A54C1E1968D}"/>
-    <hyperlink ref="O56" r:id="rId383" xr:uid="{78B836A7-EC35-4A0B-A902-EA2D2F077FBA}"/>
-    <hyperlink ref="P56" r:id="rId384" xr:uid="{189F0668-A94D-4115-A80B-500AF8AA3A5C}"/>
-    <hyperlink ref="Q56" r:id="rId385" xr:uid="{3D0B686C-25E0-4122-96EF-4856EC4A921A}"/>
-    <hyperlink ref="H57" r:id="rId386" xr:uid="{AC70D9F8-A13E-4F72-BF22-F3EB462AB1FA}"/>
-    <hyperlink ref="J57" r:id="rId387" xr:uid="{5BF339E3-7FC6-4C77-826F-FDA5711CA415}"/>
-    <hyperlink ref="K57" r:id="rId388" xr:uid="{131BC37C-CC62-4974-B6D5-1B92B83AA599}"/>
-    <hyperlink ref="N57" r:id="rId389" xr:uid="{87AFFF42-71D9-4854-BAC9-845B688A8DAC}"/>
-    <hyperlink ref="O57" r:id="rId390" xr:uid="{B2CB0CC0-832A-4AE5-93B0-30E523167F9B}"/>
-    <hyperlink ref="P57" r:id="rId391" xr:uid="{FDBE03FF-8BDF-435D-8774-E6DAE91FD1DE}"/>
-    <hyperlink ref="Q57" r:id="rId392" xr:uid="{1CC375C0-4102-48AE-8B5B-0D0062D737C0}"/>
-    <hyperlink ref="H58" r:id="rId393" xr:uid="{FA48B581-D6AE-4F9B-B329-5F16313FA59C}"/>
-    <hyperlink ref="J58" r:id="rId394" xr:uid="{8334F913-0AED-4982-AE8E-3ECBA83B425A}"/>
-    <hyperlink ref="K58" r:id="rId395" xr:uid="{FDE008E0-28D2-4DCC-9063-702A52B08C3E}"/>
-    <hyperlink ref="N58" r:id="rId396" xr:uid="{5C0804AA-0C22-4CC2-A310-D1607B56CD25}"/>
-    <hyperlink ref="O58" r:id="rId397" xr:uid="{8E4D887C-BE27-4961-A052-9F7FB4D6CE1F}"/>
-    <hyperlink ref="P58" r:id="rId398" xr:uid="{A9549D60-CFF6-4D9D-A8C2-2BF78E4D1E3E}"/>
-    <hyperlink ref="Q58" r:id="rId399" xr:uid="{69EC6218-D8E7-4E67-9090-DC8497E72EB0}"/>
-    <hyperlink ref="H59" r:id="rId400" xr:uid="{1794EAA4-A029-4790-BF9A-8BF0D3336DBF}"/>
-    <hyperlink ref="J59" r:id="rId401" xr:uid="{C4A5A9D4-9048-4CF7-9926-3067B48BF8CD}"/>
-    <hyperlink ref="K59" r:id="rId402" xr:uid="{289DDFF6-52E1-47A9-A70C-B1D7BA880830}"/>
-    <hyperlink ref="N59" r:id="rId403" xr:uid="{DDF16613-D97E-4643-A725-90C35BDF9A23}"/>
-    <hyperlink ref="O59" r:id="rId404" xr:uid="{F9D9348D-B226-4887-B8AC-E4127C85393C}"/>
-    <hyperlink ref="P59" r:id="rId405" xr:uid="{9AB6E16E-ACC7-4B70-A959-3C698A3AEE57}"/>
-    <hyperlink ref="Q59" r:id="rId406" xr:uid="{0D43C409-B507-4540-98D6-F21D11A825C0}"/>
-    <hyperlink ref="H60" r:id="rId407" xr:uid="{E04CF2DA-0328-4605-93EA-AFA8903B9890}"/>
-    <hyperlink ref="J60" r:id="rId408" xr:uid="{6B7AE064-2491-4F01-8EAA-6C98ABD71040}"/>
-    <hyperlink ref="K60" r:id="rId409" xr:uid="{79810DB7-1300-4A50-8B18-574E45E11116}"/>
-    <hyperlink ref="N60" r:id="rId410" xr:uid="{B60A674D-A856-40C6-A18E-93F8A2034674}"/>
-    <hyperlink ref="O60" r:id="rId411" xr:uid="{176360FA-B136-4633-B819-D282A406F9F5}"/>
-    <hyperlink ref="P60" r:id="rId412" xr:uid="{CEBFCBAD-9351-4E5F-8BAB-81605EE9082A}"/>
-    <hyperlink ref="Q60" r:id="rId413" xr:uid="{4F89CC0D-5E57-48EF-BA1B-3A0F84175FE4}"/>
-    <hyperlink ref="H61" r:id="rId414" xr:uid="{0F92DE1C-80E0-475D-B782-7EF64171FDF9}"/>
-    <hyperlink ref="J61" r:id="rId415" xr:uid="{FEAD110C-4080-45AE-97E2-0DED137F693E}"/>
-    <hyperlink ref="K61" r:id="rId416" xr:uid="{5AAFA418-E6BC-460B-AFD8-37AEEB58D429}"/>
-    <hyperlink ref="N61" r:id="rId417" xr:uid="{254162FF-4D1B-4D94-A961-3020C9BD5EB4}"/>
-    <hyperlink ref="O61" r:id="rId418" xr:uid="{84E0BE4B-6170-412C-A33C-7D56DFC75EF7}"/>
-    <hyperlink ref="P61" r:id="rId419" xr:uid="{B4F71ABB-43A4-4C05-AA23-8345793F7CE2}"/>
-    <hyperlink ref="Q61" r:id="rId420" xr:uid="{E79AD214-C8E7-4BA1-8791-4DCD9CC09C7B}"/>
-    <hyperlink ref="H62" r:id="rId421" xr:uid="{A353854A-794D-46ED-8443-D5AC430ED287}"/>
-    <hyperlink ref="J62" r:id="rId422" xr:uid="{2DB39863-D7DE-424C-9B52-960CC671C6E3}"/>
-    <hyperlink ref="K62" r:id="rId423" xr:uid="{9621CC98-84C4-483B-9AFD-AE2798D54E3C}"/>
-    <hyperlink ref="N62" r:id="rId424" xr:uid="{7650824A-71E9-4D7F-BD99-B61506E3195F}"/>
-    <hyperlink ref="O62" r:id="rId425" xr:uid="{55D73EAA-3AC5-46FC-B46D-B70608C7FA82}"/>
-    <hyperlink ref="P62" r:id="rId426" xr:uid="{92B7418A-5474-49B8-A062-047841441AD1}"/>
-    <hyperlink ref="Q62" r:id="rId427" xr:uid="{F96DBA45-543C-4473-BB4E-EB386C8BE6B2}"/>
-    <hyperlink ref="H63" r:id="rId428" xr:uid="{01B34EF4-DBCF-4ED2-95BC-F74510911C6E}"/>
-    <hyperlink ref="J63" r:id="rId429" xr:uid="{4E6DE5EE-E111-4022-9D5E-0DACE440DDED}"/>
-    <hyperlink ref="K63" r:id="rId430" xr:uid="{521E134B-B479-4EA7-8AB6-357D4FCF8050}"/>
-    <hyperlink ref="N63" r:id="rId431" xr:uid="{9E92F1ED-A98B-43E0-A086-6D3A0D08B0B7}"/>
-    <hyperlink ref="O63" r:id="rId432" xr:uid="{FD6780D6-BFA0-4029-BCD5-E0CCB131C047}"/>
-    <hyperlink ref="P63" r:id="rId433" xr:uid="{29ED1BE1-65B0-4419-970E-ECAE47D613F2}"/>
-    <hyperlink ref="Q63" r:id="rId434" xr:uid="{67CC6D9D-2361-485C-BE0E-221C68C02D8F}"/>
-    <hyperlink ref="H64" r:id="rId435" xr:uid="{E1B422EC-9AED-48A6-B409-501AFEB8EE77}"/>
-    <hyperlink ref="J64" r:id="rId436" xr:uid="{F8C14051-01DF-417F-A72B-AC91F395FDD3}"/>
-    <hyperlink ref="K64" r:id="rId437" xr:uid="{0DFDF12F-FF9E-4F42-9981-F042A73B6AEB}"/>
-    <hyperlink ref="N64" r:id="rId438" xr:uid="{45588FB8-D741-495F-9A74-9E8AAE5461A1}"/>
-    <hyperlink ref="O64" r:id="rId439" xr:uid="{FF28A2F8-6C6B-4F41-ADE5-D1A6450A913B}"/>
-    <hyperlink ref="P64" r:id="rId440" xr:uid="{9E790DF7-1BBC-4852-BA48-A6D567DF1AB2}"/>
-    <hyperlink ref="Q64" r:id="rId441" xr:uid="{2F26C8FA-8F47-49B6-8C7D-7C5D9C1328EC}"/>
-    <hyperlink ref="H65" r:id="rId442" xr:uid="{DF13F740-7DC7-4FD3-97E8-FB7BF20D1C04}"/>
-    <hyperlink ref="J65" r:id="rId443" xr:uid="{78CF3B4B-B53F-48DA-BA3C-11392B0DABC8}"/>
-    <hyperlink ref="K65" r:id="rId444" xr:uid="{EABAFF3E-3935-4A84-93EB-F18580B692E0}"/>
-    <hyperlink ref="N65" r:id="rId445" xr:uid="{AB66FDDC-F9DB-4DF9-9BA1-B10ADC3DFEF1}"/>
-    <hyperlink ref="O65" r:id="rId446" xr:uid="{99C3C3F1-A964-4EEA-962F-8E58907D3112}"/>
-    <hyperlink ref="P65" r:id="rId447" xr:uid="{FE3AE145-F644-4C5A-BBB5-1B5A5AA3C49C}"/>
-    <hyperlink ref="Q65" r:id="rId448" xr:uid="{42C0C57D-D38C-4DEC-A2D1-98D134BB5108}"/>
-    <hyperlink ref="H66" r:id="rId449" xr:uid="{34AA2DCE-D8B3-4825-BBBC-AEA2F14A21E0}"/>
-    <hyperlink ref="J66" r:id="rId450" xr:uid="{916E0FF8-6C14-4765-AB48-D6917DFC417B}"/>
-    <hyperlink ref="K66" r:id="rId451" xr:uid="{FB85E207-33F0-492E-A5A7-803B8C9565BE}"/>
-    <hyperlink ref="N66" r:id="rId452" xr:uid="{DD22EF2C-039C-43B1-A4CD-C506D24C3A91}"/>
-    <hyperlink ref="O66" r:id="rId453" xr:uid="{D9240EEA-79F1-48B3-A910-C6506E22BDCD}"/>
-    <hyperlink ref="P66" r:id="rId454" xr:uid="{6BCF1E9D-6A68-49C8-B621-28B0EE2313CC}"/>
-    <hyperlink ref="Q66" r:id="rId455" xr:uid="{25345D6A-B227-45A2-AAC7-D124FB78BB49}"/>
-    <hyperlink ref="H67" r:id="rId456" xr:uid="{3149A661-DB9C-4D28-A932-711E8304D186}"/>
-    <hyperlink ref="J67" r:id="rId457" xr:uid="{D6225F39-0004-4C1B-8442-0E32E12C1DB2}"/>
-    <hyperlink ref="K67" r:id="rId458" xr:uid="{9C532E02-B68A-4A23-A72D-584F34AC2476}"/>
-    <hyperlink ref="N67" r:id="rId459" xr:uid="{F3281B07-79D2-4172-B70C-D5632DD3307A}"/>
-    <hyperlink ref="O67" r:id="rId460" xr:uid="{D1D3C35F-04F7-46A7-B8C9-1D286C2D3496}"/>
-    <hyperlink ref="P67" r:id="rId461" xr:uid="{DBFACF54-4AC4-4E6A-B4AF-6BCC577DE6F5}"/>
-    <hyperlink ref="Q67" r:id="rId462" xr:uid="{A25640C2-01E3-4855-B82D-8481E4A775E9}"/>
-    <hyperlink ref="H68" r:id="rId463" xr:uid="{06DBAFA8-2C57-403C-8D91-DDB533A1E4FD}"/>
-    <hyperlink ref="J68" r:id="rId464" xr:uid="{A755FB00-39BF-47F0-B7DA-EAD546C97C43}"/>
-    <hyperlink ref="K68" r:id="rId465" xr:uid="{43C71BFE-D2D8-4EFD-A1E0-D7AFD9DE64F5}"/>
-    <hyperlink ref="N68" r:id="rId466" xr:uid="{B859F1EC-DAF6-4012-B3DA-FA6E0952B0DE}"/>
-    <hyperlink ref="O68" r:id="rId467" xr:uid="{1468555A-A500-427E-AB7D-F8259E52FF75}"/>
-    <hyperlink ref="P68" r:id="rId468" xr:uid="{DFABACC2-928B-4230-86E0-202646373D7F}"/>
-    <hyperlink ref="Q68" r:id="rId469" xr:uid="{B24EAB21-61D1-475F-B170-C7364655E962}"/>
-    <hyperlink ref="H69" r:id="rId470" xr:uid="{57C4F669-408F-4D28-AE31-4DA193609158}"/>
-    <hyperlink ref="J69" r:id="rId471" xr:uid="{AFEFFA76-4AB4-4E5D-875F-264A62C0F889}"/>
-    <hyperlink ref="K69" r:id="rId472" xr:uid="{2D1560C3-40B5-4290-A6B4-BE5291BB8443}"/>
-    <hyperlink ref="N69" r:id="rId473" xr:uid="{443C6279-6A7F-46C5-A102-750321D49D76}"/>
-    <hyperlink ref="O69" r:id="rId474" xr:uid="{97D66626-7723-4FA7-A130-A9051B20DEDA}"/>
-    <hyperlink ref="P69" r:id="rId475" xr:uid="{46124E05-7106-43D8-873B-BBF3990D9F31}"/>
-    <hyperlink ref="Q69" r:id="rId476" xr:uid="{3DC86D3D-24F4-41CA-B2A0-5E40C36A4515}"/>
-    <hyperlink ref="H70" r:id="rId477" xr:uid="{D5EA0036-1B2C-4871-9564-BF607D112E0D}"/>
-    <hyperlink ref="J70" r:id="rId478" xr:uid="{4B8C6D25-6E2C-4ECE-9A93-B37AED7E10A5}"/>
-    <hyperlink ref="K70" r:id="rId479" xr:uid="{2A11943B-9114-4B56-B83C-37DD6C820B6B}"/>
-    <hyperlink ref="N70" r:id="rId480" xr:uid="{649DE7F9-6FFD-4A10-A9E8-0B21A7FAA387}"/>
-    <hyperlink ref="O70" r:id="rId481" xr:uid="{4E9E5C6C-897F-4821-B103-7D16CFBA131B}"/>
-    <hyperlink ref="P70" r:id="rId482" xr:uid="{412A26BD-F64F-4F54-AE1A-4C80E343B196}"/>
-    <hyperlink ref="Q70" r:id="rId483" xr:uid="{87B91992-F3FE-4490-9A8F-96677D8C623A}"/>
-    <hyperlink ref="H71" r:id="rId484" xr:uid="{614D153E-5A9F-4639-B2D6-1BC2D4463BA8}"/>
-    <hyperlink ref="J71" r:id="rId485" xr:uid="{09BF60FA-3C90-4878-9222-5F771B067074}"/>
-    <hyperlink ref="K71" r:id="rId486" xr:uid="{FB2CC4CC-3040-400B-B1A3-86BACC1B2D7F}"/>
-    <hyperlink ref="N71" r:id="rId487" xr:uid="{79B5B329-A864-4B1B-9A99-9DA23D18D9F1}"/>
-    <hyperlink ref="O71" r:id="rId488" xr:uid="{CEB957EB-07CE-4E5F-8C35-CE50E35C9F31}"/>
-    <hyperlink ref="P71" r:id="rId489" xr:uid="{B08BE202-07A2-4337-A111-6287050CCF7F}"/>
-    <hyperlink ref="Q71" r:id="rId490" xr:uid="{4F8086D3-84D8-4200-ACAE-24AB4FAA5DFC}"/>
-    <hyperlink ref="H72" r:id="rId491" xr:uid="{61E26665-7808-495C-8E88-044AF2312509}"/>
-    <hyperlink ref="J72" r:id="rId492" xr:uid="{3F2B3F42-A2EA-4EAA-B192-D0EAFED67937}"/>
-    <hyperlink ref="K72" r:id="rId493" xr:uid="{F734F0B0-7A05-4617-B88E-D8C0A63BB02A}"/>
-    <hyperlink ref="N72" r:id="rId494" xr:uid="{84B17F8C-4F6E-4038-86D8-F8A60F295EB6}"/>
-    <hyperlink ref="O72" r:id="rId495" xr:uid="{12415E41-D580-4F6C-B884-CF5D1B29DDB0}"/>
-    <hyperlink ref="P72" r:id="rId496" xr:uid="{2C06029F-4BF7-48B9-8DBE-C454D2C6C910}"/>
-    <hyperlink ref="Q72" r:id="rId497" xr:uid="{6404DF9C-49AE-41E8-85FD-79D4AD5A4A7A}"/>
-    <hyperlink ref="H73" r:id="rId498" xr:uid="{017AD18D-EEFC-4C5F-8E04-699C9F72DB28}"/>
-    <hyperlink ref="J73" r:id="rId499" xr:uid="{7570BABC-CCCE-418D-AB0C-113A9C0613FD}"/>
-    <hyperlink ref="K73" r:id="rId500" xr:uid="{0D5807C3-0B47-429B-AB86-20F6DEDECA27}"/>
-    <hyperlink ref="N73" r:id="rId501" xr:uid="{22A5D558-D57E-43A1-9E35-EB168F00A519}"/>
-    <hyperlink ref="O73" r:id="rId502" xr:uid="{6CAB1311-406B-4A06-B678-FCCC8202E62E}"/>
-    <hyperlink ref="P73" r:id="rId503" xr:uid="{2197A834-9935-4E7F-A715-54B8A2729053}"/>
-    <hyperlink ref="Q73" r:id="rId504" xr:uid="{40FC7EE8-6BA4-45B3-BF56-99C1D18A3C15}"/>
-    <hyperlink ref="H74" r:id="rId505" xr:uid="{00B7F635-A650-4430-B19B-75EEC0B0E812}"/>
-    <hyperlink ref="J74" r:id="rId506" xr:uid="{C7637551-4340-4AD6-9B2E-3566F754B334}"/>
-    <hyperlink ref="K74" r:id="rId507" xr:uid="{D4795831-342A-4E63-86B8-535EC6D54190}"/>
-    <hyperlink ref="N74" r:id="rId508" xr:uid="{C07555B8-407F-41F3-A1DC-66A0BBEDD463}"/>
-    <hyperlink ref="O74" r:id="rId509" xr:uid="{EED440D0-10C7-435C-9A07-4881363C6A4F}"/>
-    <hyperlink ref="P74" r:id="rId510" xr:uid="{E9C168AA-B316-4FF3-99EA-70B978308DB9}"/>
-    <hyperlink ref="Q74" r:id="rId511" xr:uid="{CAFCB9BB-259E-429B-B78A-EEDE58D4F543}"/>
-    <hyperlink ref="H75" r:id="rId512" xr:uid="{9446BD55-ECF5-49A9-B69E-2761A4ECA861}"/>
-    <hyperlink ref="J75" r:id="rId513" xr:uid="{339DA113-4FA4-4848-A624-742384A63F2A}"/>
-    <hyperlink ref="K75" r:id="rId514" xr:uid="{06FE98D1-5236-43B5-8154-821B1168EB47}"/>
-    <hyperlink ref="N75" r:id="rId515" xr:uid="{07D39440-3927-4D54-8946-0794F11D94DE}"/>
-    <hyperlink ref="O75" r:id="rId516" xr:uid="{8AA055BF-2ABF-490B-BED3-0622D4968952}"/>
-    <hyperlink ref="P75" r:id="rId517" xr:uid="{E2271BFE-EF6A-4BCC-A1CD-748C9A8F76F4}"/>
-    <hyperlink ref="Q75" r:id="rId518" xr:uid="{D067451C-E60B-4DDA-B788-07715FB5E637}"/>
-    <hyperlink ref="H76" r:id="rId519" xr:uid="{DA73801C-F61F-4FC6-8A5F-D72B4B29C51A}"/>
-    <hyperlink ref="J76" r:id="rId520" xr:uid="{33900525-5AEE-4E84-8D57-F7E3BEBCC665}"/>
-    <hyperlink ref="K76" r:id="rId521" xr:uid="{00183B0D-E35B-4B9C-9669-15DF112083D2}"/>
-    <hyperlink ref="N76" r:id="rId522" xr:uid="{5FB65206-617E-43D9-AE13-A7D3EFFF7894}"/>
-    <hyperlink ref="O76" r:id="rId523" xr:uid="{10F2BBB4-1A0E-47EA-BA29-026C1A63572A}"/>
-    <hyperlink ref="P76" r:id="rId524" xr:uid="{097635E9-DCAA-4DAC-AE3C-25FDC030DF5E}"/>
-    <hyperlink ref="Q76" r:id="rId525" xr:uid="{4D27686E-470A-46BC-84E9-037BE4D11CE4}"/>
-    <hyperlink ref="H77" r:id="rId526" xr:uid="{5A96C1A4-7554-4D4E-A89E-16BAECF8638B}"/>
-    <hyperlink ref="J77" r:id="rId527" xr:uid="{2A08339A-1050-4C05-A647-A825D845F921}"/>
-    <hyperlink ref="K77" r:id="rId528" xr:uid="{DA2A7838-E678-4823-ABE0-EED93BA41746}"/>
-    <hyperlink ref="N77" r:id="rId529" xr:uid="{CFD69682-7DFE-4CCD-BC12-2CCC0E05A4A8}"/>
-    <hyperlink ref="O77" r:id="rId530" xr:uid="{8728D70D-AFBD-4F0D-A7F2-40D5351A4A0E}"/>
-    <hyperlink ref="P77" r:id="rId531" xr:uid="{8B9E0E73-7429-4616-8626-5079E0F205E6}"/>
-    <hyperlink ref="Q77" r:id="rId532" xr:uid="{947F19B9-57C9-4C96-AD36-B326E957BCF6}"/>
-    <hyperlink ref="H78" r:id="rId533" xr:uid="{FB5C992B-0464-40F6-A397-4B06FF7E57A8}"/>
-    <hyperlink ref="J78" r:id="rId534" xr:uid="{5F8C3D1D-66BB-4DD5-8C39-427EA3F5BC40}"/>
-    <hyperlink ref="K78" r:id="rId535" xr:uid="{877D3F69-1548-495D-ADD3-EA699DD3105B}"/>
-    <hyperlink ref="N78" r:id="rId536" xr:uid="{8C472B0F-3F54-4AA0-923D-EC89310A1429}"/>
-    <hyperlink ref="O78" r:id="rId537" xr:uid="{EF289934-1569-4FDD-8F52-66598D26F699}"/>
-    <hyperlink ref="P78" r:id="rId538" xr:uid="{7F8ABA4C-FCCA-42E3-B38A-51A225C46FF6}"/>
-    <hyperlink ref="Q78" r:id="rId539" xr:uid="{30E299E4-A8E4-4FE6-9921-BDDCCE5280EC}"/>
-    <hyperlink ref="H79" r:id="rId540" xr:uid="{8169260C-6564-4D7E-8E0F-A624AEA88001}"/>
-    <hyperlink ref="J79" r:id="rId541" xr:uid="{D0790BC5-2832-41FF-B641-4F8631B44070}"/>
-    <hyperlink ref="K79" r:id="rId542" xr:uid="{251DAC9F-90EC-4B38-8C02-EF4172B397C6}"/>
-    <hyperlink ref="N79" r:id="rId543" xr:uid="{C1AF76C0-F17E-4181-A1A9-6DD2941DDEC0}"/>
-    <hyperlink ref="O79" r:id="rId544" xr:uid="{E7EE64F0-9B70-49A9-86BB-A0577465F002}"/>
-    <hyperlink ref="P79" r:id="rId545" xr:uid="{CA9D3592-0225-4D34-AFF5-3CFC7327E350}"/>
-    <hyperlink ref="Q79" r:id="rId546" xr:uid="{D9A41340-87E2-47F0-A51B-CB3CB8AA6F9E}"/>
-    <hyperlink ref="H80" r:id="rId547" xr:uid="{A161D3F4-DCEB-4B9B-95A6-E079C6DD4ADC}"/>
-    <hyperlink ref="J80" r:id="rId548" xr:uid="{7D63BDF4-546F-4467-ADF0-2955F1684C5E}"/>
-    <hyperlink ref="K80" r:id="rId549" xr:uid="{296D724B-A098-44CF-AC3E-D8279C779C9D}"/>
-    <hyperlink ref="N80" r:id="rId550" xr:uid="{74FFB5A8-A68D-44C4-8672-77EB77BFD9EA}"/>
-    <hyperlink ref="O80" r:id="rId551" xr:uid="{708DA01F-DA1B-464C-B78E-449AF3FCDE88}"/>
-    <hyperlink ref="P80" r:id="rId552" xr:uid="{9DAEF430-2AD2-4393-8245-E31781BDC0A7}"/>
-    <hyperlink ref="Q80" r:id="rId553" xr:uid="{A5AD2D4F-0B60-490C-96B6-C93B2F2BF7CE}"/>
-    <hyperlink ref="H81" r:id="rId554" xr:uid="{2CCA1CAF-4C9E-4F87-97E6-88F9C96E3F17}"/>
-    <hyperlink ref="J81" r:id="rId555" xr:uid="{4C15CDE0-F4BB-4A2A-88E5-C1D377977C33}"/>
-    <hyperlink ref="K81" r:id="rId556" xr:uid="{4E21F7F0-2E5D-46E7-90A1-33397735E6DF}"/>
-    <hyperlink ref="N81" r:id="rId557" xr:uid="{C3269801-7F0C-485C-A857-C67D38C71704}"/>
-    <hyperlink ref="O81" r:id="rId558" xr:uid="{A6231FD9-8EDE-406A-8937-9ECD1802DA74}"/>
-    <hyperlink ref="P81" r:id="rId559" xr:uid="{4D90DD52-7074-4FA3-9FA9-7992216FF8CA}"/>
-    <hyperlink ref="Q81" r:id="rId560" xr:uid="{3EBFB351-F342-4002-AF86-68DF231E242A}"/>
-    <hyperlink ref="H82" r:id="rId561" xr:uid="{5756D2A2-100E-4DF9-B915-0102320B6641}"/>
-    <hyperlink ref="J82" r:id="rId562" xr:uid="{D54406CB-100C-4DF3-92EA-7EB6FF47D0F3}"/>
-    <hyperlink ref="K82" r:id="rId563" xr:uid="{552E399E-7F35-4650-88D4-D299B3BD070A}"/>
-    <hyperlink ref="N82" r:id="rId564" xr:uid="{5D9626D6-D27F-4FAD-A4E3-149921874310}"/>
-    <hyperlink ref="O82" r:id="rId565" xr:uid="{FF125E77-09C7-45CD-9D7E-348CA835F763}"/>
-    <hyperlink ref="P82" r:id="rId566" xr:uid="{C79FDD30-4905-4BF7-9052-5A08246237D3}"/>
-    <hyperlink ref="Q82" r:id="rId567" xr:uid="{D08F1304-0D4E-4766-B480-9D406A6AEB5C}"/>
-    <hyperlink ref="H83" r:id="rId568" xr:uid="{52CB6DCA-6BFB-4460-9EB8-9FFB087C75F5}"/>
-    <hyperlink ref="J83" r:id="rId569" xr:uid="{564A31D2-13E7-41CD-B33A-8F464B1F523C}"/>
-    <hyperlink ref="K83" r:id="rId570" xr:uid="{8755C797-0E7A-46C0-8B84-5FCDAAEEB725}"/>
-    <hyperlink ref="N83" r:id="rId571" xr:uid="{8E5639DE-B2F3-4BC6-AD14-BCA757745561}"/>
-    <hyperlink ref="O83" r:id="rId572" xr:uid="{6DF791AB-137A-4937-8EF7-4B0FACDE36DC}"/>
-    <hyperlink ref="P83" r:id="rId573" xr:uid="{B8C7259D-9F9F-48F3-9CC1-229B428959E3}"/>
-    <hyperlink ref="Q83" r:id="rId574" xr:uid="{B0E581A6-4091-457F-8336-7E479E3458FA}"/>
-    <hyperlink ref="H84" r:id="rId575" xr:uid="{D71A7862-136A-4F16-AFAA-B5B19D3B46C0}"/>
-    <hyperlink ref="J84" r:id="rId576" xr:uid="{727C4C9F-5A3F-4F6C-A6D7-051CBDA32A5C}"/>
-    <hyperlink ref="K84" r:id="rId577" xr:uid="{92C966D1-6A72-4909-936D-FE3CD1C2F84A}"/>
-    <hyperlink ref="N84" r:id="rId578" xr:uid="{4CF3E5DB-8530-4133-BE24-3774240CBD3C}"/>
-    <hyperlink ref="O84" r:id="rId579" xr:uid="{2E53F784-A6BF-4E6D-AF20-8F5CA5B2CD0F}"/>
-    <hyperlink ref="P84" r:id="rId580" xr:uid="{2F5CE02F-087C-4131-9340-5909DFA11797}"/>
-    <hyperlink ref="Q84" r:id="rId581" xr:uid="{8A53B259-8FBE-4462-9E32-9875FDC80602}"/>
-    <hyperlink ref="H85" r:id="rId582" xr:uid="{FDC1B706-1E80-434A-BDAC-F8F1B148A848}"/>
-    <hyperlink ref="J85" r:id="rId583" xr:uid="{1A469229-70E5-45CB-9EDC-04428661F31C}"/>
-    <hyperlink ref="K85" r:id="rId584" xr:uid="{7356350E-ED95-4D0C-871A-4A81E2C7D83C}"/>
-    <hyperlink ref="N85" r:id="rId585" xr:uid="{14786BA1-664E-469D-94CE-9AF1A63D0012}"/>
-    <hyperlink ref="O85" r:id="rId586" xr:uid="{635B891B-CCD4-41BA-94FA-D4EAFA815811}"/>
-    <hyperlink ref="P85" r:id="rId587" xr:uid="{D03C096D-307A-4292-B40C-948967555CFA}"/>
-    <hyperlink ref="Q85" r:id="rId588" xr:uid="{FE215554-1537-4F76-956A-FF9F83D5FFD5}"/>
-    <hyperlink ref="H86" r:id="rId589" xr:uid="{1F44844A-288C-4FB4-9AD8-EDE3A62FCCD8}"/>
-    <hyperlink ref="J86" r:id="rId590" xr:uid="{E7686A11-6937-4A9D-AC9E-307F19A9364C}"/>
-    <hyperlink ref="K86" r:id="rId591" xr:uid="{1E84174E-F6A7-4902-A370-C2CAE8A79B0B}"/>
-    <hyperlink ref="N86" r:id="rId592" xr:uid="{3657E4D7-C453-4441-BC0C-1EFE7DC4A9AC}"/>
-    <hyperlink ref="O86" r:id="rId593" xr:uid="{47D3B671-3376-461B-BBF9-BBB12FF52D3E}"/>
-    <hyperlink ref="P86" r:id="rId594" xr:uid="{D57FA4BF-FC57-4963-9697-DFE85E545EFC}"/>
-    <hyperlink ref="Q86" r:id="rId595" xr:uid="{1BD5C36B-FBB5-44DA-9321-DE4546F87E6F}"/>
-    <hyperlink ref="H87" r:id="rId596" xr:uid="{F9621EBD-16C1-4494-8412-5AB978DC7622}"/>
-    <hyperlink ref="J87" r:id="rId597" xr:uid="{C20C6A15-4225-437C-89FA-EF9E8484D1E8}"/>
-    <hyperlink ref="K87" r:id="rId598" xr:uid="{6EB32FF0-CB53-41DE-BE94-5CB596D3EEEF}"/>
-    <hyperlink ref="N87" r:id="rId599" xr:uid="{7E6A1C84-7DD9-449B-B554-D6022690F9A5}"/>
-    <hyperlink ref="O87" r:id="rId600" xr:uid="{9F6094CD-B88A-465E-9475-000D18738C84}"/>
-    <hyperlink ref="P87" r:id="rId601" xr:uid="{D8D21EFD-4242-44D3-91D7-4D6A2F8DDB9C}"/>
-    <hyperlink ref="Q87" r:id="rId602" xr:uid="{5447E37B-1710-4F62-AA1E-2C5F47CDA353}"/>
-    <hyperlink ref="H88" r:id="rId603" xr:uid="{02C42EA0-CD8F-42EA-B516-CF227D4C660C}"/>
-    <hyperlink ref="J88" r:id="rId604" xr:uid="{12A85B41-20C3-4A7A-A30A-F160B6349AC2}"/>
-    <hyperlink ref="K88" r:id="rId605" xr:uid="{72C2A4EA-0513-47B4-B077-AF9C4FA7AA90}"/>
-    <hyperlink ref="N88" r:id="rId606" xr:uid="{7F67F688-F336-4D17-9883-13ACBF88A4AD}"/>
-    <hyperlink ref="O88" r:id="rId607" xr:uid="{C40134EC-645B-4D16-B625-A5D9BDE957AB}"/>
-    <hyperlink ref="P88" r:id="rId608" xr:uid="{B6B68212-A3C9-47A3-B2E6-1DE9E02FA811}"/>
-    <hyperlink ref="Q88" r:id="rId609" xr:uid="{18E3625C-DC4F-4C37-B472-958FC4252A87}"/>
-    <hyperlink ref="H89" r:id="rId610" xr:uid="{CCC78FB3-B7CF-40CE-9F45-468C2BEB93DA}"/>
-    <hyperlink ref="J89" r:id="rId611" xr:uid="{3B29C30B-9188-4255-A4C3-B9316D340A97}"/>
-    <hyperlink ref="K89" r:id="rId612" xr:uid="{DD19CE23-CCB1-4134-9405-1872B37E4234}"/>
-    <hyperlink ref="N89" r:id="rId613" xr:uid="{D36F3D24-2663-4E18-AA15-3B7F2E034EA0}"/>
-    <hyperlink ref="O89" r:id="rId614" xr:uid="{08016346-06EC-4A0C-9711-995F2BB2A7EF}"/>
-    <hyperlink ref="P89" r:id="rId615" xr:uid="{951714D2-1C4B-4505-89F6-A4A903545DD1}"/>
-    <hyperlink ref="Q89" r:id="rId616" xr:uid="{06144683-C55B-49C4-95C6-8B944CAEC83F}"/>
-    <hyperlink ref="H90" r:id="rId617" xr:uid="{86427D3E-BFFD-4638-A16A-D2D4E506583B}"/>
-    <hyperlink ref="J90" r:id="rId618" xr:uid="{5465A948-23FC-493A-AC6B-AF9A16E2EFAD}"/>
-    <hyperlink ref="K90" r:id="rId619" xr:uid="{895361E0-C792-4415-857F-4CEF46C346DC}"/>
-    <hyperlink ref="N90" r:id="rId620" xr:uid="{306D1CD9-8B91-4852-9C4F-F7F81676E7A7}"/>
-    <hyperlink ref="O90" r:id="rId621" xr:uid="{E2848E9E-D2DE-4852-9AD1-1378E2B7141D}"/>
-    <hyperlink ref="P90" r:id="rId622" xr:uid="{72BCBAEB-479E-4111-8820-0F4BEEA21DEF}"/>
-    <hyperlink ref="Q90" r:id="rId623" xr:uid="{2B91B093-5ABD-411E-938D-93FE7471D3A9}"/>
-    <hyperlink ref="H91" r:id="rId624" xr:uid="{2130D800-F04D-47A3-B7A0-5F26738225EC}"/>
-    <hyperlink ref="J91" r:id="rId625" xr:uid="{EA4C139A-3034-49EC-B24B-6D5BA1511600}"/>
-    <hyperlink ref="K91" r:id="rId626" xr:uid="{989C3DDC-BE69-4C40-8066-650B52C60E0F}"/>
-    <hyperlink ref="N91" r:id="rId627" xr:uid="{9ED61776-AAEF-4178-9C50-0BB36DA8D92E}"/>
-    <hyperlink ref="O91" r:id="rId628" xr:uid="{0D50C452-02F9-4F6E-975C-7F954168C43C}"/>
-    <hyperlink ref="P91" r:id="rId629" xr:uid="{366BC6C4-4310-4C54-B3FE-CCB437CB724E}"/>
-    <hyperlink ref="Q91" r:id="rId630" xr:uid="{AC042F25-15CC-46A9-828F-3CA89CD908F6}"/>
-    <hyperlink ref="H92" r:id="rId631" xr:uid="{00FEB14A-BE99-429A-83AE-DC88B72EB131}"/>
-    <hyperlink ref="J92" r:id="rId632" xr:uid="{554089DE-575A-46C6-B019-B960E44A322B}"/>
-    <hyperlink ref="K92" r:id="rId633" xr:uid="{6034B33C-DEB1-44DF-8F44-2AB3AA1508E4}"/>
-    <hyperlink ref="N92" r:id="rId634" xr:uid="{9FBC6704-E2ED-46E3-B339-E47C86A81821}"/>
-    <hyperlink ref="O92" r:id="rId635" xr:uid="{44702EC0-FF71-41AD-906F-BDB07EF051C0}"/>
-    <hyperlink ref="P92" r:id="rId636" xr:uid="{DCB20909-368D-4FEA-B72F-936992DE837E}"/>
-    <hyperlink ref="Q92" r:id="rId637" xr:uid="{B5716489-5667-456A-83BE-29B6B06DD2EE}"/>
-    <hyperlink ref="H93" r:id="rId638" xr:uid="{69145015-16EC-43AF-B457-E6305ECB4720}"/>
-    <hyperlink ref="J93" r:id="rId639" xr:uid="{6B1BF9A9-9E4F-4944-887B-27B92944DB6D}"/>
-    <hyperlink ref="K93" r:id="rId640" xr:uid="{533E41D8-3D07-43B3-8E88-A28483768881}"/>
-    <hyperlink ref="N93" r:id="rId641" xr:uid="{6855C047-148C-46A9-8B18-58C4DF95788A}"/>
-    <hyperlink ref="O93" r:id="rId642" xr:uid="{EF3A1497-8C26-4930-8C5F-A6C3A41A93B9}"/>
-    <hyperlink ref="P93" r:id="rId643" xr:uid="{B2BFA4AD-7626-42A0-8393-FAAABF642F9E}"/>
-    <hyperlink ref="Q93" r:id="rId644" xr:uid="{A991174A-F6E7-4E54-BFB6-9B7A1055BEB5}"/>
-    <hyperlink ref="H94" r:id="rId645" xr:uid="{89D5F02E-D423-4D99-80AA-8C1B936E07C9}"/>
-    <hyperlink ref="J94" r:id="rId646" xr:uid="{377C591B-3A21-43E0-9DB4-C476575E6A48}"/>
-    <hyperlink ref="K94" r:id="rId647" xr:uid="{869CE2A6-0E58-43FC-9857-FCE73AD168F1}"/>
-    <hyperlink ref="N94" r:id="rId648" xr:uid="{6862038A-4BF8-496B-A52D-5F805065B5C3}"/>
-    <hyperlink ref="O94" r:id="rId649" xr:uid="{453F3E6A-FF94-47A3-98E6-189DB8F41401}"/>
-    <hyperlink ref="P94" r:id="rId650" xr:uid="{99F9DC27-D56F-4F60-BF73-98F7903EC972}"/>
-    <hyperlink ref="Q94" r:id="rId651" xr:uid="{3D85FA4B-4C3E-40F8-8267-3391130A1489}"/>
-    <hyperlink ref="H95" r:id="rId652" xr:uid="{CF2F1575-E35E-46D5-940B-8B8B8027B053}"/>
-    <hyperlink ref="J95" r:id="rId653" xr:uid="{AC05B828-E0A3-47C6-9AE2-17432CCEAB85}"/>
-    <hyperlink ref="K95" r:id="rId654" xr:uid="{E0DFD6F7-0A95-45DB-88E8-29E51B394D43}"/>
-    <hyperlink ref="N95" r:id="rId655" xr:uid="{E54A15CA-DA70-4E0C-AFAD-1C16C8DF852E}"/>
-    <hyperlink ref="O95" r:id="rId656" xr:uid="{AE3895F2-ED0C-4AAA-8591-EE79C50E6413}"/>
-    <hyperlink ref="P95" r:id="rId657" xr:uid="{5A4AE133-3EC6-40B8-B160-3994F44266AB}"/>
-    <hyperlink ref="Q95" r:id="rId658" xr:uid="{E015AB48-580B-413C-8055-CF1D807A324E}"/>
-    <hyperlink ref="H96" r:id="rId659" xr:uid="{5B45DAE2-E018-430C-B169-79E8104E0C96}"/>
-    <hyperlink ref="J96" r:id="rId660" xr:uid="{3A6258C6-B492-48E8-B68C-32B30284D3B5}"/>
-    <hyperlink ref="K96" r:id="rId661" xr:uid="{E5876AF3-4C77-4863-BC75-3FB6F22304F7}"/>
-    <hyperlink ref="N96" r:id="rId662" xr:uid="{790E527E-7015-4D61-993D-B0425CCB4E8C}"/>
-    <hyperlink ref="O96" r:id="rId663" xr:uid="{A39BCE58-FAA4-4979-B4E4-33D27819D17D}"/>
-    <hyperlink ref="P96" r:id="rId664" xr:uid="{61B03484-0D34-4B42-9208-B3416DC23142}"/>
-    <hyperlink ref="Q96" r:id="rId665" xr:uid="{33DF5F45-7392-4682-A9F5-4B0D5F797488}"/>
-    <hyperlink ref="H97" r:id="rId666" xr:uid="{5BCE8C5E-B0DA-4224-843F-62423F4C3B92}"/>
-    <hyperlink ref="J97" r:id="rId667" xr:uid="{30A9A56C-C4D7-415C-8A78-CC0F817C5F50}"/>
-    <hyperlink ref="K97" r:id="rId668" xr:uid="{ABD6EAE3-98A9-40AF-9DC6-D40CC8E89AD9}"/>
-    <hyperlink ref="N97" r:id="rId669" xr:uid="{D5BA38D2-8DBD-46FF-A091-B340E2203BB6}"/>
-    <hyperlink ref="O97" r:id="rId670" xr:uid="{940321DD-E49A-4A0E-860A-60E102636B0B}"/>
-    <hyperlink ref="P97" r:id="rId671" xr:uid="{D5F43943-61AB-4067-B760-72454E5DAABE}"/>
-    <hyperlink ref="Q97" r:id="rId672" xr:uid="{3AA28ED1-5D8F-4F91-BE4E-535937F6E820}"/>
-    <hyperlink ref="H98" r:id="rId673" xr:uid="{618DD300-6DCA-4DB7-AF23-3A83E00B62DD}"/>
-    <hyperlink ref="J98" r:id="rId674" xr:uid="{2AB04A4B-C0F7-4F30-87BB-0D8F38324A67}"/>
-    <hyperlink ref="K98" r:id="rId675" xr:uid="{AD4D0DDA-507C-4395-8915-4ACA8DBA9E8B}"/>
-    <hyperlink ref="N98" r:id="rId676" xr:uid="{5B2CB2F1-CE9E-4D82-B738-C7D261CF8458}"/>
-    <hyperlink ref="O98" r:id="rId677" xr:uid="{41A5825C-CA0B-4731-8370-64587631B264}"/>
-    <hyperlink ref="P98" r:id="rId678" xr:uid="{E40EDCE0-E462-4A78-B3AF-4F237D2B6358}"/>
-    <hyperlink ref="Q98" r:id="rId679" xr:uid="{D5EBB3A1-9ECC-4709-B1B4-B06A086789E4}"/>
-    <hyperlink ref="H99" r:id="rId680" xr:uid="{FAC4A95F-E9CF-4A45-AD37-FC91B8803DC6}"/>
-    <hyperlink ref="J99" r:id="rId681" xr:uid="{B0A3BB34-7C9E-4D3F-A16D-F8FB7E1DB72C}"/>
-    <hyperlink ref="K99" r:id="rId682" xr:uid="{5183EBE7-D7B1-4441-BED4-735EA2E12C77}"/>
-    <hyperlink ref="N99" r:id="rId683" xr:uid="{BC3AB6AD-5360-4115-980E-66679195F889}"/>
-    <hyperlink ref="O99" r:id="rId684" xr:uid="{3CAC5EFC-BBCF-4781-856B-1CEEF9C09653}"/>
-    <hyperlink ref="P99" r:id="rId685" xr:uid="{92340AFC-742A-4C68-A2D8-8A7D3A101656}"/>
-    <hyperlink ref="Q99" r:id="rId686" xr:uid="{63DA65BC-9AC8-4FFB-AA85-5F0E1513970D}"/>
-    <hyperlink ref="H100" r:id="rId687" xr:uid="{0622EAF0-4347-4EAE-8E0C-D1B8E9C21BE3}"/>
-    <hyperlink ref="J100" r:id="rId688" xr:uid="{0EE58207-F173-476A-A741-98258E0FD2B8}"/>
-    <hyperlink ref="K100" r:id="rId689" xr:uid="{4A5F29E5-3E7D-41AD-B8A8-50D0145722C5}"/>
-    <hyperlink ref="N100" r:id="rId690" xr:uid="{1017FC47-B34F-4902-9A96-7AD0EB048AC4}"/>
-    <hyperlink ref="O100" r:id="rId691" xr:uid="{BD164470-4203-4B96-BC02-58992CE659CF}"/>
-    <hyperlink ref="P100" r:id="rId692" xr:uid="{D3D085C6-4C0E-4419-BA40-BE9E4C34DCD0}"/>
-    <hyperlink ref="Q100" r:id="rId693" xr:uid="{6CD068CD-CD8C-42DA-8FD9-50DA861741DE}"/>
-    <hyperlink ref="H101" r:id="rId694" xr:uid="{EDC00FD6-F2CB-45BE-8CD8-9A0CBDA88B84}"/>
-    <hyperlink ref="J101" r:id="rId695" xr:uid="{FFA2494D-C186-41B0-AB7A-E8382471FE9A}"/>
-    <hyperlink ref="K101" r:id="rId696" xr:uid="{7DD917A7-9A82-4CBF-ACE0-AD0AFCEED60A}"/>
-    <hyperlink ref="N101" r:id="rId697" xr:uid="{B397B6B2-7623-46EE-BF96-8D6F806CE665}"/>
-    <hyperlink ref="O101" r:id="rId698" xr:uid="{9CE61CE4-591E-4045-A2FF-B848308A3642}"/>
-    <hyperlink ref="P101" r:id="rId699" xr:uid="{F72EA6CB-39C3-49DB-BF69-1031239D3B2D}"/>
-    <hyperlink ref="Q101" r:id="rId700" xr:uid="{38D62BA2-AB96-49F1-BAE9-A32B989DDC0D}"/>
-    <hyperlink ref="H102" r:id="rId701" xr:uid="{2F9DD123-F357-4697-AE6F-3867480DE10F}"/>
-    <hyperlink ref="J102" r:id="rId702" xr:uid="{9E4A8856-BDF5-40F3-B3BB-1B2CEF075586}"/>
-    <hyperlink ref="K102" r:id="rId703" xr:uid="{C9EEB6C0-4971-4029-9826-881F94AE8999}"/>
-    <hyperlink ref="N102" r:id="rId704" xr:uid="{D18E8D7A-EF9E-4203-AAED-274F85B9AFE9}"/>
-    <hyperlink ref="O102" r:id="rId705" xr:uid="{4BC89750-80A7-461C-9E80-15AED985C92E}"/>
-    <hyperlink ref="P102" r:id="rId706" xr:uid="{C89DEBE4-B180-46C2-B65A-D33EC1AD89B9}"/>
-    <hyperlink ref="Q102" r:id="rId707" xr:uid="{43A61B57-6C1D-4B12-BB64-FBDAC2E9C3CA}"/>
-    <hyperlink ref="H103" r:id="rId708" xr:uid="{D047373D-D3AC-4F52-A4B7-98CB1B9F5E63}"/>
-    <hyperlink ref="J103" r:id="rId709" xr:uid="{7226D91F-AEE7-427D-9377-568121B257DE}"/>
-    <hyperlink ref="K103" r:id="rId710" xr:uid="{72C5A884-5602-4A67-B32B-9A78767656B5}"/>
-    <hyperlink ref="N103" r:id="rId711" xr:uid="{3D315230-1F04-45A9-98BB-4A3A5DC47259}"/>
-    <hyperlink ref="O103" r:id="rId712" xr:uid="{5B40A04B-B9D1-4A07-82F8-40CED68AE767}"/>
-    <hyperlink ref="P103" r:id="rId713" xr:uid="{BD82E7AB-5755-42E3-8ECD-F4D828A9DC62}"/>
-    <hyperlink ref="Q103" r:id="rId714" xr:uid="{4231E078-2D33-4D11-B08E-4F5CDCB366C6}"/>
-    <hyperlink ref="H104" r:id="rId715" xr:uid="{506C7FD5-C3FD-468F-A900-3F871DB5B9C1}"/>
-    <hyperlink ref="J104" r:id="rId716" xr:uid="{4D2AECC3-368C-4286-B187-3FC149F0939D}"/>
-    <hyperlink ref="K104" r:id="rId717" xr:uid="{7BFD205B-8E03-48D1-ADFA-9D880C1ACDAE}"/>
-    <hyperlink ref="N104" r:id="rId718" xr:uid="{23325364-B4E0-489C-98B4-77513968C7A9}"/>
-    <hyperlink ref="O104" r:id="rId719" xr:uid="{9B9C1C72-D095-4677-A9AB-BFEC922DC0FB}"/>
-    <hyperlink ref="P104" r:id="rId720" xr:uid="{F05FADA3-3627-4410-8C92-DA10AB295F94}"/>
-    <hyperlink ref="Q104" r:id="rId721" xr:uid="{4E3FDFD1-F0E1-4F66-8F1E-0FF51CAA41E2}"/>
-    <hyperlink ref="H105" r:id="rId722" xr:uid="{A6170618-09BA-485E-945E-DB478E5E8029}"/>
-    <hyperlink ref="J105" r:id="rId723" xr:uid="{B8673266-D5A8-4F7F-8B9F-79BCE2B95963}"/>
-    <hyperlink ref="K105" r:id="rId724" xr:uid="{B0D8F50A-9B2B-43F7-A044-FF9CB46C8AB5}"/>
-    <hyperlink ref="N105" r:id="rId725" xr:uid="{E3451B5D-A792-40D5-A5E0-5C0561BCFAEB}"/>
-    <hyperlink ref="O105" r:id="rId726" xr:uid="{D507E45F-A0FC-4339-93D7-02661E68DFD1}"/>
-    <hyperlink ref="P105" r:id="rId727" xr:uid="{781C6EA8-37DC-49FE-A5F8-EF6BE2EAF6CB}"/>
-    <hyperlink ref="Q105" r:id="rId728" xr:uid="{C82AE48D-DBE0-4667-AF9C-43DB3681917E}"/>
-    <hyperlink ref="H106" r:id="rId729" xr:uid="{BEFBF051-93FB-43DD-A9B6-336B82983F92}"/>
-    <hyperlink ref="J106" r:id="rId730" xr:uid="{4BECBDC1-51AE-4766-917E-80845D7BE6BA}"/>
-    <hyperlink ref="K106" r:id="rId731" xr:uid="{096586C4-E250-4C8E-8A06-D5515DFA7C83}"/>
-    <hyperlink ref="N106" r:id="rId732" xr:uid="{E1BCE500-78ED-4A34-B124-E684B0BB02B6}"/>
-    <hyperlink ref="O106" r:id="rId733" xr:uid="{2C4CB210-658F-4FE2-8282-7ED25D323CC1}"/>
-    <hyperlink ref="P106" r:id="rId734" xr:uid="{9C51C27C-AB06-4E74-987C-4A9F0DBBBAED}"/>
-    <hyperlink ref="Q106" r:id="rId735" xr:uid="{B6C7D72A-A54C-4A81-A352-2F97EB9E88E9}"/>
-    <hyperlink ref="H107" r:id="rId736" xr:uid="{5901F524-7E4C-47A4-A151-6886EC4475CF}"/>
-    <hyperlink ref="J107" r:id="rId737" xr:uid="{0F1E56CF-8004-4548-916B-3E1B153B4726}"/>
-    <hyperlink ref="K107" r:id="rId738" xr:uid="{F9907BFB-B71F-405C-BBF6-3C91F0D5436A}"/>
-    <hyperlink ref="N107" r:id="rId739" xr:uid="{2321E5A6-58D6-4B89-B004-E6EA85162C32}"/>
-    <hyperlink ref="O107" r:id="rId740" xr:uid="{42995307-8ACD-4556-A795-D99C83BFB5C5}"/>
-    <hyperlink ref="P107" r:id="rId741" xr:uid="{9F2DECE9-F9EC-48AF-801D-7F08ACD585B9}"/>
-    <hyperlink ref="Q107" r:id="rId742" xr:uid="{DE317D67-85F6-425E-B20D-BE64B2E8D097}"/>
-    <hyperlink ref="H108" r:id="rId743" xr:uid="{676EC34C-CAF1-4BDA-83C1-AF0DFAA44DBF}"/>
-    <hyperlink ref="J108" r:id="rId744" xr:uid="{0B505B38-803A-4A7D-A61C-3609C98CFCA8}"/>
-    <hyperlink ref="K108" r:id="rId745" xr:uid="{9E248F40-C179-4C09-B271-61039E6034F6}"/>
-    <hyperlink ref="N108" r:id="rId746" xr:uid="{F4ABE7B3-1010-4CE4-A1A5-D55ED09AC366}"/>
-    <hyperlink ref="O108" r:id="rId747" xr:uid="{B922D3D9-B4BF-4C6F-84B6-2AB3DA4F4666}"/>
-    <hyperlink ref="P108" r:id="rId748" xr:uid="{FC5828EE-23D1-495E-B182-9D722B9DA96D}"/>
-    <hyperlink ref="Q108" r:id="rId749" xr:uid="{B81127DB-3BD4-44DA-BCFE-BE377E76A6EB}"/>
-    <hyperlink ref="H109" r:id="rId750" xr:uid="{74A8C133-896D-4463-95E2-EDF171443B31}"/>
-    <hyperlink ref="J109" r:id="rId751" xr:uid="{CD6E90E3-5B1C-4017-AA67-F1A2C3A99BC2}"/>
-    <hyperlink ref="K109" r:id="rId752" xr:uid="{6EC0A259-9586-4ED5-AE6B-89FBDA7180D8}"/>
-    <hyperlink ref="N109" r:id="rId753" xr:uid="{BD78028F-12F0-4B10-AD9D-98469ABC93BB}"/>
-    <hyperlink ref="O109" r:id="rId754" xr:uid="{8D424753-02DC-4A73-BECC-2699E6553F69}"/>
-    <hyperlink ref="P109" r:id="rId755" xr:uid="{8E69EC93-FEDF-44BF-ADF8-5E94C42E4436}"/>
-    <hyperlink ref="Q109" r:id="rId756" xr:uid="{C395E57F-6396-4912-9EC6-D4699CD6D854}"/>
-    <hyperlink ref="H110" r:id="rId757" xr:uid="{E2F5532C-2A09-4CD3-8E8F-9EFC10B12525}"/>
-    <hyperlink ref="J110" r:id="rId758" xr:uid="{CA714F9E-BEB0-46B9-A298-1C0AB7ADCBEB}"/>
-    <hyperlink ref="K110" r:id="rId759" xr:uid="{F350F899-C426-48E0-8405-F421148C392E}"/>
-    <hyperlink ref="N110" r:id="rId760" xr:uid="{E93DD224-67BE-4BBD-A199-66ED2BD5A85F}"/>
-    <hyperlink ref="O110" r:id="rId761" xr:uid="{7EBD74BA-CB60-4C0B-BF85-89AA2D4F8EEF}"/>
-    <hyperlink ref="P110" r:id="rId762" xr:uid="{ECCFBFD3-9DDB-41F1-A4D4-4633577B8916}"/>
-    <hyperlink ref="Q110" r:id="rId763" xr:uid="{94A7539C-FFE7-45E0-93B6-7AFD0B2374E6}"/>
-    <hyperlink ref="H111" r:id="rId764" xr:uid="{EDF7D1AC-5E29-40A1-B575-2DDA792B2EE3}"/>
-    <hyperlink ref="J111" r:id="rId765" xr:uid="{9FF36FAC-9FBA-4A23-80F6-4A045E5E3439}"/>
-    <hyperlink ref="K111" r:id="rId766" xr:uid="{6ECE4F3D-8A0A-4495-B55D-528DAB1041D2}"/>
-    <hyperlink ref="N111" r:id="rId767" xr:uid="{5E1678CA-80C7-4C1F-BE89-505C295E2B47}"/>
-    <hyperlink ref="O111" r:id="rId768" xr:uid="{AC45698A-489E-447B-8AE2-2F0199596998}"/>
-    <hyperlink ref="P111" r:id="rId769" xr:uid="{A8591F84-7214-4B84-8B03-D93DF6155DE3}"/>
-    <hyperlink ref="Q111" r:id="rId770" xr:uid="{82D89B8C-FFB7-4B16-94D5-9295C0E82FD2}"/>
-    <hyperlink ref="H112" r:id="rId771" xr:uid="{93B248F7-F65C-484B-8A64-35C76BF74218}"/>
-    <hyperlink ref="J112" r:id="rId772" xr:uid="{91AD62C3-5320-4830-B367-D615D5AD8DD8}"/>
-    <hyperlink ref="K112" r:id="rId773" xr:uid="{3789C258-3669-4D9E-B4D0-E69D79B5EC85}"/>
-    <hyperlink ref="N112" r:id="rId774" xr:uid="{4A2E8ADC-09FE-439E-9F43-641B03040975}"/>
-    <hyperlink ref="O112" r:id="rId775" xr:uid="{A93DC89A-5685-4DC0-A3FD-CD6ED20EB709}"/>
-    <hyperlink ref="P112" r:id="rId776" xr:uid="{5C586882-0B93-41FC-8E2F-6BF4F47FDB83}"/>
-    <hyperlink ref="Q112" r:id="rId777" xr:uid="{A9C55260-6994-4D91-BED0-FA695253BF5D}"/>
-    <hyperlink ref="H113" r:id="rId778" xr:uid="{E2A1E55B-A4C5-41A5-8648-34F6A5E7F060}"/>
-    <hyperlink ref="J113" r:id="rId779" xr:uid="{AE53EB42-E9E0-4550-A620-626F8845F2E1}"/>
-    <hyperlink ref="K113" r:id="rId780" xr:uid="{37D73455-BA05-43DA-B4A3-ACC51678230C}"/>
-    <hyperlink ref="N113" r:id="rId781" xr:uid="{7686ABF1-19DC-4A5A-8C7F-D12F9A9415C2}"/>
-    <hyperlink ref="O113" r:id="rId782" xr:uid="{BFBAEAC3-8F95-4906-94D9-E474B070F1A4}"/>
-    <hyperlink ref="P113" r:id="rId783" xr:uid="{3CC2AFF2-9E31-48CE-8EAB-A25C059DDC2D}"/>
-    <hyperlink ref="Q113" r:id="rId784" xr:uid="{F888A106-C3AD-4342-9DE6-B44FD50B633F}"/>
-    <hyperlink ref="H114" r:id="rId785" xr:uid="{27339897-FC27-4474-A1F7-59922DF61F7B}"/>
-    <hyperlink ref="J114" r:id="rId786" xr:uid="{9A908E8E-8AD6-40E1-B676-798CEAB2CC67}"/>
-    <hyperlink ref="K114" r:id="rId787" xr:uid="{5530E444-487F-4735-9B32-DA46C3BCA006}"/>
-    <hyperlink ref="N114" r:id="rId788" xr:uid="{F824C112-1F81-4187-B0B1-BD5BFF04B969}"/>
-    <hyperlink ref="O114" r:id="rId789" xr:uid="{6D5446E3-40CC-44BB-A6CE-42A13A58852D}"/>
-    <hyperlink ref="P114" r:id="rId790" xr:uid="{D085B49A-5A20-4917-9E9A-62C59C82E375}"/>
-    <hyperlink ref="Q114" r:id="rId791" xr:uid="{2EF69DC9-0F6B-4CA2-9848-10679F5C694B}"/>
-    <hyperlink ref="H115" r:id="rId792" xr:uid="{BDF1A934-75B1-4E9C-9F15-7579CF1AD163}"/>
-    <hyperlink ref="J115" r:id="rId793" xr:uid="{0470359C-5FFB-4625-963F-B949091AD66C}"/>
-    <hyperlink ref="K115" r:id="rId794" xr:uid="{080BEF59-0B80-4A90-879F-86B108EC08A8}"/>
-    <hyperlink ref="N115" r:id="rId795" xr:uid="{A28E5EB1-C8BD-44B0-A0D2-689991DC6ACB}"/>
-    <hyperlink ref="O115" r:id="rId796" xr:uid="{34DF4A9E-E73C-4CE4-A891-0FBFD4531E8E}"/>
-    <hyperlink ref="P115" r:id="rId797" xr:uid="{D421E442-70BA-4C0A-8D36-75EE0D7CB855}"/>
-    <hyperlink ref="Q115" r:id="rId798" xr:uid="{446CACB0-285D-4A1A-9577-88F50C8F3B56}"/>
-    <hyperlink ref="H116" r:id="rId799" xr:uid="{654E09B3-AA81-457E-AB41-F3A9EA47D9AA}"/>
-    <hyperlink ref="J116" r:id="rId800" xr:uid="{CC261CCD-1046-4405-A135-33CC0EC365C4}"/>
-    <hyperlink ref="K116" r:id="rId801" xr:uid="{2A16E951-DDED-4D80-8E66-0416BDC87D22}"/>
-    <hyperlink ref="N116" r:id="rId802" xr:uid="{0D7C3E1F-6E27-482E-9DE5-1B1F9EC4EED1}"/>
-    <hyperlink ref="O116" r:id="rId803" xr:uid="{7F8E5925-903A-4973-ABFA-FA65CED0E2A5}"/>
-    <hyperlink ref="P116" r:id="rId804" xr:uid="{508C990A-8994-449B-92B5-73C649018B04}"/>
-    <hyperlink ref="Q116" r:id="rId805" xr:uid="{D883F478-4C21-4A29-AEC5-D6C681EF867D}"/>
-    <hyperlink ref="H117" r:id="rId806" xr:uid="{75157551-0DEF-45A5-A9D1-A5AA224B4A6C}"/>
-    <hyperlink ref="J117" r:id="rId807" xr:uid="{F6782453-A6BC-4FB1-96BA-910D0B77261C}"/>
-    <hyperlink ref="K117" r:id="rId808" xr:uid="{EBDA30E7-C94A-48DF-A8B4-B69684425543}"/>
-    <hyperlink ref="N117" r:id="rId809" xr:uid="{2967B82D-E099-4B1E-B5E5-0271397D129E}"/>
-    <hyperlink ref="O117" r:id="rId810" xr:uid="{E59DF6B1-2232-4B6A-B81E-6EDAF845B515}"/>
-    <hyperlink ref="P117" r:id="rId811" xr:uid="{E7A4E0B4-D875-4053-8737-78606442A39D}"/>
-    <hyperlink ref="Q117" r:id="rId812" xr:uid="{077F8E7E-C988-4334-8854-E02F872CD3CA}"/>
-    <hyperlink ref="H118" r:id="rId813" xr:uid="{D167E74A-616A-44AD-B539-B3F0043F0E57}"/>
-    <hyperlink ref="J118" r:id="rId814" xr:uid="{FC90A99B-67C5-4CAB-A4CA-8B2C1CB24F0B}"/>
-    <hyperlink ref="K118" r:id="rId815" xr:uid="{2C71E112-85BC-4971-9F3C-556E05371C82}"/>
-    <hyperlink ref="N118" r:id="rId816" xr:uid="{69F284EA-3C08-49AE-AE26-529F3D66A08C}"/>
-    <hyperlink ref="O118" r:id="rId817" xr:uid="{24EB3AB6-BBE0-4163-B7E3-E58D354F0700}"/>
-    <hyperlink ref="P118" r:id="rId818" xr:uid="{2FF6E007-BBCC-446B-8995-F2FB5A3503B8}"/>
-    <hyperlink ref="Q118" r:id="rId819" xr:uid="{619B33F2-CE27-41E9-A81E-93881C5EDE74}"/>
-    <hyperlink ref="H119" r:id="rId820" xr:uid="{9DD4C067-3D44-4F3A-BD74-F1CE6BC02940}"/>
-    <hyperlink ref="J119" r:id="rId821" xr:uid="{DB3940EA-D1FA-4DDC-9E0D-05F3CE156176}"/>
-    <hyperlink ref="K119" r:id="rId822" xr:uid="{D00A16DC-BA9D-44AF-AA18-5C3CA767AECA}"/>
-    <hyperlink ref="N119" r:id="rId823" xr:uid="{884224CB-438C-4C73-A046-89426EDF76E8}"/>
-    <hyperlink ref="O119" r:id="rId824" xr:uid="{2E75C365-6E7A-407C-8D2C-02B3D5E9A76C}"/>
-    <hyperlink ref="P119" r:id="rId825" xr:uid="{929E30F1-DA3C-4FD9-ACF4-02B1B098B4B3}"/>
-    <hyperlink ref="Q119" r:id="rId826" xr:uid="{F3BCA431-BC0F-490A-8A74-F715C382F11A}"/>
-    <hyperlink ref="H120" r:id="rId827" xr:uid="{17F30CB4-66F7-4991-9FBD-26070C293BCA}"/>
-    <hyperlink ref="J120" r:id="rId828" xr:uid="{15747668-2C4C-4151-AADA-F502590C587B}"/>
-    <hyperlink ref="K120" r:id="rId829" xr:uid="{679385DE-9C9E-4DDE-9595-735076B4082D}"/>
-    <hyperlink ref="N120" r:id="rId830" xr:uid="{AAD9338A-E426-4C4F-BC7D-FB90249E6D3D}"/>
-    <hyperlink ref="O120" r:id="rId831" xr:uid="{CB873E2C-2BEF-471F-AFC5-1ABF698E4826}"/>
-    <hyperlink ref="P120" r:id="rId832" xr:uid="{8DDACDFF-B792-415F-8255-A81BFA815CBB}"/>
-    <hyperlink ref="Q120" r:id="rId833" xr:uid="{457B7653-5FCB-4BB5-8DF0-C95F41186047}"/>
-    <hyperlink ref="H121" r:id="rId834" xr:uid="{8974DEBB-6D2D-4712-8F79-9B1CBE698DCF}"/>
-    <hyperlink ref="J121" r:id="rId835" xr:uid="{A17B7BBB-0DDE-489F-92BC-A955A6674A2F}"/>
-    <hyperlink ref="K121" r:id="rId836" xr:uid="{D3C8F855-82C3-4E21-BD56-ABD59C554936}"/>
-    <hyperlink ref="N121" r:id="rId837" xr:uid="{2ED67AB4-8BA4-4EA2-92BC-4B7CCC57AC1A}"/>
-    <hyperlink ref="O121" r:id="rId838" xr:uid="{24868915-2B4B-4B6B-96EE-C825A57CCAB4}"/>
-    <hyperlink ref="P121" r:id="rId839" xr:uid="{0343B55C-6B40-4FC7-A952-A2AB6FEAD57E}"/>
-    <hyperlink ref="Q121" r:id="rId840" xr:uid="{378E2C80-B678-4388-9778-65F1AE7915EC}"/>
-    <hyperlink ref="H122" r:id="rId841" xr:uid="{B03DC7B3-FCCB-4D56-B7FF-FEEED074C902}"/>
-    <hyperlink ref="J122" r:id="rId842" xr:uid="{55DC8BAD-0D42-4CB6-93FE-0D298BA698FB}"/>
-    <hyperlink ref="K122" r:id="rId843" xr:uid="{61A65A47-A94A-4A7F-A664-C0651C73DBB3}"/>
-    <hyperlink ref="N122" r:id="rId844" xr:uid="{8DD8418F-2FAB-42D6-B072-0A31314A51B5}"/>
-    <hyperlink ref="O122" r:id="rId845" xr:uid="{8F645D26-D4E0-400B-86E4-AC03A5CFF496}"/>
-    <hyperlink ref="P122" r:id="rId846" xr:uid="{4E537889-0B00-4BF1-8136-15A8489D5F58}"/>
-    <hyperlink ref="Q122" r:id="rId847" xr:uid="{0FC4D69C-6653-4BB5-A3E5-B51BD1C1F14C}"/>
-    <hyperlink ref="H123" r:id="rId848" xr:uid="{11933554-EE49-474D-B0AE-0A9E7CBB8536}"/>
-    <hyperlink ref="J123" r:id="rId849" xr:uid="{25CC8D56-2A7B-4485-A8F0-A9C09CAFC031}"/>
-    <hyperlink ref="K123" r:id="rId850" xr:uid="{F7AFA323-B2B4-4FDD-8B01-5A58EA19FF4D}"/>
-    <hyperlink ref="N123" r:id="rId851" xr:uid="{7C0FA89C-B135-4613-969F-D39A82FE15F4}"/>
-    <hyperlink ref="O123" r:id="rId852" xr:uid="{14697BFC-EB06-4ED4-B739-57BF5B6CE570}"/>
-    <hyperlink ref="P123" r:id="rId853" xr:uid="{3DB26E67-F820-490D-92DA-1F41BCE91967}"/>
-    <hyperlink ref="Q123" r:id="rId854" xr:uid="{F19DEC5A-1B69-4688-9DA2-787F34119AAB}"/>
-    <hyperlink ref="H124" r:id="rId855" xr:uid="{C0FA5560-B949-4386-80EC-FAF2ABFEDADC}"/>
-    <hyperlink ref="J124" r:id="rId856" xr:uid="{2715BC5B-8052-4366-9DCE-D7591154E5CB}"/>
-    <hyperlink ref="K124" r:id="rId857" xr:uid="{1ECF32E7-36A7-4B49-B529-6716E8DF3ECF}"/>
-    <hyperlink ref="N124" r:id="rId858" xr:uid="{B5EB5125-15B9-4980-816F-D6044FCBAD75}"/>
-    <hyperlink ref="O124" r:id="rId859" xr:uid="{98DE355F-1E08-4D78-A6A7-59CF210C142C}"/>
-    <hyperlink ref="P124" r:id="rId860" xr:uid="{C08C0048-1A70-4067-9DEB-1D86520E65FC}"/>
-    <hyperlink ref="Q124" r:id="rId861" xr:uid="{8A5BB1C4-808A-459F-8469-2B674C76F37C}"/>
-    <hyperlink ref="H125" r:id="rId862" xr:uid="{DE2E8361-5460-4F67-95CC-49C624DC6F6C}"/>
-    <hyperlink ref="J125" r:id="rId863" xr:uid="{3AD6FABE-7F79-42B5-B001-AB61E19A952A}"/>
-    <hyperlink ref="K125" r:id="rId864" xr:uid="{FCE3C4BF-DD2A-4A8A-8265-A1896D901208}"/>
-    <hyperlink ref="N125" r:id="rId865" xr:uid="{6DBFA762-2518-4591-85D6-2E517A816C1E}"/>
-    <hyperlink ref="O125" r:id="rId866" xr:uid="{CD87E6A1-B5A7-4AF3-91E4-EA66EA404D8B}"/>
-    <hyperlink ref="P125" r:id="rId867" xr:uid="{B217F100-1C7D-4296-A167-C70A9FEBD763}"/>
-    <hyperlink ref="Q125" r:id="rId868" xr:uid="{E9F256C4-20DA-4250-A252-9038BAEE83FD}"/>
-    <hyperlink ref="H126" r:id="rId869" xr:uid="{AA4DCFFB-54B0-4B57-B7F7-AB4B22D384D1}"/>
-    <hyperlink ref="J126" r:id="rId870" xr:uid="{B6C54784-A60B-4A3E-A1D0-EF9E8F945DF5}"/>
-    <hyperlink ref="K126" r:id="rId871" xr:uid="{EEEAE8DF-FDA2-4322-8827-404CEDC9BF21}"/>
-    <hyperlink ref="N126" r:id="rId872" xr:uid="{4D089C46-32F1-4E2A-AE98-101FC169B3DA}"/>
-    <hyperlink ref="O126" r:id="rId873" xr:uid="{0128C821-AD87-489D-B348-70BF1FBF628A}"/>
-    <hyperlink ref="P126" r:id="rId874" xr:uid="{2EA6EEC8-7194-4D5E-8737-E55C4C22C486}"/>
-    <hyperlink ref="Q126" r:id="rId875" xr:uid="{4292BFDB-D8A8-4C49-889A-BD8F22772BEC}"/>
-    <hyperlink ref="H127" r:id="rId876" xr:uid="{CE058ECB-E074-4A63-BCC7-8122C0449053}"/>
-    <hyperlink ref="J127" r:id="rId877" xr:uid="{FA4B774D-4FEC-43AE-A778-390336343EE3}"/>
-    <hyperlink ref="K127" r:id="rId878" xr:uid="{AD37FBDB-BB6C-4EDA-AF0F-174B0864CB3B}"/>
-    <hyperlink ref="N127" r:id="rId879" xr:uid="{4AB498CC-F6CB-48B6-AE19-948B69D53B69}"/>
-    <hyperlink ref="O127" r:id="rId880" xr:uid="{C69D6DC7-4EC0-493B-8DFF-3EBC71BEE0E8}"/>
-    <hyperlink ref="P127" r:id="rId881" xr:uid="{955C75F6-3687-4B14-97A8-1E51A8DE5345}"/>
-    <hyperlink ref="Q127" r:id="rId882" xr:uid="{17009278-BA37-4849-8DE7-03C84EC1179F}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{D53FA70C-E8CA-461D-95B6-FE7F4D628DF7}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{E94A44EB-4D3F-4F1B-A1D5-4EA102C226F9}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{B2319F13-BF63-4FBF-BFC9-5685C37C3592}"/>
+    <hyperlink ref="N2" r:id="rId4" xr:uid="{6F68ECCD-BA32-476E-BDAD-874AD068B206}"/>
+    <hyperlink ref="O2" r:id="rId5" xr:uid="{46332CA9-5842-4AF8-A87A-0DE81F3032FE}"/>
+    <hyperlink ref="P2" r:id="rId6" xr:uid="{C800F166-66AC-4A2C-83B0-DA342B3B18BD}"/>
+    <hyperlink ref="Q2" r:id="rId7" xr:uid="{515AB863-681D-4BF9-A8DE-8AB6D2519EC9}"/>
+    <hyperlink ref="H3" r:id="rId8" xr:uid="{005103FB-9FA7-495D-8B4E-044C546FD616}"/>
+    <hyperlink ref="J3" r:id="rId9" xr:uid="{EB3E620F-1588-42AA-98B2-478B80A13300}"/>
+    <hyperlink ref="K3" r:id="rId10" xr:uid="{1AAEB8C7-72DA-49DB-8D63-D232FAF8D98C}"/>
+    <hyperlink ref="N3" r:id="rId11" xr:uid="{63E1C0F6-1DC9-49B9-B45B-B3476CF35BF7}"/>
+    <hyperlink ref="O3" r:id="rId12" xr:uid="{88F11239-18D5-4328-8EF8-6AF885874E0F}"/>
+    <hyperlink ref="P3" r:id="rId13" xr:uid="{226D9908-0354-438A-8E2E-2887FB8A01CF}"/>
+    <hyperlink ref="Q3" r:id="rId14" xr:uid="{0F197151-D97B-44DC-86B4-D20321F90F61}"/>
+    <hyperlink ref="H4" r:id="rId15" xr:uid="{9407A238-6D08-4EC1-B2BD-C09339F61CE0}"/>
+    <hyperlink ref="J4" r:id="rId16" xr:uid="{03AEE76D-1725-48EF-A470-46E5E62A3886}"/>
+    <hyperlink ref="K4" r:id="rId17" xr:uid="{C3AC6A4B-6A7B-4948-B1EC-2F00A5775BA9}"/>
+    <hyperlink ref="N4" r:id="rId18" xr:uid="{9FC6375D-89E3-4A50-8232-78D13375FEDA}"/>
+    <hyperlink ref="O4" r:id="rId19" xr:uid="{35FB22DD-B570-4942-9569-B34A0E015981}"/>
+    <hyperlink ref="P4" r:id="rId20" xr:uid="{CC99C4A2-53CF-43A1-BFB5-CD38F22F5BB6}"/>
+    <hyperlink ref="Q4" r:id="rId21" xr:uid="{A0638B4B-48EC-4EFD-B448-86C49FF7DD3D}"/>
+    <hyperlink ref="H5" r:id="rId22" xr:uid="{FEB02396-45A1-4E28-A80B-F4A8EA3234C1}"/>
+    <hyperlink ref="J5" r:id="rId23" xr:uid="{205CD6B6-BF21-464A-8FF0-4808626E9ADD}"/>
+    <hyperlink ref="K5" r:id="rId24" xr:uid="{2D62EA30-84BB-4F95-9D8B-606AF157349B}"/>
+    <hyperlink ref="N5" r:id="rId25" xr:uid="{E8CC417D-D083-4C57-9A28-54951F83AE17}"/>
+    <hyperlink ref="O5" r:id="rId26" xr:uid="{A6C24016-04D9-4167-A709-48DD116C892F}"/>
+    <hyperlink ref="P5" r:id="rId27" xr:uid="{BD173763-BD10-4CD4-A697-A52F7D99819B}"/>
+    <hyperlink ref="Q5" r:id="rId28" xr:uid="{D97475EC-71B9-4FB9-AE81-772070AD8ADD}"/>
+    <hyperlink ref="H6" r:id="rId29" xr:uid="{3C38515F-9977-4B27-A021-6FA93D0C6470}"/>
+    <hyperlink ref="J6" r:id="rId30" xr:uid="{25820CD1-C63F-42EE-A62A-11905EB7318A}"/>
+    <hyperlink ref="K6" r:id="rId31" xr:uid="{4CD4A788-4CD9-4C0D-92CD-644FFBEB6901}"/>
+    <hyperlink ref="N6" r:id="rId32" xr:uid="{2BA77ADB-AB45-4F73-9985-84A3C98601ED}"/>
+    <hyperlink ref="O6" r:id="rId33" xr:uid="{55111234-55AA-4E3F-B652-6CCBB969B3C8}"/>
+    <hyperlink ref="P6" r:id="rId34" xr:uid="{906C6A47-7B2A-45C5-9C3D-AF1A9291D0E5}"/>
+    <hyperlink ref="Q6" r:id="rId35" xr:uid="{CA7CBEAA-5E38-4CAE-866E-0B94F315FB2A}"/>
+    <hyperlink ref="H7" r:id="rId36" xr:uid="{A57C5654-2ACD-4C53-8C83-4BA13B121B1C}"/>
+    <hyperlink ref="J7" r:id="rId37" xr:uid="{46182B12-EDB1-4C7C-AC27-FD8E29EB14F0}"/>
+    <hyperlink ref="K7" r:id="rId38" xr:uid="{A5558784-004F-4068-B1A2-C2820F069057}"/>
+    <hyperlink ref="N7" r:id="rId39" xr:uid="{A78DB020-2B51-4D07-926A-3ED12A56891A}"/>
+    <hyperlink ref="O7" r:id="rId40" xr:uid="{5CE8FE3F-D8AF-4D1A-98F0-7446362F0745}"/>
+    <hyperlink ref="P7" r:id="rId41" xr:uid="{6CB2CB49-BB98-4F6A-90AA-7ABA74345FDC}"/>
+    <hyperlink ref="Q7" r:id="rId42" xr:uid="{6CF02FA9-F213-4466-99FF-29AF29BEF8C4}"/>
+    <hyperlink ref="H8" r:id="rId43" xr:uid="{9C11F7A6-683A-4DE7-ADD4-917D398058D4}"/>
+    <hyperlink ref="J8" r:id="rId44" xr:uid="{3270D1B7-A844-42F2-8612-D7E28C4F3437}"/>
+    <hyperlink ref="K8" r:id="rId45" xr:uid="{696C73B4-1BC0-4B8A-BAC7-E74823B001F3}"/>
+    <hyperlink ref="N8" r:id="rId46" xr:uid="{10FC05FF-EE2A-49F5-B935-34DE3A1D8B0C}"/>
+    <hyperlink ref="O8" r:id="rId47" xr:uid="{9A2940FF-8E4A-4934-88CB-CCA6D97ACB1E}"/>
+    <hyperlink ref="P8" r:id="rId48" xr:uid="{09E2FDAA-7376-4E82-AD4F-B7D97B7B2C5B}"/>
+    <hyperlink ref="Q8" r:id="rId49" xr:uid="{6D9D467D-DB30-43A9-A4F0-64F8DE0C7251}"/>
+    <hyperlink ref="H9" r:id="rId50" xr:uid="{B6128FD8-79CA-4F67-A283-651D6093D8BA}"/>
+    <hyperlink ref="J9" r:id="rId51" xr:uid="{7B50D5F0-74FA-45C5-950F-84A805DE866F}"/>
+    <hyperlink ref="K9" r:id="rId52" xr:uid="{0F3CEC73-78C6-4BC1-8F19-4401EE10CE94}"/>
+    <hyperlink ref="N9" r:id="rId53" xr:uid="{2C2DEA07-5571-40F9-9533-6F0F298D7B47}"/>
+    <hyperlink ref="O9" r:id="rId54" xr:uid="{AD340CB8-EF86-4DE3-BCBC-2A379EEF8506}"/>
+    <hyperlink ref="P9" r:id="rId55" xr:uid="{57E2F204-DAA2-4099-A200-90CBEFB45043}"/>
+    <hyperlink ref="Q9" r:id="rId56" xr:uid="{1029DF02-A15B-4983-9524-9E470721603F}"/>
+    <hyperlink ref="H10" r:id="rId57" xr:uid="{09868074-8207-420F-803F-9C36F9847F9A}"/>
+    <hyperlink ref="J10" r:id="rId58" xr:uid="{40E0AD27-AD53-431D-9F43-5FEA5F209C6A}"/>
+    <hyperlink ref="K10" r:id="rId59" xr:uid="{088DECC0-374B-4FDF-BC16-8E34F866323D}"/>
+    <hyperlink ref="N10" r:id="rId60" xr:uid="{EC685E75-4FD1-4CF2-A3C6-77F762FC2BC5}"/>
+    <hyperlink ref="O10" r:id="rId61" xr:uid="{3E7EFD28-3482-4716-A5B5-5D0EC5FE06CC}"/>
+    <hyperlink ref="P10" r:id="rId62" xr:uid="{DC1A5939-B87D-46C7-A88D-2F0219A9E214}"/>
+    <hyperlink ref="Q10" r:id="rId63" xr:uid="{9D9C97AE-FA9C-4048-B52B-F6878AAE7D2A}"/>
+    <hyperlink ref="H11" r:id="rId64" xr:uid="{C3E8E282-1682-49DD-964C-A3D4781DAC09}"/>
+    <hyperlink ref="J11" r:id="rId65" xr:uid="{BD2DEC31-92BA-4037-B406-67B21427ED99}"/>
+    <hyperlink ref="K11" r:id="rId66" xr:uid="{178112F8-4903-4CA8-A4E4-87192F6AAF29}"/>
+    <hyperlink ref="N11" r:id="rId67" xr:uid="{ED12D04C-4B3A-4AFF-ADFC-001CE8C4D568}"/>
+    <hyperlink ref="O11" r:id="rId68" xr:uid="{C9CB2779-D8EE-4EC2-8C23-4134556FC885}"/>
+    <hyperlink ref="P11" r:id="rId69" xr:uid="{96D177E0-AC7E-46C0-B877-6FBE4A3D3944}"/>
+    <hyperlink ref="Q11" r:id="rId70" xr:uid="{443B06A2-E6CF-4C68-8ED4-61B36F68F9B5}"/>
+    <hyperlink ref="H12" r:id="rId71" xr:uid="{CF146F8B-BC20-449F-BEDE-F0CA1720041B}"/>
+    <hyperlink ref="J12" r:id="rId72" xr:uid="{694480D1-04B1-4951-866F-D88B247546AA}"/>
+    <hyperlink ref="K12" r:id="rId73" xr:uid="{13290DA0-EC51-4F4F-BC7D-0AFC6B072FF4}"/>
+    <hyperlink ref="N12" r:id="rId74" xr:uid="{6E250172-B35D-4346-8010-468A03E4528D}"/>
+    <hyperlink ref="O12" r:id="rId75" xr:uid="{F789B6E5-030A-4D49-AF7B-D90BF3625B7F}"/>
+    <hyperlink ref="P12" r:id="rId76" xr:uid="{0E9F6E15-4344-4D6C-94DD-5EB10DD2CBE8}"/>
+    <hyperlink ref="Q12" r:id="rId77" xr:uid="{0D2B74F0-8E5A-404F-A062-481FC60818AC}"/>
+    <hyperlink ref="H13" r:id="rId78" xr:uid="{A29249F9-C0DC-4F1F-91CF-CEAA4F8A4AA1}"/>
+    <hyperlink ref="J13" r:id="rId79" xr:uid="{BD3E6B91-86F3-4605-ACAD-C4954C6CC6AE}"/>
+    <hyperlink ref="K13" r:id="rId80" xr:uid="{C354566A-4BE9-4150-9173-077EDB1A56A4}"/>
+    <hyperlink ref="N13" r:id="rId81" xr:uid="{9C67440A-671E-4980-9FA0-E36DE52F880F}"/>
+    <hyperlink ref="O13" r:id="rId82" xr:uid="{A9BAB692-162A-41DB-B305-F7ED8CA913B5}"/>
+    <hyperlink ref="P13" r:id="rId83" xr:uid="{E29BA63B-802E-4931-BA70-98F7DC35A7C7}"/>
+    <hyperlink ref="Q13" r:id="rId84" xr:uid="{91C579FA-CF8A-4E98-820F-BA5553BA9B9C}"/>
+    <hyperlink ref="H14" r:id="rId85" xr:uid="{0941D0CC-1209-4AA5-944B-FA8E47F8D7AA}"/>
+    <hyperlink ref="J14" r:id="rId86" xr:uid="{309F4EE7-EA8A-41F5-AF35-66A989D89FBE}"/>
+    <hyperlink ref="K14" r:id="rId87" xr:uid="{82125B25-DF4A-4AC1-9D51-334AC13026F6}"/>
+    <hyperlink ref="N14" r:id="rId88" xr:uid="{2696C861-3AEF-4AB2-BD1A-39BDEA968671}"/>
+    <hyperlink ref="O14" r:id="rId89" xr:uid="{DAF0E23E-217F-41E3-B4A4-25AC6A8B7704}"/>
+    <hyperlink ref="P14" r:id="rId90" xr:uid="{29DDA0C9-399F-425B-B9B9-02A3F4688D55}"/>
+    <hyperlink ref="Q14" r:id="rId91" xr:uid="{AF75BCF4-C8EE-43A0-A6BA-47F13E20E6DC}"/>
+    <hyperlink ref="H15" r:id="rId92" xr:uid="{7F87A0B3-F6FF-4447-9C31-4A08D6C6EFA9}"/>
+    <hyperlink ref="J15" r:id="rId93" xr:uid="{E9F4F68C-E1F9-495E-9A35-1979B9BF1805}"/>
+    <hyperlink ref="K15" r:id="rId94" xr:uid="{3BE91018-1E6F-4543-8C5D-C95BDADCD67E}"/>
+    <hyperlink ref="N15" r:id="rId95" xr:uid="{57248DFF-19D7-418E-AD43-CF9ACCB5BBBA}"/>
+    <hyperlink ref="O15" r:id="rId96" xr:uid="{6915FBFB-5F3F-4C3D-9EB4-5267E12043E0}"/>
+    <hyperlink ref="P15" r:id="rId97" xr:uid="{96D7978B-D04A-4A5E-B7E3-15EC6765C0E5}"/>
+    <hyperlink ref="Q15" r:id="rId98" xr:uid="{100C82F7-2F93-4670-ADDD-926955822227}"/>
+    <hyperlink ref="H16" r:id="rId99" xr:uid="{3E35FAF7-B305-4D8C-B397-4EFAD747427C}"/>
+    <hyperlink ref="J16" r:id="rId100" xr:uid="{F43FF3B2-40FC-4FD4-A401-5DF3F552023C}"/>
+    <hyperlink ref="K16" r:id="rId101" xr:uid="{516A5C23-C4C5-446A-BC02-59C2B94EF84F}"/>
+    <hyperlink ref="N16" r:id="rId102" xr:uid="{A617E242-F5D0-45C2-880F-1881AD994362}"/>
+    <hyperlink ref="O16" r:id="rId103" xr:uid="{63C33524-532A-4EEA-9B02-5DB065333CC9}"/>
+    <hyperlink ref="P16" r:id="rId104" xr:uid="{8993B089-7149-424D-AD48-56E624873EB3}"/>
+    <hyperlink ref="Q16" r:id="rId105" xr:uid="{71AC2B6F-CD0E-4953-8289-712A9D679D09}"/>
+    <hyperlink ref="H17" r:id="rId106" xr:uid="{3CF9A170-E246-4010-806F-2B5F3BB80613}"/>
+    <hyperlink ref="J17" r:id="rId107" xr:uid="{387E1BE6-56B7-47EF-8A13-176435293170}"/>
+    <hyperlink ref="K17" r:id="rId108" xr:uid="{0F27D1D1-2D89-443B-A3A5-9BA1E33325AA}"/>
+    <hyperlink ref="N17" r:id="rId109" xr:uid="{6D004F9B-3710-4C5C-A6B4-591DCD93E06A}"/>
+    <hyperlink ref="O17" r:id="rId110" xr:uid="{64325A2B-3702-47DA-A5B1-82B180624BCE}"/>
+    <hyperlink ref="P17" r:id="rId111" xr:uid="{E5355D29-7F10-4ECB-ABA8-C81D4F8CD8E2}"/>
+    <hyperlink ref="Q17" r:id="rId112" xr:uid="{423D8F37-ED39-48E6-AEFD-AB44D05B914D}"/>
+    <hyperlink ref="H18" r:id="rId113" xr:uid="{173E6E46-5476-4CFE-AEB5-9F7535E22F72}"/>
+    <hyperlink ref="J18" r:id="rId114" xr:uid="{4A7F23BE-EE98-44AB-A8E4-FE426D9CB45D}"/>
+    <hyperlink ref="K18" r:id="rId115" xr:uid="{84117A4D-9159-41DE-B949-46026490443F}"/>
+    <hyperlink ref="N18" r:id="rId116" xr:uid="{58269157-90FA-4B87-9471-99237B85A452}"/>
+    <hyperlink ref="O18" r:id="rId117" xr:uid="{C7992F5A-D82E-470E-A518-7F26B795A61E}"/>
+    <hyperlink ref="P18" r:id="rId118" xr:uid="{399AB6AA-9558-4085-9A15-9BDA60F42090}"/>
+    <hyperlink ref="Q18" r:id="rId119" xr:uid="{BBDDFB6A-E4F8-4F45-B21B-7138999BA65B}"/>
+    <hyperlink ref="H19" r:id="rId120" xr:uid="{E7CADDA9-E1B5-4F97-964F-59C76BEA8D7F}"/>
+    <hyperlink ref="J19" r:id="rId121" xr:uid="{9DB48064-5BA3-4E67-BA8E-4ECEDF6C7799}"/>
+    <hyperlink ref="K19" r:id="rId122" xr:uid="{2B9338B0-E9DA-4986-A383-E34D370F6B25}"/>
+    <hyperlink ref="N19" r:id="rId123" xr:uid="{08A7BC8E-635B-4776-8C35-2A5242AA28B5}"/>
+    <hyperlink ref="O19" r:id="rId124" xr:uid="{97B32286-9316-4CCD-B32F-DB8513BEF224}"/>
+    <hyperlink ref="P19" r:id="rId125" xr:uid="{1C8557BD-CE22-4AF8-9E92-E44196B45A56}"/>
+    <hyperlink ref="Q19" r:id="rId126" xr:uid="{C29ED978-C07C-491B-B913-9B5E79147E80}"/>
+    <hyperlink ref="H20" r:id="rId127" xr:uid="{0492D565-3AE7-4F1F-9D54-735B3435A5DA}"/>
+    <hyperlink ref="J20" r:id="rId128" xr:uid="{89810445-29DE-4C24-9286-5DC650247EAB}"/>
+    <hyperlink ref="K20" r:id="rId129" xr:uid="{5B139FC1-1E9D-4970-B6AB-4AB25BE97D2A}"/>
+    <hyperlink ref="N20" r:id="rId130" xr:uid="{D5E569AC-3229-420C-974B-02312F441D44}"/>
+    <hyperlink ref="O20" r:id="rId131" xr:uid="{0945EDB2-0415-4128-B336-181E23A4A302}"/>
+    <hyperlink ref="P20" r:id="rId132" xr:uid="{58C1D729-5AC5-4E5F-B0F4-F1F5759E9555}"/>
+    <hyperlink ref="Q20" r:id="rId133" xr:uid="{0895D729-7F17-4BAD-A41E-3CF2E13C0E9A}"/>
+    <hyperlink ref="H21" r:id="rId134" xr:uid="{76D52DEE-1B92-4199-B0C9-F5147360DB8C}"/>
+    <hyperlink ref="J21" r:id="rId135" xr:uid="{4C25B459-91F7-4E9A-B0A7-072CFDE386F0}"/>
+    <hyperlink ref="K21" r:id="rId136" xr:uid="{6426C31D-F02A-41A5-B0CF-0AAC61D720A8}"/>
+    <hyperlink ref="N21" r:id="rId137" xr:uid="{C97A8364-F419-456A-A4B8-2DEE8DE278BC}"/>
+    <hyperlink ref="O21" r:id="rId138" xr:uid="{4BF564BE-EE21-4564-9FC9-12A27F29756A}"/>
+    <hyperlink ref="P21" r:id="rId139" xr:uid="{19403A8C-B9B3-482E-88D1-44AD4A37CC62}"/>
+    <hyperlink ref="Q21" r:id="rId140" xr:uid="{945AE598-3E34-499D-905B-AB2DFD0A0D14}"/>
+    <hyperlink ref="H22" r:id="rId141" xr:uid="{0AACBCD0-ADDB-4CDE-B246-8A63E7345D11}"/>
+    <hyperlink ref="J22" r:id="rId142" xr:uid="{A8284B6C-5139-49F7-AB19-6593E8AF386D}"/>
+    <hyperlink ref="K22" r:id="rId143" xr:uid="{733B0A76-4B82-4553-B008-E1C690716361}"/>
+    <hyperlink ref="N22" r:id="rId144" xr:uid="{610C324D-F090-44CC-8DF5-F1C76273CF25}"/>
+    <hyperlink ref="O22" r:id="rId145" xr:uid="{D320F60A-5EA6-4EDA-A023-E81FDC05A609}"/>
+    <hyperlink ref="P22" r:id="rId146" xr:uid="{7BA0D688-AF19-4C8F-ACFE-68689BE2736A}"/>
+    <hyperlink ref="Q22" r:id="rId147" xr:uid="{6A079514-F387-4507-BAB0-EB7B3FF6310B}"/>
+    <hyperlink ref="H23" r:id="rId148" xr:uid="{B52FD506-F359-4840-8344-D3FB8DA80DFD}"/>
+    <hyperlink ref="J23" r:id="rId149" xr:uid="{DE3C7A91-696B-4D1F-B5AB-ACA8FD0563B5}"/>
+    <hyperlink ref="K23" r:id="rId150" xr:uid="{81EDAE8D-8797-4F19-90E4-B75FD2FD7E7D}"/>
+    <hyperlink ref="N23" r:id="rId151" xr:uid="{1FC16DB0-69CC-49B9-8213-33DC5A9BFDD5}"/>
+    <hyperlink ref="O23" r:id="rId152" xr:uid="{9A89C6E7-D209-42E0-A927-8E9F8E38D35E}"/>
+    <hyperlink ref="P23" r:id="rId153" xr:uid="{6E2ED607-FC25-4205-B12A-0579ECAE281A}"/>
+    <hyperlink ref="Q23" r:id="rId154" xr:uid="{3CAE5AE6-0F76-440B-A646-2D43C5F5B3EE}"/>
+    <hyperlink ref="H24" r:id="rId155" xr:uid="{FD0013C4-315A-4C42-825E-F1052C01E8B8}"/>
+    <hyperlink ref="J24" r:id="rId156" xr:uid="{1EB4E38C-F1DB-4C40-8EA3-D31B6B0EF9FD}"/>
+    <hyperlink ref="K24" r:id="rId157" xr:uid="{99F84FBC-17BB-43FD-9424-411CEEE1F619}"/>
+    <hyperlink ref="N24" r:id="rId158" xr:uid="{1E4B663E-BE4E-48E1-9152-53051483AE10}"/>
+    <hyperlink ref="O24" r:id="rId159" xr:uid="{FF77DC41-7E84-427E-B0AA-097E072CBD68}"/>
+    <hyperlink ref="P24" r:id="rId160" xr:uid="{05E9FB83-1918-4378-9B0E-E8012107E0DC}"/>
+    <hyperlink ref="Q24" r:id="rId161" xr:uid="{60032814-53FA-47A8-BED7-7E88B3E56DFB}"/>
+    <hyperlink ref="H25" r:id="rId162" xr:uid="{65671070-0962-47DC-ACA2-3ABC68FFA798}"/>
+    <hyperlink ref="J25" r:id="rId163" xr:uid="{4A5CA0D2-F6DA-4050-9EFF-3C6200D09A2D}"/>
+    <hyperlink ref="K25" r:id="rId164" xr:uid="{216B8AB3-613E-4D91-ADDA-145CCACE14AE}"/>
+    <hyperlink ref="N25" r:id="rId165" xr:uid="{6FEDC200-AE1E-408B-B0D0-D68DD3838227}"/>
+    <hyperlink ref="O25" r:id="rId166" xr:uid="{5F64F0BA-8E1A-4F3D-904B-F88545FFA0B6}"/>
+    <hyperlink ref="P25" r:id="rId167" xr:uid="{D9FDE5D2-D24C-400F-88F8-E158302A5989}"/>
+    <hyperlink ref="Q25" r:id="rId168" xr:uid="{1D4453D3-FAD1-4D4E-837C-AD8278E4D58A}"/>
+    <hyperlink ref="H26" r:id="rId169" xr:uid="{A5C7C8BD-87EF-46FA-BF7D-1EB5A9FC0491}"/>
+    <hyperlink ref="J26" r:id="rId170" xr:uid="{EDA72F2E-BF65-4A01-B724-2532F3397700}"/>
+    <hyperlink ref="K26" r:id="rId171" xr:uid="{D4B97F44-B7C6-4EAF-8640-888B10748384}"/>
+    <hyperlink ref="N26" r:id="rId172" xr:uid="{E8E9C1D2-BFFF-40B0-9A8D-1D3FBFC35E62}"/>
+    <hyperlink ref="O26" r:id="rId173" xr:uid="{2337FC20-BD24-4A3C-ADB4-50DDCBE69085}"/>
+    <hyperlink ref="P26" r:id="rId174" xr:uid="{E77CC2C6-17C2-42B5-8681-8FB3005C5114}"/>
+    <hyperlink ref="Q26" r:id="rId175" xr:uid="{83087BCC-602E-44C8-8C2C-CE5577FE9787}"/>
+    <hyperlink ref="H27" r:id="rId176" xr:uid="{F2931036-C930-4906-873B-7215EB52BCC4}"/>
+    <hyperlink ref="J27" r:id="rId177" xr:uid="{2264AD9F-7556-48DF-9B99-228C63D7587E}"/>
+    <hyperlink ref="K27" r:id="rId178" xr:uid="{F2E085E0-95FA-4C9D-AE3E-0519E085A590}"/>
+    <hyperlink ref="N27" r:id="rId179" xr:uid="{DEDB5722-96FB-4891-A2A0-DAE405E432A9}"/>
+    <hyperlink ref="O27" r:id="rId180" xr:uid="{376A208C-B349-4743-A09C-B58F8EA83C58}"/>
+    <hyperlink ref="P27" r:id="rId181" xr:uid="{796B034B-3AC3-4D59-83B9-C9EB76AEE5A7}"/>
+    <hyperlink ref="Q27" r:id="rId182" xr:uid="{AF73E080-6BD1-4D6C-83C6-D43247944A7D}"/>
+    <hyperlink ref="H28" r:id="rId183" xr:uid="{A33E01CD-C847-4225-BD2C-91FC7C630D14}"/>
+    <hyperlink ref="J28" r:id="rId184" xr:uid="{F22EAF73-3403-4B3B-8387-C665A79657F0}"/>
+    <hyperlink ref="K28" r:id="rId185" xr:uid="{F4784E9D-9AE1-41FC-8E99-C77D450920CD}"/>
+    <hyperlink ref="N28" r:id="rId186" xr:uid="{577297D9-060A-46CD-8F54-596EE759D84E}"/>
+    <hyperlink ref="O28" r:id="rId187" xr:uid="{94743E87-1416-4070-BF15-1F64E98B6AD5}"/>
+    <hyperlink ref="P28" r:id="rId188" xr:uid="{B006ABE9-5F35-4EF2-AFC4-DF5DC23BC0CB}"/>
+    <hyperlink ref="Q28" r:id="rId189" xr:uid="{6E6DFB44-8A3A-46C2-8CA2-8306B0651503}"/>
+    <hyperlink ref="H29" r:id="rId190" xr:uid="{7BCD3DF5-D995-4A99-8633-79B1B84B020E}"/>
+    <hyperlink ref="J29" r:id="rId191" xr:uid="{6F647888-E4BE-45AE-AD04-1AB8C4CBB588}"/>
+    <hyperlink ref="K29" r:id="rId192" xr:uid="{CD9297B7-BF13-4F2B-8E91-2CF80B316A6B}"/>
+    <hyperlink ref="N29" r:id="rId193" xr:uid="{E1656A3C-1B5A-4C7E-927E-560A0B4CB248}"/>
+    <hyperlink ref="O29" r:id="rId194" xr:uid="{5B4B9BA5-84B1-440F-9F51-32E3EC4E378E}"/>
+    <hyperlink ref="P29" r:id="rId195" xr:uid="{F76C95C3-6B81-49C3-B888-BC1472CB560C}"/>
+    <hyperlink ref="Q29" r:id="rId196" xr:uid="{8782A2F9-648A-41EB-8D25-4CF170A99192}"/>
+    <hyperlink ref="H30" r:id="rId197" xr:uid="{F6DBB959-61CD-4BBF-8552-33275EBA9DB1}"/>
+    <hyperlink ref="J30" r:id="rId198" xr:uid="{2CA63404-0036-4FD3-A2E2-FE7DE43B18C8}"/>
+    <hyperlink ref="K30" r:id="rId199" xr:uid="{40420B01-0F05-48E7-BCDE-F3D3B9707BCC}"/>
+    <hyperlink ref="N30" r:id="rId200" xr:uid="{F81965FC-144E-4D14-A2AB-BE3DF644568B}"/>
+    <hyperlink ref="O30" r:id="rId201" xr:uid="{047BBB69-3BED-4FE9-8BB4-D55CC75026FB}"/>
+    <hyperlink ref="P30" r:id="rId202" xr:uid="{DF2B9D13-4599-4501-B959-861835514588}"/>
+    <hyperlink ref="Q30" r:id="rId203" xr:uid="{00C590B6-8CB5-4C83-8053-E50EF6847D88}"/>
+    <hyperlink ref="H31" r:id="rId204" xr:uid="{53D1A0BA-6F1D-41BA-BFBA-C6EFF3248EB6}"/>
+    <hyperlink ref="J31" r:id="rId205" xr:uid="{C4817785-04F9-4B2C-ADD1-2F8F2810CF28}"/>
+    <hyperlink ref="K31" r:id="rId206" xr:uid="{6B9642EA-4725-4BCE-B2F4-92B418ADFF3C}"/>
+    <hyperlink ref="N31" r:id="rId207" xr:uid="{4CF7EAC8-D0C1-4DFA-9A71-499D9B0C0D58}"/>
+    <hyperlink ref="O31" r:id="rId208" xr:uid="{5CF31B28-BA7E-428B-AB36-41B258B93877}"/>
+    <hyperlink ref="P31" r:id="rId209" xr:uid="{F40D0E66-25F5-4BC4-8518-1B17325C32D2}"/>
+    <hyperlink ref="Q31" r:id="rId210" xr:uid="{DD38B5E6-14DD-4014-923C-5335A3692248}"/>
+    <hyperlink ref="H32" r:id="rId211" xr:uid="{8EC3EBB6-66EF-49E6-8D63-EA22A7733943}"/>
+    <hyperlink ref="J32" r:id="rId212" xr:uid="{36ED5896-6114-4490-AA2C-EDEA86A18155}"/>
+    <hyperlink ref="K32" r:id="rId213" xr:uid="{CD391F2C-4C90-4ACC-8C75-5D6DD650BFBD}"/>
+    <hyperlink ref="N32" r:id="rId214" xr:uid="{C53CDCBE-1C32-4850-9164-43B1115F17E8}"/>
+    <hyperlink ref="O32" r:id="rId215" xr:uid="{789ED0AF-BF07-40D5-8033-2EEF219632F6}"/>
+    <hyperlink ref="P32" r:id="rId216" xr:uid="{BFAA9676-D560-4988-B597-6EADB44542FA}"/>
+    <hyperlink ref="Q32" r:id="rId217" xr:uid="{C3142E34-85D5-4252-8F31-F25E0FBBDBED}"/>
+    <hyperlink ref="H33" r:id="rId218" xr:uid="{FDD590E7-2EEF-4738-8DFC-FD0F96C3041D}"/>
+    <hyperlink ref="J33" r:id="rId219" xr:uid="{02C56122-53C3-463A-B0CD-87F7A9C1A73C}"/>
+    <hyperlink ref="K33" r:id="rId220" xr:uid="{72CF3C5A-E5F0-42B1-8BB0-A65AE773DE11}"/>
+    <hyperlink ref="N33" r:id="rId221" xr:uid="{A702D2E6-4568-449E-A93C-C903738A5588}"/>
+    <hyperlink ref="O33" r:id="rId222" xr:uid="{07AC30E8-99F1-4565-AB34-C06E91C079FB}"/>
+    <hyperlink ref="P33" r:id="rId223" xr:uid="{9F7E3EC2-28FF-498A-8657-59EA7350D9EA}"/>
+    <hyperlink ref="Q33" r:id="rId224" xr:uid="{C6E346E0-6892-480E-ADF9-810A85D61D92}"/>
+    <hyperlink ref="H34" r:id="rId225" xr:uid="{7A551CD4-5B51-4A4C-B20D-0C35A81035C0}"/>
+    <hyperlink ref="J34" r:id="rId226" xr:uid="{C70522DD-DB5C-4181-8074-F89F9792DC2C}"/>
+    <hyperlink ref="K34" r:id="rId227" xr:uid="{89C7D520-94F2-4474-A1D4-5653C3341AAB}"/>
+    <hyperlink ref="N34" r:id="rId228" xr:uid="{20DFC69B-CED7-443D-9B52-91A2E27DB9F9}"/>
+    <hyperlink ref="O34" r:id="rId229" xr:uid="{059604D9-10F8-4411-A83D-250FF60D610D}"/>
+    <hyperlink ref="P34" r:id="rId230" xr:uid="{13534934-7D7D-45A8-9D0E-BA776566FD69}"/>
+    <hyperlink ref="Q34" r:id="rId231" xr:uid="{EAE0BFDF-78E3-413A-94E0-B8BE8F93C112}"/>
+    <hyperlink ref="H35" r:id="rId232" xr:uid="{BFE6A393-2667-4E4E-943D-6D0DE6BD24A2}"/>
+    <hyperlink ref="J35" r:id="rId233" xr:uid="{A894FB2F-185B-462D-8D9A-EA8E3BDA0568}"/>
+    <hyperlink ref="K35" r:id="rId234" xr:uid="{BD45D35F-8BAB-4B80-B1C3-B8184165DB74}"/>
+    <hyperlink ref="N35" r:id="rId235" xr:uid="{FAC6E8FE-BC2D-4233-99D9-130D6BCA2D10}"/>
+    <hyperlink ref="O35" r:id="rId236" xr:uid="{6158191E-FAE6-4721-BE82-A85597A7702E}"/>
+    <hyperlink ref="P35" r:id="rId237" xr:uid="{E9A97910-69D3-4AB5-808B-E33383C85D55}"/>
+    <hyperlink ref="Q35" r:id="rId238" xr:uid="{F0EDAF42-02E6-4CB3-8377-E12B7761A2F4}"/>
+    <hyperlink ref="H36" r:id="rId239" xr:uid="{F91A8F93-C156-44B1-A0B9-A8F613D8A047}"/>
+    <hyperlink ref="J36" r:id="rId240" xr:uid="{7C407643-DBCA-4E18-B209-A7077EB78864}"/>
+    <hyperlink ref="K36" r:id="rId241" xr:uid="{499B3262-1452-4336-9B54-18A66BE464FF}"/>
+    <hyperlink ref="N36" r:id="rId242" xr:uid="{6D6FB5E5-2894-4E8B-8DF9-3BC1752C28A9}"/>
+    <hyperlink ref="O36" r:id="rId243" xr:uid="{D57BC523-2439-4D21-8AE6-461CC8EBD800}"/>
+    <hyperlink ref="P36" r:id="rId244" xr:uid="{50CC6FB2-120A-4058-B289-CF370DDF58E0}"/>
+    <hyperlink ref="Q36" r:id="rId245" xr:uid="{7D84DE7B-750C-4E5B-97FA-E27FF7569F1C}"/>
+    <hyperlink ref="H37" r:id="rId246" xr:uid="{BBDD1EF8-569C-48B8-A8D2-3C1C30AABEEA}"/>
+    <hyperlink ref="J37" r:id="rId247" xr:uid="{D46AADFC-D7D2-4285-BD3E-1D00980B7FEB}"/>
+    <hyperlink ref="K37" r:id="rId248" xr:uid="{0171526E-3ABC-45F6-A0E9-DA80678026BD}"/>
+    <hyperlink ref="N37" r:id="rId249" xr:uid="{47D7EE4D-B82A-4917-84EB-D0B0F6E22560}"/>
+    <hyperlink ref="O37" r:id="rId250" xr:uid="{798A793B-EEC3-4126-93A4-455E8927E941}"/>
+    <hyperlink ref="P37" r:id="rId251" xr:uid="{4022A0CD-6447-47F8-ABAE-8481F65FD1DA}"/>
+    <hyperlink ref="Q37" r:id="rId252" xr:uid="{12D75D3F-EA55-49BD-BB1E-FB4F51F90E4B}"/>
+    <hyperlink ref="H38" r:id="rId253" xr:uid="{94829835-C01E-4FF4-B908-6CC8E439A34E}"/>
+    <hyperlink ref="J38" r:id="rId254" xr:uid="{A4769003-28A5-421E-A448-D3CC83BF6282}"/>
+    <hyperlink ref="K38" r:id="rId255" xr:uid="{96A2ED96-1786-4DFA-A807-9C7A9F5F2D63}"/>
+    <hyperlink ref="N38" r:id="rId256" xr:uid="{8DA4F4B0-358A-4854-9E69-50E09761A6EE}"/>
+    <hyperlink ref="O38" r:id="rId257" xr:uid="{2D3F70EF-5EFE-4B76-B1F4-133FC65E05DD}"/>
+    <hyperlink ref="P38" r:id="rId258" xr:uid="{78A43A33-5FA9-4462-AA33-49D0DD7009E6}"/>
+    <hyperlink ref="Q38" r:id="rId259" xr:uid="{256A893A-3D69-4659-B536-DE1E383120DE}"/>
+    <hyperlink ref="H39" r:id="rId260" xr:uid="{497C8284-CA06-4A09-869B-E149BC46D9BF}"/>
+    <hyperlink ref="J39" r:id="rId261" xr:uid="{717F09C8-7EEC-431B-94A8-15AEB6CF3625}"/>
+    <hyperlink ref="K39" r:id="rId262" xr:uid="{6DCC5DE1-0C99-4E39-8140-B8F64C9913B9}"/>
+    <hyperlink ref="N39" r:id="rId263" xr:uid="{51B7A2E5-478F-45B2-9615-5FEE15A07AA6}"/>
+    <hyperlink ref="O39" r:id="rId264" xr:uid="{B5306EA8-EAEE-454A-886D-638674ECF5A7}"/>
+    <hyperlink ref="P39" r:id="rId265" xr:uid="{D483F725-70CE-4E95-AE70-B83962ACF5BF}"/>
+    <hyperlink ref="Q39" r:id="rId266" xr:uid="{37C8402A-473A-4107-B532-513DE975CCC3}"/>
+    <hyperlink ref="H40" r:id="rId267" xr:uid="{549ADAFE-F8BA-487E-998C-7523AB22CEFA}"/>
+    <hyperlink ref="J40" r:id="rId268" xr:uid="{616A967D-D5F3-4F8F-8552-CC98B713EB60}"/>
+    <hyperlink ref="K40" r:id="rId269" xr:uid="{E279BBCC-0506-4B5B-869E-B0086E7D1CA3}"/>
+    <hyperlink ref="N40" r:id="rId270" xr:uid="{694D226D-3EE4-4951-B231-305DBACFFED9}"/>
+    <hyperlink ref="O40" r:id="rId271" xr:uid="{1891A65E-741F-428C-AF83-E2F9306C8FAF}"/>
+    <hyperlink ref="P40" r:id="rId272" xr:uid="{6D091ACA-A337-4BD0-94F5-27CC256D01B8}"/>
+    <hyperlink ref="Q40" r:id="rId273" xr:uid="{B7C9BBE4-6084-4023-8CA8-2798863753B9}"/>
+    <hyperlink ref="H41" r:id="rId274" xr:uid="{1A6AA130-6856-4FDC-A74D-F1FF9DD44C06}"/>
+    <hyperlink ref="J41" r:id="rId275" xr:uid="{0947B3AA-4D78-4F45-B1CC-884EDB0C9818}"/>
+    <hyperlink ref="K41" r:id="rId276" xr:uid="{A2925195-78D9-4ECE-A839-B9F85F8ECEF2}"/>
+    <hyperlink ref="N41" r:id="rId277" xr:uid="{DF138CFA-939E-4109-AD45-14A7564524FF}"/>
+    <hyperlink ref="O41" r:id="rId278" xr:uid="{F1FDC5CA-C289-4ABF-B322-ABB6234F4A06}"/>
+    <hyperlink ref="P41" r:id="rId279" xr:uid="{7A00EAAD-2EAE-4666-B75B-67EF6E18BC22}"/>
+    <hyperlink ref="Q41" r:id="rId280" xr:uid="{95111602-E1B1-481D-90F9-93239C26DACE}"/>
+    <hyperlink ref="H42" r:id="rId281" xr:uid="{824EE897-7DFA-4987-BE24-C22C41791403}"/>
+    <hyperlink ref="J42" r:id="rId282" xr:uid="{20FB946F-4021-408F-845D-C01A7930D798}"/>
+    <hyperlink ref="K42" r:id="rId283" xr:uid="{31577442-D965-4CD6-8942-0E3FDB263273}"/>
+    <hyperlink ref="N42" r:id="rId284" xr:uid="{F2D0BF33-4830-4D79-BE4C-8354A02851D7}"/>
+    <hyperlink ref="O42" r:id="rId285" xr:uid="{00A5C997-97D0-4AA2-9C0C-42B86C6C81C8}"/>
+    <hyperlink ref="P42" r:id="rId286" xr:uid="{5F7B51DB-B85B-4448-A22B-558CA6FF6679}"/>
+    <hyperlink ref="Q42" r:id="rId287" xr:uid="{04ED3D10-5297-4162-B0F2-434C8A48312D}"/>
+    <hyperlink ref="H43" r:id="rId288" xr:uid="{B52F8B9E-6EEA-4ACB-9D36-7F11B88D972F}"/>
+    <hyperlink ref="J43" r:id="rId289" xr:uid="{B6A66875-D4A8-40B0-ADFD-9F985999BBA4}"/>
+    <hyperlink ref="K43" r:id="rId290" xr:uid="{5C739E8C-694E-467C-A224-8E84841DF169}"/>
+    <hyperlink ref="N43" r:id="rId291" xr:uid="{6A7253BC-7563-46DB-9689-796CFDBAAF93}"/>
+    <hyperlink ref="O43" r:id="rId292" xr:uid="{4341D241-2641-4694-AB14-49B3544FEA65}"/>
+    <hyperlink ref="P43" r:id="rId293" xr:uid="{5511591C-11BF-4322-98D9-214A15BBAD35}"/>
+    <hyperlink ref="Q43" r:id="rId294" xr:uid="{C67936B0-A75B-458E-8046-4AE21A2B934C}"/>
+    <hyperlink ref="H44" r:id="rId295" xr:uid="{5CFF784C-2993-4257-9FBE-5312D8C272CD}"/>
+    <hyperlink ref="J44" r:id="rId296" xr:uid="{E2BA6EA2-5920-41F4-9BB3-841B07342E42}"/>
+    <hyperlink ref="K44" r:id="rId297" xr:uid="{8EFAB9F4-9F68-48B9-B48E-D80284F1BA52}"/>
+    <hyperlink ref="N44" r:id="rId298" xr:uid="{B0E4A919-C306-46AB-B829-97437D7407FE}"/>
+    <hyperlink ref="O44" r:id="rId299" xr:uid="{88D42C55-6C5A-450F-8199-D6DEC2728BE2}"/>
+    <hyperlink ref="P44" r:id="rId300" xr:uid="{1C8049EC-0EAB-4265-B4B8-1DCA7F1CB7E5}"/>
+    <hyperlink ref="Q44" r:id="rId301" xr:uid="{82623EEC-3B7B-4EBD-B1B9-4054CBD61AE4}"/>
+    <hyperlink ref="H45" r:id="rId302" xr:uid="{AB846A23-F39E-402F-A515-8AC8D2D047BC}"/>
+    <hyperlink ref="J45" r:id="rId303" xr:uid="{124E7EFB-37BB-4FB3-9C4D-D472A1CC31A8}"/>
+    <hyperlink ref="K45" r:id="rId304" xr:uid="{47761D38-4ECE-483B-9561-59655D6AB149}"/>
+    <hyperlink ref="N45" r:id="rId305" xr:uid="{E7159E83-4D52-4B90-A7B6-3152BC8BA236}"/>
+    <hyperlink ref="O45" r:id="rId306" xr:uid="{3A0973F7-CC57-4CA4-9F99-31B483780DDA}"/>
+    <hyperlink ref="P45" r:id="rId307" xr:uid="{BDF604BA-7975-4D16-8EF1-75C101F415C6}"/>
+    <hyperlink ref="Q45" r:id="rId308" xr:uid="{837EC216-94AA-4F38-B84F-0404BF6FCC0A}"/>
+    <hyperlink ref="H46" r:id="rId309" xr:uid="{2AFA931C-980B-4492-89A4-EBA407886A10}"/>
+    <hyperlink ref="J46" r:id="rId310" xr:uid="{5C6808B1-C431-4D87-9B78-8F2D05DF74FA}"/>
+    <hyperlink ref="K46" r:id="rId311" xr:uid="{4035FA02-3FF6-4714-97B0-3DA64BC6F959}"/>
+    <hyperlink ref="N46" r:id="rId312" xr:uid="{58DBACA9-1BCA-45AE-AA7F-6E7048F9EF79}"/>
+    <hyperlink ref="O46" r:id="rId313" xr:uid="{BCF846FE-9023-48AB-84AC-6C003DEE4D92}"/>
+    <hyperlink ref="P46" r:id="rId314" xr:uid="{6CCEC985-D1F5-4742-AA61-5A542331D55C}"/>
+    <hyperlink ref="Q46" r:id="rId315" xr:uid="{AA29FED9-08B9-4291-885F-36E51FF8C2B0}"/>
+    <hyperlink ref="H47" r:id="rId316" xr:uid="{58329F87-AFBB-4892-AB91-1F55206F57FF}"/>
+    <hyperlink ref="J47" r:id="rId317" xr:uid="{8BD8413A-49AD-44C3-B497-0FED9D40D505}"/>
+    <hyperlink ref="K47" r:id="rId318" xr:uid="{3A5619BC-6D53-4C91-8F08-29786B0328CE}"/>
+    <hyperlink ref="N47" r:id="rId319" xr:uid="{5AC55C34-B441-4C73-8230-065BAFD7962B}"/>
+    <hyperlink ref="O47" r:id="rId320" xr:uid="{1DC7C912-44F8-4671-AD0A-BCFFE41AFBC7}"/>
+    <hyperlink ref="P47" r:id="rId321" xr:uid="{E371B164-3FB9-4F71-98AE-A2FCFCAA5EB8}"/>
+    <hyperlink ref="Q47" r:id="rId322" xr:uid="{B3EAD291-63AC-468A-AA02-32D7BAC966D8}"/>
+    <hyperlink ref="H48" r:id="rId323" xr:uid="{5833C552-5F11-4BB2-876F-5CEC055C12C1}"/>
+    <hyperlink ref="J48" r:id="rId324" xr:uid="{A4C236D5-DE07-4887-9028-1481D30C25A1}"/>
+    <hyperlink ref="K48" r:id="rId325" xr:uid="{E0B89702-E0E9-450D-B4DB-FD7019952F48}"/>
+    <hyperlink ref="N48" r:id="rId326" xr:uid="{B537E0F6-E821-497F-957F-D07DCF6AF836}"/>
+    <hyperlink ref="O48" r:id="rId327" xr:uid="{A46B6A80-FE5D-44B5-8C2A-6C091ABEA4EB}"/>
+    <hyperlink ref="P48" r:id="rId328" xr:uid="{A4D81FDE-CED8-45A8-9DFA-5B7C6C24BEBE}"/>
+    <hyperlink ref="Q48" r:id="rId329" xr:uid="{05A0754B-DF13-42D2-9135-FCA9F3022845}"/>
+    <hyperlink ref="H49" r:id="rId330" xr:uid="{EB4C9BF5-61E5-4BE6-8E80-EEF56D8F9A2F}"/>
+    <hyperlink ref="J49" r:id="rId331" xr:uid="{E3FEF6BF-A934-4B27-9989-52FF1212A62E}"/>
+    <hyperlink ref="K49" r:id="rId332" xr:uid="{69671370-3E90-4F0C-9752-3F4B61355CE3}"/>
+    <hyperlink ref="N49" r:id="rId333" xr:uid="{3E78F300-4733-4F26-BC28-A24FB0122952}"/>
+    <hyperlink ref="O49" r:id="rId334" xr:uid="{A44ED2FD-4962-4897-9F0D-576D1985E3F1}"/>
+    <hyperlink ref="P49" r:id="rId335" xr:uid="{96D17D2C-6610-4C8D-9CB8-0B5B14B479EE}"/>
+    <hyperlink ref="Q49" r:id="rId336" xr:uid="{723E5E6D-B273-4FD0-BE08-F891FD185D10}"/>
+    <hyperlink ref="H50" r:id="rId337" xr:uid="{EA28BBDD-694B-4D78-B8DB-5C6AD9BE1BA7}"/>
+    <hyperlink ref="J50" r:id="rId338" xr:uid="{E8F88419-9813-4CDA-AC5B-78CF8B0CAEEF}"/>
+    <hyperlink ref="K50" r:id="rId339" xr:uid="{1B06BB64-ECAA-4745-A2C2-171EDB2459DA}"/>
+    <hyperlink ref="N50" r:id="rId340" xr:uid="{F51B00CD-86A1-4DD7-9ECD-3EB54B43DFF9}"/>
+    <hyperlink ref="O50" r:id="rId341" xr:uid="{E8BA712A-72B9-4205-A290-C31D5FA39F63}"/>
+    <hyperlink ref="P50" r:id="rId342" xr:uid="{B8F97C30-7707-4CCF-9CCC-4BC51680289A}"/>
+    <hyperlink ref="Q50" r:id="rId343" xr:uid="{AA48F820-E4F8-44D3-A77E-257F3ED611AC}"/>
+    <hyperlink ref="H51" r:id="rId344" xr:uid="{1C5820AC-E979-4773-8E34-789B54211848}"/>
+    <hyperlink ref="J51" r:id="rId345" xr:uid="{77690400-12BE-4102-B0BE-81031DAB2F07}"/>
+    <hyperlink ref="K51" r:id="rId346" xr:uid="{41D39D22-D54C-4088-AC0A-2882CCB42FB5}"/>
+    <hyperlink ref="N51" r:id="rId347" xr:uid="{89A6D693-FB6A-45B3-8F46-9C586AD36397}"/>
+    <hyperlink ref="O51" r:id="rId348" xr:uid="{C67E1DF0-66C2-42DC-A0F9-EDF77F4F9190}"/>
+    <hyperlink ref="P51" r:id="rId349" xr:uid="{2773C4ED-11E2-4F61-AD6A-6C014C2C6427}"/>
+    <hyperlink ref="Q51" r:id="rId350" xr:uid="{4E220FBF-3635-43F7-B008-50DE20845F7D}"/>
+    <hyperlink ref="H52" r:id="rId351" xr:uid="{27675723-0C8D-4FDA-993B-3AE88C6DABCE}"/>
+    <hyperlink ref="J52" r:id="rId352" xr:uid="{C26E409A-55B0-4C2D-8E0A-264D05F97E2D}"/>
+    <hyperlink ref="K52" r:id="rId353" xr:uid="{686D70EF-2736-44A1-B808-06EC9F8441F8}"/>
+    <hyperlink ref="N52" r:id="rId354" xr:uid="{E9FC2E65-1002-405D-96A6-C1248FD1979C}"/>
+    <hyperlink ref="O52" r:id="rId355" xr:uid="{D3B6FCFB-F95F-4016-8569-831B46623727}"/>
+    <hyperlink ref="P52" r:id="rId356" xr:uid="{FE799309-2435-484C-9329-77D006CD7D54}"/>
+    <hyperlink ref="Q52" r:id="rId357" xr:uid="{F49A4E9C-C641-429B-9B42-90E919A9BC63}"/>
+    <hyperlink ref="H53" r:id="rId358" xr:uid="{CDAB9E7C-FAA4-46DF-92D7-FB47A5328A77}"/>
+    <hyperlink ref="J53" r:id="rId359" xr:uid="{27D3F24D-D033-4EFF-8DD1-A4DD0E50C32F}"/>
+    <hyperlink ref="K53" r:id="rId360" xr:uid="{F8988854-C793-4AF7-AD4D-BAC2AFD78EF4}"/>
+    <hyperlink ref="N53" r:id="rId361" xr:uid="{7E5215FA-BCE5-4868-8B0D-0C115E76558B}"/>
+    <hyperlink ref="O53" r:id="rId362" xr:uid="{31C16907-9EBA-4A39-BBD5-7D79C93A4ECB}"/>
+    <hyperlink ref="P53" r:id="rId363" xr:uid="{7C726D35-D3C8-4DC5-BE93-D51494318033}"/>
+    <hyperlink ref="Q53" r:id="rId364" xr:uid="{F0A29808-83A5-44C5-92DA-26B0C1DB367B}"/>
+    <hyperlink ref="H54" r:id="rId365" xr:uid="{0BBACFB6-BBEB-4D11-A7CF-FB580639569D}"/>
+    <hyperlink ref="J54" r:id="rId366" xr:uid="{10C74CAF-0059-4F23-ACAB-A3EFB43CEB88}"/>
+    <hyperlink ref="K54" r:id="rId367" xr:uid="{BDE9D171-EC2E-4D75-92AE-70C1A88463AE}"/>
+    <hyperlink ref="N54" r:id="rId368" xr:uid="{A1205AE1-651D-4A3B-AE2F-E422E08C1AD7}"/>
+    <hyperlink ref="O54" r:id="rId369" xr:uid="{A254B020-0E7E-436A-86E9-1855A901DFF8}"/>
+    <hyperlink ref="P54" r:id="rId370" xr:uid="{FFC40C98-6B30-4A2C-94DF-8AECD46415F5}"/>
+    <hyperlink ref="Q54" r:id="rId371" xr:uid="{234A5BDC-93D3-4001-9FDC-A827807658FC}"/>
+    <hyperlink ref="H55" r:id="rId372" xr:uid="{1FC18E82-2208-4FC1-AD46-55DC912F5535}"/>
+    <hyperlink ref="J55" r:id="rId373" xr:uid="{347980D2-F705-412E-81F8-67A752EE6900}"/>
+    <hyperlink ref="K55" r:id="rId374" xr:uid="{B0FA789B-3F30-48D9-9BE9-02FCE41048D8}"/>
+    <hyperlink ref="N55" r:id="rId375" xr:uid="{63DF247D-56D7-4B4B-8A4F-980AEE3DFE9C}"/>
+    <hyperlink ref="O55" r:id="rId376" xr:uid="{CF91FAAA-38EE-4E9E-A88C-242374DA91D0}"/>
+    <hyperlink ref="P55" r:id="rId377" xr:uid="{354E04B6-238B-4397-BACB-D9181C24A373}"/>
+    <hyperlink ref="Q55" r:id="rId378" xr:uid="{C9C10CB3-5187-4120-8235-10C033A56162}"/>
+    <hyperlink ref="H56" r:id="rId379" xr:uid="{821ACFC0-C55E-4ECD-8C5E-72CE4F5FA078}"/>
+    <hyperlink ref="J56" r:id="rId380" xr:uid="{65ED512A-EED2-4EC8-B8D9-D45647395F7A}"/>
+    <hyperlink ref="K56" r:id="rId381" xr:uid="{B8E15508-37CE-440C-8E44-DBA3E8100E3A}"/>
+    <hyperlink ref="N56" r:id="rId382" xr:uid="{F7B051ED-8B97-496A-B81A-4EC7C96F6386}"/>
+    <hyperlink ref="O56" r:id="rId383" xr:uid="{FCE75152-9F89-4E3B-B9E3-3106A4EB5DE4}"/>
+    <hyperlink ref="P56" r:id="rId384" xr:uid="{1528F2EC-E8DC-40EC-A7F7-53821F74EBB4}"/>
+    <hyperlink ref="Q56" r:id="rId385" xr:uid="{C9678906-10DC-4FC8-A85D-A1B9D859E707}"/>
+    <hyperlink ref="H57" r:id="rId386" xr:uid="{CDEAED5E-E388-4993-9527-CB8BE8649AF2}"/>
+    <hyperlink ref="J57" r:id="rId387" xr:uid="{82DECA9A-2081-472E-B5EC-5A7B7BC3489F}"/>
+    <hyperlink ref="K57" r:id="rId388" xr:uid="{43B26252-717D-430E-9769-EB9613784B83}"/>
+    <hyperlink ref="N57" r:id="rId389" xr:uid="{D06767F1-C8D8-4FA6-8BF5-B5517992C2BE}"/>
+    <hyperlink ref="O57" r:id="rId390" xr:uid="{9C8697F0-555D-435F-935E-483BA8DD4AD5}"/>
+    <hyperlink ref="P57" r:id="rId391" xr:uid="{418566E9-CEDD-478B-92CA-C4B9FFED3CB6}"/>
+    <hyperlink ref="Q57" r:id="rId392" xr:uid="{5C2480EF-67AD-4FEE-98B7-4B7E403E5319}"/>
+    <hyperlink ref="H58" r:id="rId393" xr:uid="{91C16101-0F6E-4E36-A143-95A13F03D0E7}"/>
+    <hyperlink ref="J58" r:id="rId394" xr:uid="{E59AFD2D-0D26-40C9-A113-45A2EDE5FED0}"/>
+    <hyperlink ref="K58" r:id="rId395" xr:uid="{FC8DBFD2-270F-4B09-BA16-4E1B33D668F8}"/>
+    <hyperlink ref="N58" r:id="rId396" xr:uid="{3537AC3A-9869-43AC-8821-41E89A5353CB}"/>
+    <hyperlink ref="O58" r:id="rId397" xr:uid="{99069C10-7837-4106-9919-4C59232717B7}"/>
+    <hyperlink ref="P58" r:id="rId398" xr:uid="{2D1DEA93-D18F-4EF7-A002-5DC5FFB09A1B}"/>
+    <hyperlink ref="Q58" r:id="rId399" xr:uid="{9531F8DB-5C3A-40AC-946B-2123C5461366}"/>
+    <hyperlink ref="H59" r:id="rId400" xr:uid="{5876EDBA-2E99-4D6F-8CED-58FB2577E2AB}"/>
+    <hyperlink ref="J59" r:id="rId401" xr:uid="{79526376-EDC7-4BFE-A191-40A64E205091}"/>
+    <hyperlink ref="K59" r:id="rId402" xr:uid="{F1017F72-6C79-4139-BDEF-98F6B169F7E4}"/>
+    <hyperlink ref="N59" r:id="rId403" xr:uid="{2662601C-A777-4FF3-A1DE-14DD83542994}"/>
+    <hyperlink ref="O59" r:id="rId404" xr:uid="{B341A04C-D282-4A04-8F43-DBE7107A4EE2}"/>
+    <hyperlink ref="P59" r:id="rId405" xr:uid="{F670964B-D4B2-4723-92BF-C559A9B87F02}"/>
+    <hyperlink ref="Q59" r:id="rId406" xr:uid="{4C99E0F2-FD30-4295-A1D0-2CCC9FF91315}"/>
+    <hyperlink ref="H60" r:id="rId407" xr:uid="{C80A690B-5DB7-47CB-9F72-2EF5A182BE28}"/>
+    <hyperlink ref="J60" r:id="rId408" xr:uid="{3ACC1959-54E7-4975-BDA3-DC4125B0126E}"/>
+    <hyperlink ref="K60" r:id="rId409" xr:uid="{CA57F073-D1E0-494B-B9EF-05A8E75F483D}"/>
+    <hyperlink ref="N60" r:id="rId410" xr:uid="{D162E945-168B-4B36-A305-788731CE0587}"/>
+    <hyperlink ref="O60" r:id="rId411" xr:uid="{B8BE7F88-FD79-4A9F-82F8-8D2EB69DDC59}"/>
+    <hyperlink ref="P60" r:id="rId412" xr:uid="{D9D03BDF-397C-45AC-8BE4-E11F3D49D17D}"/>
+    <hyperlink ref="Q60" r:id="rId413" xr:uid="{690BF8DF-A593-4E08-92D2-4EE1D4383BDF}"/>
+    <hyperlink ref="H61" r:id="rId414" xr:uid="{FEC0B316-CEED-4E99-BAF8-18413F14684F}"/>
+    <hyperlink ref="J61" r:id="rId415" xr:uid="{B2E75716-AC91-4679-99E6-269E3C8F9D49}"/>
+    <hyperlink ref="K61" r:id="rId416" xr:uid="{EF854C2D-7AB1-492D-8C4E-608EA81A4BCA}"/>
+    <hyperlink ref="N61" r:id="rId417" xr:uid="{DBD0B999-06EF-4CFA-A662-1EF5AAC4FBFF}"/>
+    <hyperlink ref="O61" r:id="rId418" xr:uid="{17A04392-3D96-4FA0-9D46-B1B098BD0757}"/>
+    <hyperlink ref="P61" r:id="rId419" xr:uid="{FC2C7816-47E7-4CA8-8A70-03BDD4EA46EE}"/>
+    <hyperlink ref="Q61" r:id="rId420" xr:uid="{267BE6E5-7E5C-4E70-945D-01BEA44CB612}"/>
+    <hyperlink ref="H62" r:id="rId421" xr:uid="{1B930F84-B839-4EC3-AE57-4D1DE95BDB38}"/>
+    <hyperlink ref="J62" r:id="rId422" xr:uid="{E50A6469-819B-45CC-B948-0E24789A50A1}"/>
+    <hyperlink ref="K62" r:id="rId423" xr:uid="{A8C99CB8-16B5-46AA-BEC1-B65301C1B13B}"/>
+    <hyperlink ref="N62" r:id="rId424" xr:uid="{9935C8C7-8D6F-4147-8A8E-9CC07FA98938}"/>
+    <hyperlink ref="O62" r:id="rId425" xr:uid="{83384272-CE08-447B-973B-C5ECC4B388C5}"/>
+    <hyperlink ref="P62" r:id="rId426" xr:uid="{FEA5AEB9-2B2C-4C7A-852B-A18B81B8BCE4}"/>
+    <hyperlink ref="Q62" r:id="rId427" xr:uid="{C287B3BC-71D3-4E4A-B303-ECE6A6F97B2D}"/>
+    <hyperlink ref="H63" r:id="rId428" xr:uid="{66928D19-AB8C-40FC-9EAE-BF0786A91971}"/>
+    <hyperlink ref="J63" r:id="rId429" xr:uid="{4FA5A33E-586A-4BDA-A076-5B3313B39C5A}"/>
+    <hyperlink ref="K63" r:id="rId430" xr:uid="{97BB30CC-BF9B-4C3F-B00A-26BBB633A396}"/>
+    <hyperlink ref="N63" r:id="rId431" xr:uid="{3990591E-840D-495D-AD1A-9F473A87A3AE}"/>
+    <hyperlink ref="O63" r:id="rId432" xr:uid="{8B068C7D-2099-4B19-B251-C16814222CA9}"/>
+    <hyperlink ref="P63" r:id="rId433" xr:uid="{DC35F670-F1AC-4508-B549-5F8A639FD7E3}"/>
+    <hyperlink ref="Q63" r:id="rId434" xr:uid="{FC11CE18-54BE-49D2-AACE-DA8AF3DCB801}"/>
+    <hyperlink ref="H64" r:id="rId435" xr:uid="{1F327909-4C55-4612-A17D-6F4ABA10CA4D}"/>
+    <hyperlink ref="J64" r:id="rId436" xr:uid="{8314C5E8-3E2B-4094-88D1-BADC333881C5}"/>
+    <hyperlink ref="K64" r:id="rId437" xr:uid="{633DB1A2-0A38-406E-8BB4-A1D71209277C}"/>
+    <hyperlink ref="N64" r:id="rId438" xr:uid="{55775BA9-6DEA-4640-AC01-0186F936F4B7}"/>
+    <hyperlink ref="O64" r:id="rId439" xr:uid="{5CE1E3E5-4581-4613-A081-260982D5C3D1}"/>
+    <hyperlink ref="P64" r:id="rId440" xr:uid="{14E78715-88FC-4186-8B5C-3C8E24D1D876}"/>
+    <hyperlink ref="Q64" r:id="rId441" xr:uid="{646E1740-0E22-4586-93CE-7D52681B5561}"/>
+    <hyperlink ref="H65" r:id="rId442" xr:uid="{CF3B0F73-BC06-4EBA-BD4A-FEEDF9CAB865}"/>
+    <hyperlink ref="J65" r:id="rId443" xr:uid="{C3E3D8B1-CBEF-4918-99B4-F3B61364506C}"/>
+    <hyperlink ref="K65" r:id="rId444" xr:uid="{2A4C47AA-8045-42F7-A2A5-F6F01607D25E}"/>
+    <hyperlink ref="N65" r:id="rId445" xr:uid="{C87829C7-9DD4-4789-9791-52701F9AD5A4}"/>
+    <hyperlink ref="O65" r:id="rId446" xr:uid="{90628199-0CEE-412B-BD11-B4EB0361992D}"/>
+    <hyperlink ref="P65" r:id="rId447" xr:uid="{1E698276-9061-4543-87F5-4E5C6035D5A1}"/>
+    <hyperlink ref="Q65" r:id="rId448" xr:uid="{211D6F5A-BC18-4B27-9341-BF04946E7574}"/>
+    <hyperlink ref="H66" r:id="rId449" xr:uid="{145CC79B-7678-4683-BF20-D782D6046677}"/>
+    <hyperlink ref="J66" r:id="rId450" xr:uid="{CC4A294D-D55D-421A-ABD6-4BFD8072EF0D}"/>
+    <hyperlink ref="K66" r:id="rId451" xr:uid="{EE7A2B14-46A2-433F-B76A-10861655CD6E}"/>
+    <hyperlink ref="N66" r:id="rId452" xr:uid="{A9BD341A-CEDF-47DD-AA66-0BB3FA3B7952}"/>
+    <hyperlink ref="O66" r:id="rId453" xr:uid="{984CD8C7-70B8-43E1-8C77-6AF356411870}"/>
+    <hyperlink ref="P66" r:id="rId454" xr:uid="{54450797-A280-43E6-B387-51028B34DF31}"/>
+    <hyperlink ref="Q66" r:id="rId455" xr:uid="{A5487B78-1348-46E9-9AEF-6A349CA7FF1E}"/>
+    <hyperlink ref="H67" r:id="rId456" xr:uid="{A98C9C2B-DE42-41A9-AADE-309DFC183467}"/>
+    <hyperlink ref="J67" r:id="rId457" xr:uid="{9BD9E096-ECC5-4459-AB56-EC204EDAB4A6}"/>
+    <hyperlink ref="K67" r:id="rId458" xr:uid="{153A167B-6794-4E1E-89A1-990B94985F5F}"/>
+    <hyperlink ref="N67" r:id="rId459" xr:uid="{B056FF5F-B452-4464-B8E4-15ABB9DCAB7E}"/>
+    <hyperlink ref="O67" r:id="rId460" xr:uid="{21D93FAF-ED4E-4611-AAC7-2FF40A7DB23C}"/>
+    <hyperlink ref="P67" r:id="rId461" xr:uid="{79ED46E0-336F-45FB-9D8D-D4779CB1CF3F}"/>
+    <hyperlink ref="Q67" r:id="rId462" xr:uid="{6488C6B0-04BE-40FD-8642-ABED2368ACD4}"/>
+    <hyperlink ref="H68" r:id="rId463" xr:uid="{4B687B3A-ACF2-4FB4-8FA5-E0CC28EC0243}"/>
+    <hyperlink ref="J68" r:id="rId464" xr:uid="{F19F1BA6-7A33-47AA-B1F4-8BD0D3012903}"/>
+    <hyperlink ref="K68" r:id="rId465" xr:uid="{D90DC52A-C7C0-4B1B-A1F0-1F5FFF424F39}"/>
+    <hyperlink ref="N68" r:id="rId466" xr:uid="{CE8B4B11-3235-4AE7-BE90-3356680FA5CE}"/>
+    <hyperlink ref="O68" r:id="rId467" xr:uid="{F549B98A-E3FF-4087-9114-2BA942C5FF60}"/>
+    <hyperlink ref="P68" r:id="rId468" xr:uid="{4F8082F3-F8E2-4927-878E-AE2F716E5B8D}"/>
+    <hyperlink ref="Q68" r:id="rId469" xr:uid="{DD0ABDA9-6F85-4402-99BC-A202C7D08AA5}"/>
+    <hyperlink ref="H69" r:id="rId470" xr:uid="{C4F7D2E3-DB3D-496C-92B0-951DAF9D435C}"/>
+    <hyperlink ref="J69" r:id="rId471" xr:uid="{2756C01C-FBAC-46FD-B12F-C0523989F292}"/>
+    <hyperlink ref="K69" r:id="rId472" xr:uid="{547F5396-B605-4E7E-987F-8235D9030344}"/>
+    <hyperlink ref="N69" r:id="rId473" xr:uid="{3629BB39-9D78-40F9-9B60-2E6D72164677}"/>
+    <hyperlink ref="O69" r:id="rId474" xr:uid="{50AB6AA1-8DFF-4069-A53C-55AAD897A969}"/>
+    <hyperlink ref="P69" r:id="rId475" xr:uid="{80138C40-E001-4540-8774-095CCD09F700}"/>
+    <hyperlink ref="Q69" r:id="rId476" xr:uid="{45BF84EE-497E-4595-8534-0C9F09C904BC}"/>
+    <hyperlink ref="H70" r:id="rId477" xr:uid="{E44FA7D1-C42A-471B-9457-329659D9AAEB}"/>
+    <hyperlink ref="J70" r:id="rId478" xr:uid="{A55B3F32-6A33-4BAC-AE8D-243A663CCFF3}"/>
+    <hyperlink ref="K70" r:id="rId479" xr:uid="{23CB50BC-DDD4-4CE6-A26C-34A5A75653D7}"/>
+    <hyperlink ref="N70" r:id="rId480" xr:uid="{3B59AB68-FB08-4ACE-B56D-39489DD74465}"/>
+    <hyperlink ref="O70" r:id="rId481" xr:uid="{E88D13E5-92E5-4040-8E52-B2142BD69284}"/>
+    <hyperlink ref="P70" r:id="rId482" xr:uid="{9E358FA0-1260-4984-BD7F-0F0727E2944B}"/>
+    <hyperlink ref="Q70" r:id="rId483" xr:uid="{0432AEAA-0FBF-4524-94A4-A5C471D2DCE4}"/>
+    <hyperlink ref="H71" r:id="rId484" xr:uid="{4CBBDBD6-FF4C-4C7C-AD68-E6451613E3DC}"/>
+    <hyperlink ref="J71" r:id="rId485" xr:uid="{0118E51C-7B84-436A-A8EE-E8715CFF5245}"/>
+    <hyperlink ref="K71" r:id="rId486" xr:uid="{2BE4C9F7-BE99-48A1-B479-23034B5A8079}"/>
+    <hyperlink ref="N71" r:id="rId487" xr:uid="{C7A207BA-A564-4726-B167-2F5F9946046F}"/>
+    <hyperlink ref="O71" r:id="rId488" xr:uid="{14D5CA74-E39C-4BE4-B8C2-DD182EBD88AD}"/>
+    <hyperlink ref="P71" r:id="rId489" xr:uid="{09DB9449-E9FB-41F4-B87F-9C2C7D4B2568}"/>
+    <hyperlink ref="Q71" r:id="rId490" xr:uid="{FA4A71B7-D2BF-4429-9B53-E3191B713BB9}"/>
+    <hyperlink ref="H72" r:id="rId491" xr:uid="{FFAB7703-6299-4FA8-BE0D-043BDC9FF8A7}"/>
+    <hyperlink ref="J72" r:id="rId492" xr:uid="{48009BC9-8C9B-4E15-BD15-33C70E8C6C94}"/>
+    <hyperlink ref="K72" r:id="rId493" xr:uid="{0F3B2D70-E69C-4775-BCD3-76D6B16F9849}"/>
+    <hyperlink ref="N72" r:id="rId494" xr:uid="{5F9A4B5A-80DC-449D-9769-D6C819C2D076}"/>
+    <hyperlink ref="O72" r:id="rId495" xr:uid="{654B6B24-9370-42DB-8A37-08FB2C10DC1F}"/>
+    <hyperlink ref="P72" r:id="rId496" xr:uid="{14FE5B87-414F-433E-8868-68CB42A2118F}"/>
+    <hyperlink ref="Q72" r:id="rId497" xr:uid="{ABE398E6-8DD0-4A94-87BA-DEFD76B6825A}"/>
+    <hyperlink ref="H73" r:id="rId498" xr:uid="{12086C75-38D8-44B1-B0DF-5593DC858987}"/>
+    <hyperlink ref="J73" r:id="rId499" xr:uid="{F3C9B6A7-6C9C-44FD-9364-66F95D844E62}"/>
+    <hyperlink ref="K73" r:id="rId500" xr:uid="{B7C4241D-6349-458B-B229-4ACB677C39C6}"/>
+    <hyperlink ref="N73" r:id="rId501" xr:uid="{53F05867-6881-4739-A080-DA970838F23B}"/>
+    <hyperlink ref="O73" r:id="rId502" xr:uid="{82653F75-5FC7-4EF1-9BEA-239F3ECCB9E5}"/>
+    <hyperlink ref="P73" r:id="rId503" xr:uid="{E431E9E2-769E-4C23-A794-96F1FABC29A2}"/>
+    <hyperlink ref="Q73" r:id="rId504" xr:uid="{C4BCF970-9CC3-472B-9513-45A6BD38CDEB}"/>
+    <hyperlink ref="H74" r:id="rId505" xr:uid="{AB2F0A40-F46D-4B37-A06F-B7BA439858AA}"/>
+    <hyperlink ref="J74" r:id="rId506" xr:uid="{5E1679D7-26D1-4E77-AFCB-EBE16BE78F99}"/>
+    <hyperlink ref="K74" r:id="rId507" xr:uid="{2B355F32-EE91-4284-8482-2FBBACA4E7E1}"/>
+    <hyperlink ref="N74" r:id="rId508" xr:uid="{F0305A52-985F-4425-A280-F552BB0BC618}"/>
+    <hyperlink ref="O74" r:id="rId509" xr:uid="{0A822D86-4BAE-4CDC-B345-CE0FCB5BAD78}"/>
+    <hyperlink ref="P74" r:id="rId510" xr:uid="{5E66C7D8-4E86-45ED-9EDC-63F9CCBA1EA2}"/>
+    <hyperlink ref="Q74" r:id="rId511" xr:uid="{2CC2AC1A-58B7-435B-B146-BC6DAD57C1B8}"/>
+    <hyperlink ref="H75" r:id="rId512" xr:uid="{42120E92-A20B-4841-A31F-B49641CC9FE7}"/>
+    <hyperlink ref="J75" r:id="rId513" xr:uid="{4206EEA7-D9EF-48AB-AD1B-3E5BE12304B8}"/>
+    <hyperlink ref="K75" r:id="rId514" xr:uid="{F1F44BCC-A2E0-4A3A-B33A-41579706377B}"/>
+    <hyperlink ref="N75" r:id="rId515" xr:uid="{0FA73279-8124-4FFD-A323-42A5C084FCDE}"/>
+    <hyperlink ref="O75" r:id="rId516" xr:uid="{570E9B21-0A37-4DC7-93F6-1AE982D75901}"/>
+    <hyperlink ref="P75" r:id="rId517" xr:uid="{A39DE592-9FF9-4E2F-AB4E-8CA0659293E5}"/>
+    <hyperlink ref="Q75" r:id="rId518" xr:uid="{C4508DBE-55A8-406E-A78A-FF3741C48D46}"/>
+    <hyperlink ref="H76" r:id="rId519" xr:uid="{A5304817-9811-4BFB-AA9D-B9D3FB36677B}"/>
+    <hyperlink ref="J76" r:id="rId520" xr:uid="{0B09928A-480D-482E-BD03-6B3E18AED4E1}"/>
+    <hyperlink ref="K76" r:id="rId521" xr:uid="{D34B0C3D-DD7E-4ACC-A5A0-74BBEFD098F0}"/>
+    <hyperlink ref="N76" r:id="rId522" xr:uid="{FA1DAB4F-5D99-4A2F-AB21-BA117366EC54}"/>
+    <hyperlink ref="O76" r:id="rId523" xr:uid="{323BDD40-4826-44DF-AD13-435357A56FC2}"/>
+    <hyperlink ref="P76" r:id="rId524" xr:uid="{397EA844-8419-4C64-957F-A1DC75F59F16}"/>
+    <hyperlink ref="Q76" r:id="rId525" xr:uid="{7254EE4C-485D-4658-9561-4C52C30FAEF0}"/>
+    <hyperlink ref="H77" r:id="rId526" xr:uid="{F6B2FB2C-47F5-4218-87ED-E33B3EAC93EE}"/>
+    <hyperlink ref="J77" r:id="rId527" xr:uid="{2F324BCE-377B-41DE-A14C-B7D33E6FB178}"/>
+    <hyperlink ref="K77" r:id="rId528" xr:uid="{63DC0A54-92C1-4F4F-B3E0-8D8D156E16A4}"/>
+    <hyperlink ref="N77" r:id="rId529" xr:uid="{41BC9284-007E-43A5-AEED-08772EDE6F23}"/>
+    <hyperlink ref="O77" r:id="rId530" xr:uid="{704E3315-2CA6-4FC1-AFAB-4EE7D9A7711C}"/>
+    <hyperlink ref="P77" r:id="rId531" xr:uid="{66235B3F-F763-4D91-848B-39878BA13E7B}"/>
+    <hyperlink ref="Q77" r:id="rId532" xr:uid="{41EAB383-DC4F-43D9-A474-BE937FA288FF}"/>
+    <hyperlink ref="H78" r:id="rId533" xr:uid="{FD01C24B-82A7-4DFB-B2CD-EECB68D5D002}"/>
+    <hyperlink ref="J78" r:id="rId534" xr:uid="{492EFC7E-E838-454C-932F-9857E1D99E2D}"/>
+    <hyperlink ref="K78" r:id="rId535" xr:uid="{A96972A5-7CB2-4AAF-ABAE-BCA4BE53213A}"/>
+    <hyperlink ref="N78" r:id="rId536" xr:uid="{03517EB2-B28C-4952-8090-A3A2CAD84A6C}"/>
+    <hyperlink ref="O78" r:id="rId537" xr:uid="{BF6C42A8-31FA-4814-91B3-849376A14A49}"/>
+    <hyperlink ref="P78" r:id="rId538" xr:uid="{0EE1B484-A89F-4E17-8E8F-E5B4AE8C7FB2}"/>
+    <hyperlink ref="Q78" r:id="rId539" xr:uid="{BF9CB583-CF1C-40FF-BEE5-9AA2928C4D2A}"/>
+    <hyperlink ref="H79" r:id="rId540" xr:uid="{06A19A02-B415-4B5E-8163-2C133BA5798E}"/>
+    <hyperlink ref="J79" r:id="rId541" xr:uid="{6E43B038-206D-43A3-8A8E-A3138C7D4CE8}"/>
+    <hyperlink ref="K79" r:id="rId542" xr:uid="{1720B799-C477-4CC4-AF51-79109668CB14}"/>
+    <hyperlink ref="N79" r:id="rId543" xr:uid="{EF14E74A-919D-499B-A03C-2B0DEFE2DF52}"/>
+    <hyperlink ref="O79" r:id="rId544" xr:uid="{24F8E8CA-7669-4A62-9DD7-5F367E7886BC}"/>
+    <hyperlink ref="P79" r:id="rId545" xr:uid="{DF1B3984-B171-4B10-9A0F-248ADC236D13}"/>
+    <hyperlink ref="Q79" r:id="rId546" xr:uid="{65042D51-45F2-488E-9C04-D12CABE51F46}"/>
+    <hyperlink ref="H80" r:id="rId547" xr:uid="{77C79806-BE85-415F-B739-CF7643C466E5}"/>
+    <hyperlink ref="J80" r:id="rId548" xr:uid="{7E9AEFA0-130A-45D4-BA09-B8A1BAE5422F}"/>
+    <hyperlink ref="K80" r:id="rId549" xr:uid="{53F3D2FF-BA1C-4F21-A74D-19B599F0B66E}"/>
+    <hyperlink ref="N80" r:id="rId550" xr:uid="{A2D1B0F0-6DD5-40FA-B421-2580822E7777}"/>
+    <hyperlink ref="O80" r:id="rId551" xr:uid="{DCEEE750-E837-43CD-9FFD-71334AC8A90C}"/>
+    <hyperlink ref="P80" r:id="rId552" xr:uid="{1F14867D-8515-4B0B-86D1-2B6ADA4120DB}"/>
+    <hyperlink ref="Q80" r:id="rId553" xr:uid="{05931CC8-40B1-49BE-973C-39D65C0B9902}"/>
+    <hyperlink ref="H81" r:id="rId554" xr:uid="{A010F613-AEC8-4595-B549-DC0239FC4489}"/>
+    <hyperlink ref="J81" r:id="rId555" xr:uid="{6FAF4D13-8A46-427D-8B82-992F1A7B2F77}"/>
+    <hyperlink ref="K81" r:id="rId556" xr:uid="{BA0B293F-A01F-4F1B-A253-8D32D6CD51CB}"/>
+    <hyperlink ref="N81" r:id="rId557" xr:uid="{8AAD0A3A-B6C9-44CE-8BC0-E21E49998CDC}"/>
+    <hyperlink ref="O81" r:id="rId558" xr:uid="{6153E10B-F62D-4FD2-81DA-2991B164B220}"/>
+    <hyperlink ref="P81" r:id="rId559" xr:uid="{22CB18DB-3980-4480-B9B6-6A6989406CBB}"/>
+    <hyperlink ref="Q81" r:id="rId560" xr:uid="{E2FBC200-E53E-4F09-A80B-59E8F408A123}"/>
+    <hyperlink ref="H82" r:id="rId561" xr:uid="{75C2D36D-A6B8-4E20-9D6A-1F4EFF7CD4E6}"/>
+    <hyperlink ref="J82" r:id="rId562" xr:uid="{2D411671-6D3F-42F9-A757-658B350BAE31}"/>
+    <hyperlink ref="K82" r:id="rId563" xr:uid="{12E8B880-5ECC-43DD-A809-F235DB21EF46}"/>
+    <hyperlink ref="N82" r:id="rId564" xr:uid="{6128899E-DE22-4070-80CA-A04B8BEE286D}"/>
+    <hyperlink ref="O82" r:id="rId565" xr:uid="{AA44D0F3-3345-4D1A-B768-D22B4ADBE77D}"/>
+    <hyperlink ref="P82" r:id="rId566" xr:uid="{D819434C-C005-4DB5-81E2-99A76B8D713C}"/>
+    <hyperlink ref="Q82" r:id="rId567" xr:uid="{3D97CAC5-66EA-4BAB-9A29-C21917D44E15}"/>
+    <hyperlink ref="H83" r:id="rId568" xr:uid="{D22453EB-D397-4398-9083-0CADB437A71F}"/>
+    <hyperlink ref="J83" r:id="rId569" xr:uid="{EE1E76A2-F0A6-459C-9C1A-E77D6F75A068}"/>
+    <hyperlink ref="K83" r:id="rId570" xr:uid="{3464FEE7-352A-47CA-B6C7-9C29C1ADF1E1}"/>
+    <hyperlink ref="N83" r:id="rId571" xr:uid="{77AABBDA-9869-4BEF-8059-6D9EB623C937}"/>
+    <hyperlink ref="O83" r:id="rId572" xr:uid="{8D894E0B-5FA5-48B5-9022-A151A1042B12}"/>
+    <hyperlink ref="P83" r:id="rId573" xr:uid="{B27556D0-5E0A-4C20-BEDB-7F7BCFE78042}"/>
+    <hyperlink ref="Q83" r:id="rId574" xr:uid="{5196F0D3-011B-47E8-93C6-5923DF56F080}"/>
+    <hyperlink ref="H84" r:id="rId575" xr:uid="{E21F5E99-7153-49D1-AD88-8BAFC78FC3E7}"/>
+    <hyperlink ref="J84" r:id="rId576" xr:uid="{9B5251A2-7057-4CF2-B65A-49BBFC1A0BBB}"/>
+    <hyperlink ref="K84" r:id="rId577" xr:uid="{99D6B7FF-D54B-4E38-AA97-A28F0312E179}"/>
+    <hyperlink ref="N84" r:id="rId578" xr:uid="{F18A6F93-7C2C-4665-A571-C0745BC37B70}"/>
+    <hyperlink ref="O84" r:id="rId579" xr:uid="{2F72C294-AFC7-4C32-AC83-F9D536ABF276}"/>
+    <hyperlink ref="P84" r:id="rId580" xr:uid="{DAF0B2CC-01FB-4603-B697-0CA56B5337F4}"/>
+    <hyperlink ref="Q84" r:id="rId581" xr:uid="{7B63E122-21D4-4E1A-82FB-4821BD2D4A72}"/>
+    <hyperlink ref="H85" r:id="rId582" xr:uid="{00AC3384-A049-4F48-B94F-2524B0A69F1C}"/>
+    <hyperlink ref="J85" r:id="rId583" xr:uid="{9388A628-B8D5-4004-803E-B341E6175690}"/>
+    <hyperlink ref="K85" r:id="rId584" xr:uid="{E1BADF8F-FC6A-41EF-8851-E183412B084E}"/>
+    <hyperlink ref="N85" r:id="rId585" xr:uid="{030EF87B-5E3A-4839-B1C1-C6268AE412B2}"/>
+    <hyperlink ref="O85" r:id="rId586" xr:uid="{8C177BEE-39DA-414F-8422-72BD772F3790}"/>
+    <hyperlink ref="P85" r:id="rId587" xr:uid="{4C0F7B5A-7C74-4CFC-98F2-6B238344EE85}"/>
+    <hyperlink ref="Q85" r:id="rId588" xr:uid="{BA825EA0-11EA-449B-B22B-82B86D108975}"/>
+    <hyperlink ref="H86" r:id="rId589" xr:uid="{15557209-CEEB-4F3F-9C66-61B36E4605F3}"/>
+    <hyperlink ref="J86" r:id="rId590" xr:uid="{9A12A1D2-B85A-45E4-A93F-18807ACD5579}"/>
+    <hyperlink ref="K86" r:id="rId591" xr:uid="{DF07D311-3574-44A0-9E56-CE5E83DA1E3F}"/>
+    <hyperlink ref="N86" r:id="rId592" xr:uid="{FF662376-2BA2-48C4-86EA-0DE603A587C9}"/>
+    <hyperlink ref="O86" r:id="rId593" xr:uid="{A3ACC02A-52B2-47B9-9FB9-35965C031A39}"/>
+    <hyperlink ref="P86" r:id="rId594" xr:uid="{50A9BD39-830D-429C-A760-F193E62F9EC2}"/>
+    <hyperlink ref="Q86" r:id="rId595" xr:uid="{10C378C5-A411-4A29-86F9-25941EB784CC}"/>
+    <hyperlink ref="H87" r:id="rId596" xr:uid="{FBAAE097-6CD9-4A4C-AE6C-72089DCDFFD5}"/>
+    <hyperlink ref="J87" r:id="rId597" xr:uid="{3934AC94-CC91-4D66-AD62-2FF187DF5430}"/>
+    <hyperlink ref="K87" r:id="rId598" xr:uid="{44A4C8DD-C267-4EB6-96BF-101DEC914785}"/>
+    <hyperlink ref="N87" r:id="rId599" xr:uid="{9DCFB00B-F77C-4468-9999-60F6B928DBDB}"/>
+    <hyperlink ref="O87" r:id="rId600" xr:uid="{493D0390-7F66-443F-AD4A-946998B5EA0F}"/>
+    <hyperlink ref="P87" r:id="rId601" xr:uid="{F91C3DEC-71D9-439F-BFE9-5BFF916446F7}"/>
+    <hyperlink ref="Q87" r:id="rId602" xr:uid="{D32D168C-5160-4124-AC5E-CB74FD5F3707}"/>
+    <hyperlink ref="H88" r:id="rId603" xr:uid="{5EB663EB-CC51-4C48-A9D3-F221524FC2EC}"/>
+    <hyperlink ref="J88" r:id="rId604" xr:uid="{186340AD-7A4A-463A-A925-7E708B9966C4}"/>
+    <hyperlink ref="K88" r:id="rId605" xr:uid="{C954EB82-83EF-4CC3-A3A3-42651AEA33A2}"/>
+    <hyperlink ref="N88" r:id="rId606" xr:uid="{DDF430D5-9254-4854-8597-44E0D210E8FB}"/>
+    <hyperlink ref="O88" r:id="rId607" xr:uid="{922F6BC5-CC4C-4588-9B78-47530F1D4F4C}"/>
+    <hyperlink ref="P88" r:id="rId608" xr:uid="{895ECACB-1208-49AE-AF66-3DA31B13490E}"/>
+    <hyperlink ref="Q88" r:id="rId609" xr:uid="{EAC33035-815E-4365-9F16-72F96237965C}"/>
+    <hyperlink ref="H89" r:id="rId610" xr:uid="{9552F426-03CA-4FA3-AAF5-CE10DFEF6011}"/>
+    <hyperlink ref="J89" r:id="rId611" xr:uid="{3EA28FDD-A3CC-4B76-A0FA-53B67FEC712B}"/>
+    <hyperlink ref="K89" r:id="rId612" xr:uid="{57978992-87B2-497D-8CA9-7160FF1108D8}"/>
+    <hyperlink ref="N89" r:id="rId613" xr:uid="{2BE2C5D2-F5D9-43B4-BAD6-DA14F6581F4D}"/>
+    <hyperlink ref="O89" r:id="rId614" xr:uid="{942B556E-2451-43D1-AC3F-9DC0BE3A91AA}"/>
+    <hyperlink ref="P89" r:id="rId615" xr:uid="{B5D39BAA-83DD-43AA-AFA1-0BFF5C14DB9C}"/>
+    <hyperlink ref="Q89" r:id="rId616" xr:uid="{7E3BDC8E-9C29-4372-97FC-7E589FAA6E01}"/>
+    <hyperlink ref="H90" r:id="rId617" xr:uid="{2F50F5CD-EA26-4D13-A054-6AD241DC3848}"/>
+    <hyperlink ref="J90" r:id="rId618" xr:uid="{6B3388B0-3358-4C44-98CA-9AB202D5F196}"/>
+    <hyperlink ref="K90" r:id="rId619" xr:uid="{0DF70D40-4AA1-4CAC-AF52-1999A0A06A25}"/>
+    <hyperlink ref="N90" r:id="rId620" xr:uid="{010580F3-B423-4F6B-9AD9-098230DE7F45}"/>
+    <hyperlink ref="O90" r:id="rId621" xr:uid="{B400263E-E483-4F85-9875-1BBC70A21CA9}"/>
+    <hyperlink ref="P90" r:id="rId622" xr:uid="{30527AA7-CBF5-41AD-B260-CBC7BE2D316C}"/>
+    <hyperlink ref="Q90" r:id="rId623" xr:uid="{72C57BB1-E042-4465-BF79-AF7F87CBFBF9}"/>
+    <hyperlink ref="H91" r:id="rId624" xr:uid="{6640EFF9-B3EB-4886-82DC-3A41FE141255}"/>
+    <hyperlink ref="J91" r:id="rId625" xr:uid="{1640090A-9BC2-4F04-9F44-BDB1059B20E7}"/>
+    <hyperlink ref="K91" r:id="rId626" xr:uid="{B9CDCF45-3349-45CD-A784-AEAEDDAB1A4A}"/>
+    <hyperlink ref="N91" r:id="rId627" xr:uid="{02B43E13-1E44-404E-AEA4-63218D4447C4}"/>
+    <hyperlink ref="O91" r:id="rId628" xr:uid="{C0FEEFBD-310B-4020-B6AA-067186B5AC8A}"/>
+    <hyperlink ref="P91" r:id="rId629" xr:uid="{9F35D35D-54F6-4A8C-9FCD-2E2D9EF1B799}"/>
+    <hyperlink ref="Q91" r:id="rId630" xr:uid="{401BCFA3-5875-4913-A6D5-C8B28EA2C744}"/>
+    <hyperlink ref="H92" r:id="rId631" xr:uid="{8C842583-3458-4271-9047-4739326CE44D}"/>
+    <hyperlink ref="J92" r:id="rId632" xr:uid="{C7B85459-7DBB-48AA-AB0D-C6C425B12F2C}"/>
+    <hyperlink ref="K92" r:id="rId633" xr:uid="{ECEDD90F-EFBA-4DBF-9AD3-59C935544527}"/>
+    <hyperlink ref="N92" r:id="rId634" xr:uid="{4FF4A35D-62C9-4BC8-B036-2E47A5BFA423}"/>
+    <hyperlink ref="O92" r:id="rId635" xr:uid="{3E821771-648F-49C4-9C90-4278FF3BFAA2}"/>
+    <hyperlink ref="P92" r:id="rId636" xr:uid="{36C1FA34-9069-43E8-8E92-031443AFECC7}"/>
+    <hyperlink ref="Q92" r:id="rId637" xr:uid="{DB8B553B-5B03-4672-ACDF-4AD324C0BB90}"/>
+    <hyperlink ref="H93" r:id="rId638" xr:uid="{666B01CE-6A8A-41B5-98CE-AF5508938CF0}"/>
+    <hyperlink ref="J93" r:id="rId639" xr:uid="{EFD8B7D6-4388-4862-8774-94C641BFB135}"/>
+    <hyperlink ref="K93" r:id="rId640" xr:uid="{425497B4-037E-4132-9AF9-30E42C741D44}"/>
+    <hyperlink ref="N93" r:id="rId641" xr:uid="{30DFF41A-F71B-4277-9640-F0DCB78BBB3B}"/>
+    <hyperlink ref="O93" r:id="rId642" xr:uid="{CE35F5F1-1B5D-4C88-B225-0E6938C2AAF6}"/>
+    <hyperlink ref="P93" r:id="rId643" xr:uid="{A7702D25-DDBA-421D-AD08-633E70708F13}"/>
+    <hyperlink ref="Q93" r:id="rId644" xr:uid="{73EDFD8D-9FD6-46CA-9705-0ADEC9DAF535}"/>
+    <hyperlink ref="H94" r:id="rId645" xr:uid="{F32DA7DC-B03F-4069-A5F9-F8624FD9A9EC}"/>
+    <hyperlink ref="J94" r:id="rId646" xr:uid="{BCB58B0D-9866-4951-A5FF-26F4AA186488}"/>
+    <hyperlink ref="K94" r:id="rId647" xr:uid="{0777EB15-BB40-483C-A1CC-45B8280F1506}"/>
+    <hyperlink ref="N94" r:id="rId648" xr:uid="{594FD4B1-2FFD-48FF-87DE-EFCE8BC79F21}"/>
+    <hyperlink ref="O94" r:id="rId649" xr:uid="{8A115AC7-D982-4757-B243-52AA5B7C45C7}"/>
+    <hyperlink ref="P94" r:id="rId650" xr:uid="{0F6B2B2B-CE08-4BCB-B957-5BC1CD124FD4}"/>
+    <hyperlink ref="Q94" r:id="rId651" xr:uid="{B136F7C2-2467-420C-8C99-012AB9C53869}"/>
+    <hyperlink ref="H95" r:id="rId652" xr:uid="{5F0604B4-82AE-48B8-A49A-82905FFCDA56}"/>
+    <hyperlink ref="J95" r:id="rId653" xr:uid="{39EFA202-6834-46B5-A83F-EEB2004A2108}"/>
+    <hyperlink ref="K95" r:id="rId654" xr:uid="{0CAA560A-D77F-4642-BB87-689133165D71}"/>
+    <hyperlink ref="N95" r:id="rId655" xr:uid="{A5749055-38D5-4BC8-960B-FFD454A3A803}"/>
+    <hyperlink ref="O95" r:id="rId656" xr:uid="{5D3817CB-87BF-471E-B0E0-F50C47E5555F}"/>
+    <hyperlink ref="P95" r:id="rId657" xr:uid="{7C5F9C7F-98D9-43F7-8E19-8E68FF53F471}"/>
+    <hyperlink ref="Q95" r:id="rId658" xr:uid="{54DEE24E-0A7E-458B-B86D-19A5BD09C288}"/>
+    <hyperlink ref="H96" r:id="rId659" xr:uid="{F5EF79CD-1B77-4672-8A3E-AF8FA1CF4B0C}"/>
+    <hyperlink ref="J96" r:id="rId660" xr:uid="{38AB73D7-FD77-4CBA-9263-843508295668}"/>
+    <hyperlink ref="K96" r:id="rId661" xr:uid="{489F0CCE-26C0-4198-8BC3-229C367DA41D}"/>
+    <hyperlink ref="N96" r:id="rId662" xr:uid="{3B263BBA-ED81-47E8-94A5-EB8A66129446}"/>
+    <hyperlink ref="O96" r:id="rId663" xr:uid="{3CF350E6-EC73-4A76-A4B5-846D1C805225}"/>
+    <hyperlink ref="P96" r:id="rId664" xr:uid="{C83F8DE2-843E-4A63-8963-E53E5B085F52}"/>
+    <hyperlink ref="Q96" r:id="rId665" xr:uid="{39A37DC8-390B-4E92-B00C-71A6BE3D8DB4}"/>
+    <hyperlink ref="H97" r:id="rId666" xr:uid="{A3F22EB9-A0A4-47CE-903C-6D1BCE9DBC5E}"/>
+    <hyperlink ref="J97" r:id="rId667" xr:uid="{D43EC75C-2D9A-4ADA-9C6D-1A8EFD5BCE5B}"/>
+    <hyperlink ref="K97" r:id="rId668" xr:uid="{68E2E20E-5AF5-4B25-9616-F5D43D65FE8B}"/>
+    <hyperlink ref="N97" r:id="rId669" xr:uid="{F6B8EE48-D2F5-42D8-9558-4BEA99B52A31}"/>
+    <hyperlink ref="O97" r:id="rId670" xr:uid="{A0387081-6F1A-404B-ABD0-D742F1C14C82}"/>
+    <hyperlink ref="P97" r:id="rId671" xr:uid="{450B5143-C84A-4538-AC9C-BD42043C7654}"/>
+    <hyperlink ref="Q97" r:id="rId672" xr:uid="{A222E40E-602A-4B52-B9AE-2A3DA4B43A59}"/>
+    <hyperlink ref="H98" r:id="rId673" xr:uid="{40CF16D1-F348-4872-918F-8BE3CBBEB98F}"/>
+    <hyperlink ref="J98" r:id="rId674" xr:uid="{49732543-4A49-47BD-98BD-BC300178CD2D}"/>
+    <hyperlink ref="K98" r:id="rId675" xr:uid="{9515213D-4F86-4450-9F56-D1DE66C68C93}"/>
+    <hyperlink ref="N98" r:id="rId676" xr:uid="{F54CEE5C-7DFE-4939-8089-70975575F822}"/>
+    <hyperlink ref="O98" r:id="rId677" xr:uid="{57EB1C73-1A9E-4625-A6DD-F8FFF8B6D352}"/>
+    <hyperlink ref="P98" r:id="rId678" xr:uid="{679C4EE9-1DF2-4723-9C2F-4D3131B932DC}"/>
+    <hyperlink ref="Q98" r:id="rId679" xr:uid="{9DCE48A1-D7D1-4CD4-A1C0-38EEAE0D1CB3}"/>
+    <hyperlink ref="H99" r:id="rId680" xr:uid="{7B37119D-E315-4656-9C16-74B05BE26CD3}"/>
+    <hyperlink ref="J99" r:id="rId681" xr:uid="{CE442383-6B78-4188-BBF4-43DCE113FD02}"/>
+    <hyperlink ref="K99" r:id="rId682" xr:uid="{4B4D1F5A-2A17-4CE6-9F5C-29E7D2D4E189}"/>
+    <hyperlink ref="N99" r:id="rId683" xr:uid="{90EF50DC-92D1-44C8-A3B4-B49EA7181CCD}"/>
+    <hyperlink ref="O99" r:id="rId684" xr:uid="{3CA669D1-3B0F-4843-84C6-7416888619C7}"/>
+    <hyperlink ref="P99" r:id="rId685" xr:uid="{79A10347-7434-4DC8-9901-FF3CFD388E19}"/>
+    <hyperlink ref="Q99" r:id="rId686" xr:uid="{EE62D265-E602-433F-824E-9DE39F64A23B}"/>
+    <hyperlink ref="H100" r:id="rId687" xr:uid="{6589CB06-E000-42B9-880B-A3360D7199EE}"/>
+    <hyperlink ref="J100" r:id="rId688" xr:uid="{106CA479-7F78-4EC7-868E-E193D352E40D}"/>
+    <hyperlink ref="K100" r:id="rId689" xr:uid="{6D0D6F1C-B1AB-4ED4-A151-E7963CBE7D7D}"/>
+    <hyperlink ref="N100" r:id="rId690" xr:uid="{30889EE5-E604-4E96-9823-EC5859BE7B13}"/>
+    <hyperlink ref="O100" r:id="rId691" xr:uid="{F024CC45-3354-49F1-AB85-0343D75ECA5F}"/>
+    <hyperlink ref="P100" r:id="rId692" xr:uid="{6C21B626-0494-4C91-AF74-9B59DCA16306}"/>
+    <hyperlink ref="Q100" r:id="rId693" xr:uid="{BF474623-2BC4-47A7-A446-565C2CA82006}"/>
+    <hyperlink ref="H101" r:id="rId694" xr:uid="{86B50BD2-FEAD-4718-85C6-78D4BFA2F15C}"/>
+    <hyperlink ref="J101" r:id="rId695" xr:uid="{F23EA56D-62A7-4044-9C17-1D923575FFBC}"/>
+    <hyperlink ref="K101" r:id="rId696" xr:uid="{7474009E-A0BD-4CB6-8004-A1E28E7DD11F}"/>
+    <hyperlink ref="N101" r:id="rId697" xr:uid="{992EEF2C-FB29-4C59-A9E9-9986AD4EEF1F}"/>
+    <hyperlink ref="O101" r:id="rId698" xr:uid="{295653B7-A076-4C30-BCBD-A9315A71A609}"/>
+    <hyperlink ref="P101" r:id="rId699" xr:uid="{E8F1B8CC-0345-4062-9888-8A4D58141A8B}"/>
+    <hyperlink ref="Q101" r:id="rId700" xr:uid="{6ACEFE4A-A9EE-496B-9BE0-2C8D909E1819}"/>
+    <hyperlink ref="H102" r:id="rId701" xr:uid="{DDAD5DA8-7196-4E71-B880-970A714E8CCB}"/>
+    <hyperlink ref="J102" r:id="rId702" xr:uid="{B75559DD-0988-4593-911C-09BD4391A0B5}"/>
+    <hyperlink ref="K102" r:id="rId703" xr:uid="{8E13D973-817D-4E43-B0E6-4E694BD36EC1}"/>
+    <hyperlink ref="N102" r:id="rId704" xr:uid="{96303DB8-5B94-4743-8A02-98569FB2D971}"/>
+    <hyperlink ref="O102" r:id="rId705" xr:uid="{24F57AC2-EB92-4D53-A8CE-24766C2EA8A1}"/>
+    <hyperlink ref="P102" r:id="rId706" xr:uid="{0BF91E36-E696-4F13-807E-3E96C08331F5}"/>
+    <hyperlink ref="Q102" r:id="rId707" xr:uid="{14A16DDC-5BBC-43D6-9D4F-6F0ED442FC18}"/>
+    <hyperlink ref="H103" r:id="rId708" xr:uid="{A3FF24C7-6557-427C-B9F5-6639E3F7DDB6}"/>
+    <hyperlink ref="J103" r:id="rId709" xr:uid="{7D94127F-69C5-4A43-852B-9AFEAE62A7E2}"/>
+    <hyperlink ref="K103" r:id="rId710" xr:uid="{FED6D9C8-C7AB-4856-ADE3-3F5A2A564122}"/>
+    <hyperlink ref="N103" r:id="rId711" xr:uid="{E72336EC-DD70-4404-B4DA-6603F65DCB46}"/>
+    <hyperlink ref="O103" r:id="rId712" xr:uid="{82CB98AB-F7A7-459B-8025-E7B765BC6CB2}"/>
+    <hyperlink ref="P103" r:id="rId713" xr:uid="{E72FF8BC-D4D9-4FBC-AD15-1AEE0EB4F796}"/>
+    <hyperlink ref="Q103" r:id="rId714" xr:uid="{A064ADA1-3892-4C6D-B3C4-A5C4BAFFEC9F}"/>
+    <hyperlink ref="H104" r:id="rId715" xr:uid="{41CC9FC1-BBF0-4D78-9F4D-A838530AF169}"/>
+    <hyperlink ref="J104" r:id="rId716" xr:uid="{D2E5F91B-3AFB-4FF5-B18B-1EF4A10AD602}"/>
+    <hyperlink ref="K104" r:id="rId717" xr:uid="{91D03B9B-892E-429E-9948-93BC11B84A71}"/>
+    <hyperlink ref="N104" r:id="rId718" xr:uid="{44C4B4CE-FBE6-460F-A177-D583C9DB455C}"/>
+    <hyperlink ref="O104" r:id="rId719" xr:uid="{AE4418C9-C0F8-4A16-A66B-A749AEA6BC13}"/>
+    <hyperlink ref="P104" r:id="rId720" xr:uid="{578E9502-1E5D-4723-AFBA-4818F160314D}"/>
+    <hyperlink ref="Q104" r:id="rId721" xr:uid="{1DA8416F-06B7-463C-B1D4-0DA07F92B405}"/>
+    <hyperlink ref="H105" r:id="rId722" xr:uid="{4650D89F-8A6A-4272-952F-D34D023851FC}"/>
+    <hyperlink ref="J105" r:id="rId723" xr:uid="{DDBD8C9D-7600-4730-B4DF-28F47B58B8B0}"/>
+    <hyperlink ref="K105" r:id="rId724" xr:uid="{6C031794-C284-441F-8683-0FEF88556474}"/>
+    <hyperlink ref="N105" r:id="rId725" xr:uid="{38B71D6E-16A7-4131-8CED-189D67C99A67}"/>
+    <hyperlink ref="O105" r:id="rId726" xr:uid="{D1D5D63E-D3CA-446E-99D1-B62500944DA3}"/>
+    <hyperlink ref="P105" r:id="rId727" xr:uid="{C7313D5E-F20A-4815-8D9A-830B388F53EA}"/>
+    <hyperlink ref="Q105" r:id="rId728" xr:uid="{0DE3F1EF-A058-4FA8-8A69-3ADEBD96E8BA}"/>
+    <hyperlink ref="H106" r:id="rId729" xr:uid="{30FE4124-E252-4658-BCA8-8580C43ABC0F}"/>
+    <hyperlink ref="J106" r:id="rId730" xr:uid="{D6F43C8A-BB19-465A-9B36-06FF5C2923D2}"/>
+    <hyperlink ref="K106" r:id="rId731" xr:uid="{822431FB-B8CF-4182-A5B7-C43671C8548C}"/>
+    <hyperlink ref="N106" r:id="rId732" xr:uid="{5ABB0A6D-D9D1-492C-BAEE-524E79D9FE5B}"/>
+    <hyperlink ref="O106" r:id="rId733" xr:uid="{AAA1B137-6BEF-4873-87C0-735B3F49F9DE}"/>
+    <hyperlink ref="P106" r:id="rId734" xr:uid="{4A4F467D-CF8E-41F6-ACA3-9BC161693397}"/>
+    <hyperlink ref="Q106" r:id="rId735" xr:uid="{AF3D5FCE-9FC7-421C-9EDF-1555EAE81234}"/>
+    <hyperlink ref="H107" r:id="rId736" xr:uid="{86A2BEDD-5680-4DB4-A1CD-E09316B7DEBF}"/>
+    <hyperlink ref="J107" r:id="rId737" xr:uid="{4449A87A-1081-4324-B640-EB33525FB5CC}"/>
+    <hyperlink ref="K107" r:id="rId738" xr:uid="{B4E29EBC-5C82-4F0C-BE74-93ED821F8E81}"/>
+    <hyperlink ref="N107" r:id="rId739" xr:uid="{6C022076-F73A-4107-BA83-F3A964DDBD5B}"/>
+    <hyperlink ref="O107" r:id="rId740" xr:uid="{9847DC4F-5651-43AB-80B9-6C34C2F5DD71}"/>
+    <hyperlink ref="P107" r:id="rId741" xr:uid="{CADDB9EB-9467-401D-8BAF-485C20B872A8}"/>
+    <hyperlink ref="Q107" r:id="rId742" xr:uid="{B713CAD2-ECE7-46E9-8A30-25829B685838}"/>
+    <hyperlink ref="H108" r:id="rId743" xr:uid="{CABF535E-A244-4BAF-827D-5907F22C0C61}"/>
+    <hyperlink ref="J108" r:id="rId744" xr:uid="{2C1ED9B0-FDB8-47BC-BC85-F64E3212D614}"/>
+    <hyperlink ref="K108" r:id="rId745" xr:uid="{84651BE8-987B-4735-9DDD-11D449BD4758}"/>
+    <hyperlink ref="N108" r:id="rId746" xr:uid="{B3CBE268-C313-438B-B46F-1007B4182F60}"/>
+    <hyperlink ref="O108" r:id="rId747" xr:uid="{32220F29-D6B7-47D5-93AE-E5BF2765EC90}"/>
+    <hyperlink ref="P108" r:id="rId748" xr:uid="{853DE31D-C2C4-4B03-B7DC-284EBBEAEE88}"/>
+    <hyperlink ref="Q108" r:id="rId749" xr:uid="{24C6D27D-2B58-44C2-8356-E643CDEABB12}"/>
+    <hyperlink ref="H109" r:id="rId750" xr:uid="{C74F21FF-C298-4A18-A69A-260E7009D884}"/>
+    <hyperlink ref="J109" r:id="rId751" xr:uid="{11EC30DE-CF4B-4655-9821-D2D293F4EFFA}"/>
+    <hyperlink ref="K109" r:id="rId752" xr:uid="{DD65B6D4-2C29-4B62-B1D5-4D9FB08295D8}"/>
+    <hyperlink ref="N109" r:id="rId753" xr:uid="{4BEA83D0-23F7-44C5-9D1C-CE2CF3898B0D}"/>
+    <hyperlink ref="O109" r:id="rId754" xr:uid="{EFF3E0D5-4B80-4C34-AB6E-DC2AA87F61B8}"/>
+    <hyperlink ref="P109" r:id="rId755" xr:uid="{C2FADE4A-E3A5-4D05-861B-A3A6788267C1}"/>
+    <hyperlink ref="Q109" r:id="rId756" xr:uid="{809D8468-6F0E-44C6-9769-F37F645FA690}"/>
+    <hyperlink ref="H110" r:id="rId757" xr:uid="{82F0994D-2683-433C-A94C-5510365D71E8}"/>
+    <hyperlink ref="J110" r:id="rId758" xr:uid="{2932BA83-EFC1-43D7-A260-44EE53C8B465}"/>
+    <hyperlink ref="K110" r:id="rId759" xr:uid="{EADFD04B-94A0-42B9-81E9-4FACB2803CF5}"/>
+    <hyperlink ref="N110" r:id="rId760" xr:uid="{8C4DC0D2-D7B0-4CEC-A1C7-92DB41523F22}"/>
+    <hyperlink ref="O110" r:id="rId761" xr:uid="{BD7F6D88-1545-4F28-8A52-921C6624C0ED}"/>
+    <hyperlink ref="P110" r:id="rId762" xr:uid="{E7729D2F-FE7E-46DC-9552-BAD9A84F84FB}"/>
+    <hyperlink ref="Q110" r:id="rId763" xr:uid="{FAE770F6-2CE7-48E3-824C-324AFD1F5339}"/>
+    <hyperlink ref="H111" r:id="rId764" xr:uid="{B2DB8AAB-F180-479E-A531-6ACB4BAD377F}"/>
+    <hyperlink ref="J111" r:id="rId765" xr:uid="{4353BA7A-4786-4E08-8D3A-29671CB3052D}"/>
+    <hyperlink ref="K111" r:id="rId766" xr:uid="{B6EF9649-D914-4DC5-A5E8-AC7C7FD7204E}"/>
+    <hyperlink ref="N111" r:id="rId767" xr:uid="{C6402379-E958-4415-91CF-7928F839B28C}"/>
+    <hyperlink ref="O111" r:id="rId768" xr:uid="{E9D9AF22-7B79-430F-9293-9BD4FB6016BD}"/>
+    <hyperlink ref="P111" r:id="rId769" xr:uid="{68F40224-7199-443F-8A2B-8E316932CDBC}"/>
+    <hyperlink ref="Q111" r:id="rId770" xr:uid="{4662966C-1919-49AE-836D-5317F194A118}"/>
+    <hyperlink ref="H112" r:id="rId771" xr:uid="{2874A77A-ED8F-469B-B72E-F86938142530}"/>
+    <hyperlink ref="J112" r:id="rId772" xr:uid="{80E36E7D-99A4-4BB9-B861-F8391D14D22A}"/>
+    <hyperlink ref="K112" r:id="rId773" xr:uid="{45BF77D5-3AA6-430C-8C03-854B2DAA23B5}"/>
+    <hyperlink ref="N112" r:id="rId774" xr:uid="{16D81361-92D8-4E86-B0C7-87C3AF1D0157}"/>
+    <hyperlink ref="O112" r:id="rId775" xr:uid="{58A9B9DC-E93A-4C64-94C7-749C605105EA}"/>
+    <hyperlink ref="P112" r:id="rId776" xr:uid="{DCFFC34E-796A-4D55-AF1F-3C3AD2ECDDD6}"/>
+    <hyperlink ref="Q112" r:id="rId777" xr:uid="{67A6F964-00EF-43CF-B7F1-4FC8CE9A2620}"/>
+    <hyperlink ref="H113" r:id="rId778" xr:uid="{384399E1-7E20-48E7-8FC9-A2BC1252452B}"/>
+    <hyperlink ref="J113" r:id="rId779" xr:uid="{8F56F4D3-7279-40E7-8F08-1D1DF4E49E8E}"/>
+    <hyperlink ref="K113" r:id="rId780" xr:uid="{CEE11537-A0EA-47AB-AFC5-060331619DA9}"/>
+    <hyperlink ref="N113" r:id="rId781" xr:uid="{D27D41EE-A9CC-4364-8A99-570BF0BF35F5}"/>
+    <hyperlink ref="O113" r:id="rId782" xr:uid="{C238C9E7-9A7C-4633-8F55-7F60D1425DD6}"/>
+    <hyperlink ref="P113" r:id="rId783" xr:uid="{06DD30AE-5CDA-4246-A841-419D0C883261}"/>
+    <hyperlink ref="Q113" r:id="rId784" xr:uid="{FD29F231-9457-4F00-9824-B51C8DC3758D}"/>
+    <hyperlink ref="H114" r:id="rId785" xr:uid="{390840FA-64EC-4406-9720-0BD5143B2CD4}"/>
+    <hyperlink ref="J114" r:id="rId786" xr:uid="{614CEA3E-BB71-4B04-8813-1103ECC854E9}"/>
+    <hyperlink ref="K114" r:id="rId787" xr:uid="{043126A2-5C8B-41A4-95D4-D5E6E637692D}"/>
+    <hyperlink ref="N114" r:id="rId788" xr:uid="{8138700B-A706-4E61-871C-A4753907A3AA}"/>
+    <hyperlink ref="O114" r:id="rId789" xr:uid="{7EC99FDE-C7A6-4407-8FBF-402E1C66BCE0}"/>
+    <hyperlink ref="P114" r:id="rId790" xr:uid="{65E9C79D-5B37-4637-9005-8EE8AFE1611F}"/>
+    <hyperlink ref="Q114" r:id="rId791" xr:uid="{9CBE8687-FC9C-466B-8688-21BE615BB225}"/>
+    <hyperlink ref="H115" r:id="rId792" xr:uid="{7186B8F8-34CD-408F-91EA-1FF7C8F8663A}"/>
+    <hyperlink ref="J115" r:id="rId793" xr:uid="{49CADBB3-7EF5-4D3D-8759-4ADDB32BBDD8}"/>
+    <hyperlink ref="K115" r:id="rId794" xr:uid="{E9E3FA88-2910-4CDB-BE61-2340376D878F}"/>
+    <hyperlink ref="N115" r:id="rId795" xr:uid="{8D9FA6C6-56D8-4206-9978-4B8C86DE7D81}"/>
+    <hyperlink ref="O115" r:id="rId796" xr:uid="{FF82BA1E-C76E-433A-B7F1-DD1D2BF8AAA7}"/>
+    <hyperlink ref="P115" r:id="rId797" xr:uid="{1ADA1DD0-9159-4E47-AD5E-E798446F5103}"/>
+    <hyperlink ref="Q115" r:id="rId798" xr:uid="{2F13AB46-CB93-4DEF-9BC4-1962B5D600A7}"/>
+    <hyperlink ref="H116" r:id="rId799" xr:uid="{CE149D4A-7133-4FA1-B4F5-E2B77B88B565}"/>
+    <hyperlink ref="J116" r:id="rId800" xr:uid="{3E466F53-28C9-47F6-919A-5C37821027FE}"/>
+    <hyperlink ref="K116" r:id="rId801" xr:uid="{DC234E57-CC7B-4531-81C8-E0C064A2EE29}"/>
+    <hyperlink ref="N116" r:id="rId802" xr:uid="{2256657F-A7C3-46B5-B213-93FB5EA9E7D3}"/>
+    <hyperlink ref="O116" r:id="rId803" xr:uid="{C56CA86D-822B-4DA4-AF6E-4CAE9CB5BFF1}"/>
+    <hyperlink ref="P116" r:id="rId804" xr:uid="{7E557BC3-369C-4D44-8587-F7511C64D4E9}"/>
+    <hyperlink ref="Q116" r:id="rId805" xr:uid="{506DBE0E-8880-48C3-A19B-F8BB67E811D6}"/>
+    <hyperlink ref="H117" r:id="rId806" xr:uid="{2F1FE440-D6E1-4253-A36C-C942CC4F585A}"/>
+    <hyperlink ref="J117" r:id="rId807" xr:uid="{2AAC4348-9E5F-4965-B04F-450DDA815BB3}"/>
+    <hyperlink ref="K117" r:id="rId808" xr:uid="{25AB39FB-F0A5-4B25-95CF-4083000A73FE}"/>
+    <hyperlink ref="N117" r:id="rId809" xr:uid="{44754EC8-444F-4471-998F-49FB0BBFF75B}"/>
+    <hyperlink ref="O117" r:id="rId810" xr:uid="{96831FEA-7933-4EE7-A3C7-D76088A5CA86}"/>
+    <hyperlink ref="P117" r:id="rId811" xr:uid="{C8624B29-A780-4628-B998-324776A13F8E}"/>
+    <hyperlink ref="Q117" r:id="rId812" xr:uid="{054B5AED-5E6B-46D6-A71F-4F6C251C4D45}"/>
+    <hyperlink ref="H118" r:id="rId813" xr:uid="{8756CB49-98E2-4491-87C4-D1B751556308}"/>
+    <hyperlink ref="J118" r:id="rId814" xr:uid="{DD0B87EC-208C-42DE-BC57-349A97E1DD52}"/>
+    <hyperlink ref="K118" r:id="rId815" xr:uid="{EA48C0FE-1D59-4E47-8069-A7F274C85C15}"/>
+    <hyperlink ref="N118" r:id="rId816" xr:uid="{F17878D4-96B1-4C73-B70F-058E7A6C25C6}"/>
+    <hyperlink ref="O118" r:id="rId817" xr:uid="{F08671C2-0A06-4005-9127-3D0870195B81}"/>
+    <hyperlink ref="P118" r:id="rId818" xr:uid="{1424848A-66B0-46BC-AF64-1BFFAE12E89A}"/>
+    <hyperlink ref="Q118" r:id="rId819" xr:uid="{4AC25B19-66A5-43A0-A1AA-7C25A8478025}"/>
+    <hyperlink ref="H119" r:id="rId820" xr:uid="{6FDCE944-B54A-4585-90B7-6EA64DF9FC8C}"/>
+    <hyperlink ref="J119" r:id="rId821" xr:uid="{63BF2A18-C720-4E91-9A55-0B4CAFE3BA2D}"/>
+    <hyperlink ref="K119" r:id="rId822" xr:uid="{5CCB8291-DA97-402D-80FE-88D0F195F730}"/>
+    <hyperlink ref="N119" r:id="rId823" xr:uid="{D422E173-A522-4B38-92ED-C0A448B94C9F}"/>
+    <hyperlink ref="O119" r:id="rId824" xr:uid="{3B419AEF-832F-4F75-9C5C-010A61FFFAC8}"/>
+    <hyperlink ref="P119" r:id="rId825" xr:uid="{207C37ED-FD57-4FC9-B940-FB4DFC01351B}"/>
+    <hyperlink ref="Q119" r:id="rId826" xr:uid="{86164E9D-C7C3-4520-AC35-F4228DED5054}"/>
+    <hyperlink ref="H120" r:id="rId827" xr:uid="{D49611A6-2E29-4632-BF6C-9AFECC521314}"/>
+    <hyperlink ref="J120" r:id="rId828" xr:uid="{C23878E0-054C-4731-B9E9-B02714D5D29F}"/>
+    <hyperlink ref="K120" r:id="rId829" xr:uid="{89BB9D91-1818-43F8-8A01-9CCD75129352}"/>
+    <hyperlink ref="N120" r:id="rId830" xr:uid="{1CE8DCA6-0AFB-481C-9CBE-4850466003DF}"/>
+    <hyperlink ref="O120" r:id="rId831" xr:uid="{588708F9-FB02-4D4A-8302-E62B26ED2E96}"/>
+    <hyperlink ref="P120" r:id="rId832" xr:uid="{870FA4EA-9A86-4E0C-BD9B-F4819C2B07A5}"/>
+    <hyperlink ref="Q120" r:id="rId833" xr:uid="{FEFF5325-FEF9-454A-A669-F85F68F92A8D}"/>
+    <hyperlink ref="H121" r:id="rId834" xr:uid="{3F7CBF3B-0329-4167-A27A-85B1DC9F4CE8}"/>
+    <hyperlink ref="J121" r:id="rId835" xr:uid="{0D68D478-62D2-4B6B-93BC-3AA464870E1B}"/>
+    <hyperlink ref="K121" r:id="rId836" xr:uid="{94AC4C1B-CB03-40C9-B7AC-2ED9FBBEFCE6}"/>
+    <hyperlink ref="N121" r:id="rId837" xr:uid="{791BEF00-E140-4930-B752-46F1F90E2366}"/>
+    <hyperlink ref="O121" r:id="rId838" xr:uid="{8DB365B6-09C1-4E28-8ED5-AE78CB266EE8}"/>
+    <hyperlink ref="P121" r:id="rId839" xr:uid="{68CEB80A-0E1E-4DC4-9550-A8E0802C3FE4}"/>
+    <hyperlink ref="Q121" r:id="rId840" xr:uid="{462ED6A4-8DA5-45AC-8A2E-192FA1F137EE}"/>
+    <hyperlink ref="H122" r:id="rId841" xr:uid="{EA237AC8-6031-4B73-A097-150212474140}"/>
+    <hyperlink ref="J122" r:id="rId842" xr:uid="{F259B89E-F3A8-4302-ABA8-C2E6998E27B0}"/>
+    <hyperlink ref="K122" r:id="rId843" xr:uid="{16A46E65-21C0-4DAF-A89D-8F2CC970D52B}"/>
+    <hyperlink ref="N122" r:id="rId844" xr:uid="{8F9C9B05-C9C8-4A79-9117-FB6235A41780}"/>
+    <hyperlink ref="O122" r:id="rId845" xr:uid="{F132ACEA-6979-414A-93C1-16C8B983BDB2}"/>
+    <hyperlink ref="P122" r:id="rId846" xr:uid="{EFBACC77-E0F9-4542-B33A-FAFCC5200198}"/>
+    <hyperlink ref="Q122" r:id="rId847" xr:uid="{8D110E52-7F32-4CA8-AA79-D55414353789}"/>
+    <hyperlink ref="H123" r:id="rId848" xr:uid="{0FA0DC0D-F273-4F20-B554-67E1325908D3}"/>
+    <hyperlink ref="J123" r:id="rId849" xr:uid="{1A0C1519-C006-4513-97D5-EFC9A197A394}"/>
+    <hyperlink ref="K123" r:id="rId850" xr:uid="{AC6335DC-1F20-4C32-9626-74767DE25090}"/>
+    <hyperlink ref="N123" r:id="rId851" xr:uid="{C30E8597-4804-4B43-BA35-56CE03675F3F}"/>
+    <hyperlink ref="O123" r:id="rId852" xr:uid="{8C1243F9-107A-4ADC-BB23-3E8E3D3BB907}"/>
+    <hyperlink ref="P123" r:id="rId853" xr:uid="{B2C0E4EA-D9BC-486A-A452-8CC28A952ED5}"/>
+    <hyperlink ref="Q123" r:id="rId854" xr:uid="{F6BF1EE7-AA83-443A-A842-C5D52394FD95}"/>
+    <hyperlink ref="H124" r:id="rId855" xr:uid="{5FF264FC-AFBE-4252-A6D6-3317BFC1B11B}"/>
+    <hyperlink ref="J124" r:id="rId856" xr:uid="{CDF009D2-83D6-4379-AF31-72095CE88908}"/>
+    <hyperlink ref="K124" r:id="rId857" xr:uid="{8800E5C5-A36D-4A3B-8924-EC14ABF6597D}"/>
+    <hyperlink ref="N124" r:id="rId858" xr:uid="{661FC75C-4217-43AA-9FD7-2CCD0F37D191}"/>
+    <hyperlink ref="O124" r:id="rId859" xr:uid="{8EF20D19-47FF-4697-9A21-9845F23432B5}"/>
+    <hyperlink ref="P124" r:id="rId860" xr:uid="{02693D12-F04B-4BA4-97A7-A5F9A1C2CD2F}"/>
+    <hyperlink ref="Q124" r:id="rId861" xr:uid="{8A03AD77-C6DF-40B3-AEDF-1D128B57A0DD}"/>
+    <hyperlink ref="H125" r:id="rId862" xr:uid="{EAB79647-6FAA-4EE7-BF2F-D59B93CC1DBE}"/>
+    <hyperlink ref="J125" r:id="rId863" xr:uid="{F965283E-A310-49A2-9351-8E8F9B672717}"/>
+    <hyperlink ref="K125" r:id="rId864" xr:uid="{CEE7631D-EED0-41DE-9C0B-4A251A365AE4}"/>
+    <hyperlink ref="N125" r:id="rId865" xr:uid="{C37D03F7-9EAC-4BFE-82A7-6CE4C94F0B8F}"/>
+    <hyperlink ref="O125" r:id="rId866" xr:uid="{12CE3B31-1064-42B2-88D5-870538973EB6}"/>
+    <hyperlink ref="P125" r:id="rId867" xr:uid="{749F61DF-06A9-4B13-82DF-2AA283465915}"/>
+    <hyperlink ref="Q125" r:id="rId868" xr:uid="{AB4E8C14-13C4-4CD3-A532-1EC899CBC406}"/>
+    <hyperlink ref="H126" r:id="rId869" xr:uid="{5E1FB4B6-3674-46C4-BD15-1EC646AB8D9F}"/>
+    <hyperlink ref="J126" r:id="rId870" xr:uid="{DA417F9D-321A-4A0D-971D-B6215F86EF39}"/>
+    <hyperlink ref="K126" r:id="rId871" xr:uid="{4CA207D2-FAF8-4190-B7D4-42F9D8D8CC6A}"/>
+    <hyperlink ref="N126" r:id="rId872" xr:uid="{BC8BD03C-84D0-43DA-B2B8-7B6808D82795}"/>
+    <hyperlink ref="O126" r:id="rId873" xr:uid="{2D16C151-2B90-4EF6-B7CB-3DB3FBE08F5C}"/>
+    <hyperlink ref="P126" r:id="rId874" xr:uid="{1C394842-491B-4E07-BA21-C5EA7B91F282}"/>
+    <hyperlink ref="Q126" r:id="rId875" xr:uid="{5E408B43-E6C4-4AA6-BB9F-C6409F26DB31}"/>
+    <hyperlink ref="H127" r:id="rId876" xr:uid="{F91F7149-1973-4921-9BFC-D008E7FCC8C2}"/>
+    <hyperlink ref="J127" r:id="rId877" xr:uid="{5C51F1FA-D659-4B38-8A72-E50CBCB16E98}"/>
+    <hyperlink ref="K127" r:id="rId878" xr:uid="{DA3E8E5C-EE55-4097-9B4C-29C99B5CC1BD}"/>
+    <hyperlink ref="N127" r:id="rId879" xr:uid="{592ED39D-4125-4686-9A46-541C7518F7C4}"/>
+    <hyperlink ref="O127" r:id="rId880" xr:uid="{66F2206B-A546-4BDD-B234-16E1070FE961}"/>
+    <hyperlink ref="P127" r:id="rId881" xr:uid="{A1CC0B4F-37A8-4FB9-B670-3BEA0C29A25C}"/>
+    <hyperlink ref="Q127" r:id="rId882" xr:uid="{410AB6EF-9D99-41C9-9948-84DFC1A92712}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId883"/>
